--- a/D-Advance_Technical_Analysis_QSE_STRONG_BUY.xlsx
+++ b/D-Advance_Technical_Analysis_QSE_STRONG_BUY.xlsx
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B33" t="s">
         <v>48</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B44" t="s">
         <v>51</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B45" t="s">
         <v>27</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B50" t="s">
         <v>30</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B52" t="s">
         <v>31</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B54" t="s">
         <v>33</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B55" t="s">
         <v>34</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B58" t="s">
         <v>36</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B60" t="s">
         <v>56</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B61" t="s">
         <v>38</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B63" t="s">
         <v>57</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B64" t="s">
         <v>40</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B65" t="s">
         <v>58</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B66" t="s">
         <v>41</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B67" t="s">
         <v>42</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B68" t="s">
         <v>59</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B69" t="s">
         <v>43</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B70" t="s">
         <v>60</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B71" t="s">
         <v>61</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B72" t="s">
         <v>62</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B73" t="s">
         <v>63</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B74" t="s">
         <v>44</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B75" t="s">
         <v>45</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B76" t="s">
         <v>46</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B77" t="s">
         <v>64</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B78" t="s">
         <v>47</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
@@ -7347,7 +7347,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2">
-        <v>45295.0834225</v>
+        <v>45295.08621759259</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2">
-        <v>45295.0862175947</v>
+        <v>45295.13199721622</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>

--- a/D-Advance_Technical_Analysis_QSE_STRONG_BUY.xlsx
+++ b/D-Advance_Technical_Analysis_QSE_STRONG_BUY.xlsx
@@ -2488,7 +2488,7 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2497,38 +2497,38 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14.85</v>
+        <v>15.08</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
         <v>8</v>
       </c>
-      <c r="F2" t="n">
-        <v>6</v>
-      </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>8692137</v>
+        <v>6714684</v>
       </c>
       <c r="I2" t="n">
-        <v>29.3333163551711</v>
+        <v>32.74318924998168</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>78.57819271547631</v>
+        <v>82.89363012476377</v>
       </c>
       <c r="K2" t="n">
-        <v>80.00567295424722</v>
+        <v>81.47344674298833</v>
       </c>
       <c r="L2" s="12" t="n">
-        <v>0.815705882352999</v>
+        <v>0.870705882352997</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1344989912575627</v>
+        <v>0.5333333333333339</v>
       </c>
       <c r="N2" t="n">
         <v>13.14666666666667</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2567,34 +2567,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13.12</v>
+        <v>13.23</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
         <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>1793088</v>
+        <v>2523778</v>
       </c>
       <c r="I3" t="n">
-        <v>38.80980066396781</v>
+        <v>46.9217725281064</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>85.09776716339969</v>
+        <v>86.79727384308251</v>
       </c>
       <c r="K3" t="n">
-        <v>84.80419627133614</v>
+        <v>86.32503939510077</v>
       </c>
       <c r="L3" s="12" t="n">
-        <v>0.8168823529411764</v>
+        <v>0.8717941176470614</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1526717557251876</v>
+        <v>0.2272727272727359</v>
       </c>
       <c r="N3" t="n">
         <v>11.12</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2629,38 +2629,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19.35</v>
+        <v>19.75</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>866267</v>
+        <v>2580074</v>
       </c>
       <c r="I4" t="n">
-        <v>34.08662067739235</v>
+        <v>43.3916484509055</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>82.82397005672314</v>
+        <v>84.2097812629608</v>
       </c>
       <c r="K4" t="n">
-        <v>81.1706763719933</v>
+        <v>86.62912534532812</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>1.095353138235339</v>
+        <v>1.472352952941222</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8337623327898872</v>
+        <v>-0.2525202147737466</v>
       </c>
       <c r="N4" t="n">
         <v>16.77888827777777</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -2699,34 +2699,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.15</v>
+        <v>10.48</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>422979</v>
+        <v>1300721</v>
       </c>
       <c r="I5" t="n">
-        <v>16.75358293160195</v>
+        <v>17.93305078134811</v>
       </c>
       <c r="J5" s="12" t="n">
-        <v>60.03076608145814</v>
+        <v>70.3809393924783</v>
       </c>
       <c r="K5" t="n">
-        <v>60.03076608145814</v>
+        <v>68.68080861901416</v>
       </c>
       <c r="L5" s="12" t="n">
-        <v>0.3475881764705839</v>
+        <v>0.4656617058823471</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.5758157389635364</v>
       </c>
       <c r="N5" t="n">
         <v>9.202222222222224</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -2765,34 +2765,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>2158441</v>
+        <v>2960269</v>
       </c>
       <c r="I6" t="n">
-        <v>37.36743471723917</v>
+        <v>39.93822897783049</v>
       </c>
       <c r="J6" s="12" t="n">
-        <v>65.3415695721699</v>
+        <v>65.69024963566564</v>
       </c>
       <c r="K6" t="n">
-        <v>67.70114353390696</v>
+        <v>66.68613959611665</v>
       </c>
       <c r="L6" s="12" t="n">
-        <v>0.3158764705882398</v>
+        <v>0.2531911764705939</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.5382131324004191</v>
+        <v>-0.1931745009658608</v>
       </c>
       <c r="N6" t="n">
         <v>3.764444444444444</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -2831,34 +2831,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.673</v>
+        <v>1.672</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>16252534</v>
+        <v>11081863</v>
       </c>
       <c r="I7" t="n">
-        <v>30.95676012703146</v>
+        <v>23.9949211719757</v>
       </c>
       <c r="J7" s="12" t="n">
-        <v>44.08339316148376</v>
+        <v>44.45689952403556</v>
       </c>
       <c r="K7" t="n">
-        <v>34.03518928657604</v>
+        <v>48.97935956311579</v>
       </c>
       <c r="L7" s="12" t="n">
-        <v>-0.05057647058823012</v>
+        <v>-0.01229411764705413</v>
       </c>
       <c r="M7" t="n">
-        <v>1.702127659574469</v>
+        <v>-1.065088757396451</v>
       </c>
       <c r="N7" t="n">
         <v>1.577777777777777</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2897,34 +2897,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.303</v>
+        <v>2.326</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>8774858</v>
+        <v>11114474</v>
       </c>
       <c r="I8" t="n">
-        <v>29.38089380432904</v>
+        <v>26.7626936816432</v>
       </c>
       <c r="J8" s="12" t="n">
-        <v>41.28528332735682</v>
+        <v>47.12742777604831</v>
       </c>
       <c r="K8" t="n">
-        <v>40.48251505918143</v>
+        <v>48.12506726559043</v>
       </c>
       <c r="L8" s="12" t="n">
-        <v>-0.05673529411764644</v>
+        <v>-0.02962352941176327</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1304347826087006</v>
+        <v>-0.1716738197424894</v>
       </c>
       <c r="N8" t="n">
         <v>2.2575</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2963,34 +2963,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.762</v>
+        <v>0.768</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>2773073</v>
+        <v>8534980</v>
       </c>
       <c r="I9" t="n">
-        <v>26.23510844263188</v>
+        <v>21.75722293600613</v>
       </c>
       <c r="J9" s="12" t="n">
-        <v>30.02015227569537</v>
+        <v>39.14747182765163</v>
       </c>
       <c r="K9" t="n">
-        <v>30.02015227569537</v>
+        <v>42.57517138184155</v>
       </c>
       <c r="L9" s="12" t="n">
-        <v>-0.02790588235293956</v>
+        <v>-0.01727058823529259</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.5181347150259072</v>
       </c>
       <c r="N9" t="n">
         <v>0.7283333333333334</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3029,34 +3029,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.774</v>
+        <v>3.793</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
         <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>2419777</v>
+        <v>4861608</v>
       </c>
       <c r="I10" t="n">
-        <v>34.29695365095727</v>
+        <v>35.43671114708825</v>
       </c>
       <c r="J10" s="12" t="n">
-        <v>58.69778297502587</v>
+        <v>59.61048189599143</v>
       </c>
       <c r="K10" t="n">
-        <v>56.5649787841195</v>
+        <v>61.62222086204157</v>
       </c>
       <c r="L10" s="12" t="n">
-        <v>0.08812647058823364</v>
+        <v>0.1109676470588217</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6131698213809685</v>
+        <v>-0.3415659485023621</v>
       </c>
       <c r="N10" t="n">
         <v>3.426611111111111</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -3091,38 +3091,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.226</v>
+        <v>4.1</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>4416076</v>
+        <v>3582759</v>
       </c>
       <c r="I11" t="n">
-        <v>26.44435220352542</v>
+        <v>22.78266667800646</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>61.90914011465522</v>
+        <v>47.01400213409872</v>
       </c>
       <c r="K11" t="n">
-        <v>64.76440739523025</v>
+        <v>49.1206723765392</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>0.2121205882352974</v>
+        <v>0.1260705882352982</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.4944666823640195</v>
+        <v>-0.4854368932038947</v>
       </c>
       <c r="N11" t="n">
         <v>3.733388888888889</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -3157,38 +3157,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15.6</v>
+        <v>15.65</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="n">
         <v>10</v>
       </c>
-      <c r="G12" t="n">
-        <v>12</v>
-      </c>
       <c r="H12" t="n">
-        <v>208428</v>
+        <v>626768</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38287473658343</v>
+        <v>26.13802007971638</v>
       </c>
       <c r="J12" s="12" t="n">
-        <v>63.45616424906558</v>
+        <v>60.70073939122688</v>
       </c>
       <c r="K12" t="n">
-        <v>58.49345398276684</v>
+        <v>68.98558627464296</v>
       </c>
       <c r="L12" s="12" t="n">
-        <v>0.5448529411764831</v>
+        <v>0.5112647058823683</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9708737864077693</v>
+        <v>-0.9493670886075972</v>
       </c>
       <c r="N12" t="n">
         <v>14.37111111111111</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -3223,38 +3223,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10.48</v>
+        <v>10.52</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>467737</v>
+        <v>855176</v>
       </c>
       <c r="I13" t="n">
-        <v>28.01918007503848</v>
+        <v>22.76808106934289</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>63.1896881121485</v>
+        <v>59.01501262717559</v>
       </c>
       <c r="K13" t="n">
-        <v>58.43984538310207</v>
+        <v>67.52098281489583</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>0.04364705882350428</v>
+        <v>0.3692941176470335</v>
       </c>
       <c r="M13" t="n">
-        <v>1.452081316553731</v>
+        <v>-1.682242990654203</v>
       </c>
       <c r="N13" t="n">
         <v>8.714444444444444</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3293,34 +3293,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14.86</v>
+        <v>14.9</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>314830</v>
+        <v>426055</v>
       </c>
       <c r="I14" t="n">
-        <v>14.8989105147041</v>
+        <v>11.74332465978865</v>
       </c>
       <c r="J14" s="12" t="n">
-        <v>52.89632029385439</v>
+        <v>52.86679531756832</v>
       </c>
       <c r="K14" t="n">
-        <v>55.5301524713662</v>
+        <v>52.86679531756833</v>
       </c>
       <c r="L14" s="12" t="n">
-        <v>0.2148235294117686</v>
+        <v>0.2325000000000053</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.7348029392117649</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>13.54277777777778</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="15">
       <c r="A15" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3359,34 +3359,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11.29</v>
+        <v>11.35</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>518104</v>
+        <v>2062876</v>
       </c>
       <c r="I15" t="n">
-        <v>24.24819907066189</v>
+        <v>20.11940706892861</v>
       </c>
       <c r="J15" s="12" t="n">
-        <v>53.22973778420494</v>
+        <v>54.63844274927386</v>
       </c>
       <c r="K15" t="n">
-        <v>54.77522659701567</v>
+        <v>49.57365296045343</v>
       </c>
       <c r="L15" s="12" t="n">
-        <v>0.4247058823529635</v>
+        <v>0.174911764705902</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.5286343612334846</v>
+        <v>1.793721973094164</v>
       </c>
       <c r="N15" t="n">
         <v>9.770555555555555</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="16">
       <c r="A16" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3425,34 +3425,34 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.737</v>
+        <v>2.771</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>1155865</v>
+        <v>2713538</v>
       </c>
       <c r="I16" t="n">
-        <v>31.47196985369644</v>
+        <v>28.34826254261855</v>
       </c>
       <c r="J16" s="12" t="n">
-        <v>37.23833681661936</v>
+        <v>45.38904086806171</v>
       </c>
       <c r="K16" t="n">
-        <v>37.64820134292144</v>
+        <v>48.65167889277375</v>
       </c>
       <c r="L16" s="12" t="n">
-        <v>-0.1258970588235178</v>
+        <v>-0.07621764705881118</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.1094890510948947</v>
+        <v>-0.6453926138400946</v>
       </c>
       <c r="N16" t="n">
         <v>2.593722222222222</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3487,38 +3487,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>STRONG_SELL</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.7</v>
+        <v>3.876</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H17" t="n">
-        <v>40000</v>
+        <v>80605</v>
       </c>
       <c r="I17" t="n">
-        <v>15.39898137110289</v>
+        <v>16.50120838068134</v>
       </c>
       <c r="J17" s="12" t="n">
-        <v>46.2583362043723</v>
+        <v>60.04336335090184</v>
       </c>
       <c r="K17" t="n">
-        <v>46.33899105773798</v>
+        <v>54.09723563578427</v>
       </c>
       <c r="L17" s="12" t="n">
-        <v>-0.01340588235293971</v>
+        <v>0.02443235294117763</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02701972439880816</v>
+        <v>2.296120348376874</v>
       </c>
       <c r="N17" t="n">
         <v>3.569222222222222</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="18">
       <c r="A18" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3553,38 +3553,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.338</v>
+        <v>1.348</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>10782742</v>
+        <v>17293904</v>
       </c>
       <c r="I18" t="n">
-        <v>22.31278242451356</v>
+        <v>17.49141268015491</v>
       </c>
       <c r="J18" s="12" t="n">
-        <v>44.07839618765302</v>
+        <v>48.15568036374883</v>
       </c>
       <c r="K18" t="n">
-        <v>39.67167663145755</v>
+        <v>48.94757000418703</v>
       </c>
       <c r="L18" s="12" t="n">
-        <v>-0.03836764705882456</v>
+        <v>-0.01887941176470664</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7530120481927717</v>
+        <v>-0.1481481481481483</v>
       </c>
       <c r="N18" t="n">
         <v>1.270055555555556</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3623,34 +3623,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.702</v>
+        <v>1.747</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
-        <v>705135</v>
+        <v>1549622</v>
       </c>
       <c r="I19" t="n">
-        <v>23.4909574277697</v>
+        <v>31.02820650630284</v>
       </c>
       <c r="J19" s="12" t="n">
-        <v>55.62851891181263</v>
+        <v>65.72717959581647</v>
       </c>
       <c r="K19" t="n">
-        <v>54.04592564120778</v>
+        <v>62.79865582823971</v>
       </c>
       <c r="L19" s="12" t="n">
-        <v>0.0220852941176517</v>
+        <v>0.03876470588235748</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2355712603062428</v>
+        <v>0.6916426512968306</v>
       </c>
       <c r="N19" t="n">
         <v>1.640055555555556</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -3692,31 +3692,31 @@
         <v>2.1</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>136089</v>
+        <v>73161</v>
       </c>
       <c r="I20" t="n">
-        <v>10.18039804125722</v>
+        <v>15.0985229672711</v>
       </c>
       <c r="J20" s="12" t="n">
-        <v>48.1734395329029</v>
+        <v>47.85093959485081</v>
       </c>
       <c r="K20" t="n">
-        <v>48.1734395329029</v>
+        <v>55.36045070691043</v>
       </c>
       <c r="L20" s="12" t="n">
-        <v>0.01286764705882204</v>
+        <v>0.02498235294117457</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.869158878504674</v>
       </c>
       <c r="N20" t="n">
         <v>1.949055555555556</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3751,38 +3751,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.963</v>
+        <v>1.943</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F21" t="n">
         <v>9</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>702473</v>
+        <v>3424652</v>
       </c>
       <c r="I21" t="n">
-        <v>21.04093467710287</v>
+        <v>18.23226395873201</v>
       </c>
       <c r="J21" s="12" t="n">
-        <v>52.76773321393455</v>
+        <v>48.78323831496574</v>
       </c>
       <c r="K21" t="n">
-        <v>53.27103479782226</v>
+        <v>44.40186027034198</v>
       </c>
       <c r="L21" s="12" t="n">
-        <v>0.01338235294117562</v>
+        <v>-0.001129411764707156</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.1017811704834607</v>
+        <v>0.8303061754021802</v>
       </c>
       <c r="N21" t="n">
         <v>1.874888888888889</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3821,34 +3821,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3.36</v>
+        <v>3.311</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>6356929</v>
+        <v>7796773</v>
       </c>
       <c r="I22" t="n">
-        <v>38.25085966470691</v>
+        <v>34.1285735139727</v>
       </c>
       <c r="J22" s="12" t="n">
-        <v>67.49526954783869</v>
+        <v>59.59403036712219</v>
       </c>
       <c r="K22" t="n">
-        <v>68.38710557155134</v>
+        <v>57.57862794880207</v>
       </c>
       <c r="L22" s="12" t="n">
-        <v>0.1357117647058836</v>
+        <v>0.1210235294117665</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.1782531194295968</v>
+        <v>0.6077180188392591</v>
       </c>
       <c r="N22" t="n">
         <v>2.928944444444444</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3887,34 +3887,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.768</v>
+        <v>0.777</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23" t="n">
-        <v>923036</v>
+        <v>780603</v>
       </c>
       <c r="I23" t="n">
-        <v>16.85922119510236</v>
+        <v>21.25455034550178</v>
       </c>
       <c r="J23" s="12" t="n">
-        <v>57.33701448840872</v>
+        <v>65.55429022661195</v>
       </c>
       <c r="K23" t="n">
-        <v>47.00020436206797</v>
+        <v>65.55429022661194</v>
       </c>
       <c r="L23" s="12" t="n">
-        <v>-0.002673529411764131</v>
+        <v>0.007682352941177029</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9198423127463872</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0.7404444444444445</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -3949,38 +3949,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
-        <v>3842162</v>
+        <v>10053592</v>
       </c>
       <c r="I24" t="n">
-        <v>26.63883480053414</v>
+        <v>25.04474601852598</v>
       </c>
       <c r="J24" s="12" t="n">
-        <v>57.74997165326167</v>
+        <v>51.97765989071952</v>
       </c>
       <c r="K24" t="n">
-        <v>53.98557319609124</v>
+        <v>58.35901950030753</v>
       </c>
       <c r="L24" s="12" t="n">
-        <v>0.03042058823528926</v>
+        <v>0.02940294117646558</v>
       </c>
       <c r="M24" t="n">
-        <v>0.7697690692792091</v>
+        <v>-0.9009009009009094</v>
       </c>
       <c r="N24" t="n">
         <v>1.335</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="25">
       <c r="A25" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4015,38 +4015,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.106</v>
+        <v>1.131</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
+        <v>9</v>
+      </c>
+      <c r="G25" t="n">
         <v>8</v>
       </c>
-      <c r="G25" t="n">
-        <v>4</v>
-      </c>
       <c r="H25" t="n">
-        <v>4966330</v>
+        <v>4715482</v>
       </c>
       <c r="I25" t="n">
-        <v>23.87727074557194</v>
+        <v>19.72327918763588</v>
       </c>
       <c r="J25" s="12" t="n">
-        <v>35.2599660959217</v>
+        <v>46.60870988912954</v>
       </c>
       <c r="K25" t="n">
-        <v>36.67679054911419</v>
+        <v>48.90242334087384</v>
       </c>
       <c r="L25" s="12" t="n">
-        <v>-0.0633176470588217</v>
+        <v>-0.03169999999999829</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.4500450045004404</v>
+        <v>-0.5277044854881272</v>
       </c>
       <c r="N25" t="n">
         <v>1.055388888888889</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="26">
       <c r="A26" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -4085,34 +4085,34 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13.24</v>
+        <v>13.37</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" t="n">
-        <v>113460</v>
+        <v>6850</v>
       </c>
       <c r="I26" t="n">
-        <v>35.6660963260415</v>
+        <v>45.14403417748694</v>
       </c>
       <c r="J26" s="12" t="n">
-        <v>62.88981124516491</v>
+        <v>63.73024945958366</v>
       </c>
       <c r="K26" t="n">
-        <v>55.32989080280635</v>
+        <v>62.53068333633011</v>
       </c>
       <c r="L26" s="12" t="n">
-        <v>0.1673823529411447</v>
+        <v>0.5854411764705585</v>
       </c>
       <c r="M26" t="n">
-        <v>2.795031055900617</v>
+        <v>0.450788880540937</v>
       </c>
       <c r="N26" t="n">
         <v>11.70666666666667</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -4151,34 +4151,34 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>14.47</v>
+        <v>14.85</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>84520</v>
+        <v>121872</v>
       </c>
       <c r="I27" t="n">
-        <v>37.81402454855818</v>
+        <v>37.76796891545495</v>
       </c>
       <c r="J27" s="12" t="n">
-        <v>59.183881055768</v>
+        <v>66.97505470075428</v>
       </c>
       <c r="K27" t="n">
-        <v>62.36409727697902</v>
+        <v>62.97295362520317</v>
       </c>
       <c r="L27" s="12" t="n">
-        <v>0.7204117647058688</v>
+        <v>0.5845294117646755</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.6863417982155089</v>
+        <v>1.365187713310575</v>
       </c>
       <c r="N27" t="n">
         <v>12.23222222222222</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="28">
       <c r="A28" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4217,34 +4217,34 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.33</v>
+        <v>1.356</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" t="n">
         <v>16</v>
       </c>
       <c r="H28" t="n">
-        <v>15591876</v>
+        <v>18357367</v>
       </c>
       <c r="I28" t="n">
-        <v>11.69287418988283</v>
+        <v>17.56823737807317</v>
       </c>
       <c r="J28" s="12" t="n">
-        <v>59.66386321877641</v>
+        <v>67.12260672332081</v>
       </c>
       <c r="K28" t="n">
-        <v>45.9438774768849</v>
+        <v>62.062345375695</v>
       </c>
       <c r="L28" s="12" t="n">
-        <v>-0.003341176470588625</v>
+        <v>0.02176470588235269</v>
       </c>
       <c r="M28" t="n">
-        <v>2.229054573405084</v>
+        <v>1.19402985074627</v>
       </c>
       <c r="N28" t="n">
         <v>1.266944444444444</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="29">
       <c r="A29" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4279,38 +4279,38 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.501</v>
+        <v>3.529</v>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H29" t="n">
-        <v>77510</v>
+        <v>136077</v>
       </c>
       <c r="I29" t="n">
-        <v>23.08651127469437</v>
+        <v>21.42992338495469</v>
       </c>
       <c r="J29" s="12" t="n">
-        <v>44.17086166087356</v>
+        <v>49.34574439312223</v>
       </c>
       <c r="K29" t="n">
-        <v>46.8694480771639</v>
+        <v>48.13284992705988</v>
       </c>
       <c r="L29" s="12" t="n">
-        <v>-0.06787058823529479</v>
+        <v>-0.04740882352941123</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.539772727272731</v>
+        <v>0.198750709823967</v>
       </c>
       <c r="N29" t="n">
         <v>3.411111111111112</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="30">
       <c r="A30" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4349,34 +4349,34 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3.656</v>
+        <v>3.782</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="n">
-        <v>374187</v>
+        <v>661417</v>
       </c>
       <c r="I30" t="n">
-        <v>47.60121080744216</v>
+        <v>51.97629202811493</v>
       </c>
       <c r="J30" s="12" t="n">
-        <v>60.19241161639334</v>
+        <v>67.33803682273692</v>
       </c>
       <c r="K30" t="n">
-        <v>59.86212944553861</v>
+        <v>67.33803682273691</v>
       </c>
       <c r="L30" s="12" t="n">
-        <v>0.07402941176470801</v>
+        <v>0.1545558823529434</v>
       </c>
       <c r="M30" t="n">
-        <v>0.08212428141254074</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>3.332666666666666</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4411,38 +4411,38 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3.319</v>
+        <v>3.375</v>
       </c>
       <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
         <v>8</v>
       </c>
-      <c r="F31" t="n">
-        <v>9</v>
-      </c>
       <c r="G31" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H31" t="n">
-        <v>392597</v>
+        <v>470492</v>
       </c>
       <c r="I31" t="n">
-        <v>17.73676036669875</v>
+        <v>22.94784475503361</v>
       </c>
       <c r="J31" s="12" t="n">
-        <v>48.77272709853218</v>
+        <v>59.61898248009737</v>
       </c>
       <c r="K31" t="n">
-        <v>51.60896241846464</v>
+        <v>60.91230229833091</v>
       </c>
       <c r="L31" s="12" t="n">
-        <v>-0.0005823529411768114</v>
+        <v>0.008723529411764019</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.390156062424967</v>
+        <v>-0.1479289940828371</v>
       </c>
       <c r="N31" t="n">
         <v>3.192388888888888</v>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="32">
       <c r="A32" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4477,38 +4477,38 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.552</v>
+        <v>1.591</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H32" t="n">
-        <v>487168</v>
+        <v>1848799</v>
       </c>
       <c r="I32" t="n">
-        <v>23.54337157863941</v>
+        <v>23.8574480379032</v>
       </c>
       <c r="J32" s="12" t="n">
-        <v>49.19245555742975</v>
+        <v>60.53229167824227</v>
       </c>
       <c r="K32" t="n">
-        <v>47.16055335172906</v>
+        <v>59.99652782144849</v>
       </c>
       <c r="L32" s="12" t="n">
-        <v>0.003344117647056111</v>
+        <v>0.02162352941176193</v>
       </c>
       <c r="M32" t="n">
-        <v>0.3880983182406212</v>
+        <v>0.1258653241032097</v>
       </c>
       <c r="N32" t="n">
         <v>1.470611111111111</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="33">
       <c r="A33" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4547,34 +4547,34 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3.901</v>
+        <v>3.907</v>
       </c>
       <c r="E33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="n">
         <v>9</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H33" t="n">
-        <v>588622</v>
+        <v>237973</v>
       </c>
       <c r="I33" t="n">
-        <v>11.88199448089307</v>
+        <v>11.63727735200793</v>
       </c>
       <c r="J33" s="12" t="n">
-        <v>47.11676458531204</v>
+        <v>48.4869659508667</v>
       </c>
       <c r="K33" t="n">
-        <v>50.97451503345092</v>
+        <v>54.24343616978519</v>
       </c>
       <c r="L33" s="12" t="n">
-        <v>-0.09902647058823266</v>
+        <v>-0.03239117647058531</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.8388408744280722</v>
+        <v>-1.338383838383837</v>
       </c>
       <c r="N33" t="n">
         <v>3.629777777777778</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="34">
       <c r="A34" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4609,38 +4609,38 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.288</v>
+        <v>1.296</v>
       </c>
       <c r="E34" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H34" t="n">
-        <v>3000884</v>
+        <v>9177571</v>
       </c>
       <c r="I34" t="n">
-        <v>15.16166790157475</v>
+        <v>13.9249291408842</v>
       </c>
       <c r="J34" s="12" t="n">
-        <v>44.82845270255621</v>
+        <v>49.63983882364906</v>
       </c>
       <c r="K34" t="n">
-        <v>44.35613524578871</v>
+        <v>44.71170919454443</v>
       </c>
       <c r="L34" s="12" t="n">
-        <v>-0.03260294117646434</v>
+        <v>-0.0187941176470523</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0777000777000864</v>
+        <v>0.6993006993007086</v>
       </c>
       <c r="N34" t="n">
         <v>1.204944444444444</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="35">
       <c r="A35" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4675,38 +4675,38 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.443</v>
+        <v>2.415</v>
       </c>
       <c r="E35" t="n">
+        <v>12</v>
+      </c>
+      <c r="F35" t="n">
         <v>9</v>
       </c>
-      <c r="F35" t="n">
-        <v>10</v>
-      </c>
       <c r="G35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
-        <v>103014</v>
+        <v>146667</v>
       </c>
       <c r="I35" t="n">
-        <v>26.06096836939096</v>
+        <v>21.54891097211091</v>
       </c>
       <c r="J35" s="12" t="n">
-        <v>49.0199986480762</v>
+        <v>46.11702816579999</v>
       </c>
       <c r="K35" t="n">
-        <v>43.75236211289568</v>
+        <v>45.51195620506614</v>
       </c>
       <c r="L35" s="12" t="n">
-        <v>0.01022352941176541</v>
+        <v>-0.009229411764705819</v>
       </c>
       <c r="M35" t="n">
-        <v>1.622296173044931</v>
+        <v>0.1659062629614269</v>
       </c>
       <c r="N35" t="n">
         <v>2.258055555555556</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="36">
       <c r="A36" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4745,34 +4745,34 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7.993</v>
+        <v>8.012</v>
       </c>
       <c r="E36" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" t="n">
         <v>9</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>153899</v>
+        <v>74894</v>
       </c>
       <c r="I36" t="n">
-        <v>26.64244482820371</v>
+        <v>23.95790840881708</v>
       </c>
       <c r="J36" s="12" t="n">
-        <v>41.71158448569971</v>
+        <v>44.0730970452363</v>
       </c>
       <c r="K36" t="n">
-        <v>43.67642773559577</v>
+        <v>47.5843495853864</v>
       </c>
       <c r="L36" s="12" t="n">
-        <v>-0.1468912058823548</v>
+        <v>-0.108479455882355</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.4855577689242991</v>
+        <v>-0.7801857585139176</v>
       </c>
       <c r="N36" t="n">
         <v>7.692833333333332</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="37">
       <c r="A37" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4811,34 +4811,34 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.497</v>
+        <v>2.52</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H37" t="n">
-        <v>309291</v>
+        <v>222908</v>
       </c>
       <c r="I37" t="n">
-        <v>17.62298455062925</v>
+        <v>18.66699568585874</v>
       </c>
       <c r="J37" s="12" t="n">
-        <v>43.56894518080151</v>
+        <v>49.93652548075251</v>
       </c>
       <c r="K37" t="n">
-        <v>43.24611206423357</v>
+        <v>49.93652548075251</v>
       </c>
       <c r="L37" s="12" t="n">
-        <v>-0.02929411764706913</v>
+        <v>0.001058823529402897</v>
       </c>
       <c r="M37" t="n">
-        <v>0.04006410256409815</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>2.389833333333333</v>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="38">
       <c r="A38" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4873,38 +4873,38 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4.268</v>
+        <v>4.343</v>
       </c>
       <c r="E38" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" t="n">
         <v>10</v>
       </c>
-      <c r="F38" t="n">
-        <v>9</v>
-      </c>
       <c r="G38" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H38" t="n">
-        <v>1872305</v>
+        <v>1222651</v>
       </c>
       <c r="I38" t="n">
-        <v>11.80396218141367</v>
+        <v>12.93648388644739</v>
       </c>
       <c r="J38" s="12" t="n">
-        <v>50.90313868225481</v>
+        <v>57.89489813529582</v>
       </c>
       <c r="K38" t="n">
-        <v>47.08725847006342</v>
+        <v>55.4759348782183</v>
       </c>
       <c r="L38" s="12" t="n">
-        <v>-0.01045882352941785</v>
+        <v>0.03154117647058285</v>
       </c>
       <c r="M38" t="n">
-        <v>0.7792207792207667</v>
+        <v>0.5556841861542029</v>
       </c>
       <c r="N38" t="n">
         <v>3.889277777777778</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="39">
       <c r="A39" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4943,34 +4943,34 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.907</v>
       </c>
       <c r="E39" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F39" t="n">
         <v>9</v>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>90550</v>
+        <v>58626</v>
       </c>
       <c r="I39" t="n">
-        <v>25.65037346622823</v>
+        <v>23.18703352432577</v>
       </c>
       <c r="J39" s="12" t="n">
-        <v>45.77799680880989</v>
+        <v>41.73805340535198</v>
       </c>
       <c r="K39" t="n">
-        <v>42.44706699056799</v>
+        <v>43.71402458039621</v>
       </c>
       <c r="L39" s="12" t="n">
-        <v>-0.04811764705882382</v>
+        <v>-0.03854117647058841</v>
       </c>
       <c r="M39" t="n">
-        <v>1.731601731601721</v>
+        <v>-1.30576713819369</v>
       </c>
       <c r="N39" t="n">
         <v>0.8177222222222224</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="40">
       <c r="A40" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -5005,38 +5005,38 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3.865</v>
+        <v>3.863</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>9</v>
       </c>
       <c r="G40" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I40" t="n">
-        <v>20.25349363132825</v>
+        <v>24.44416107216275</v>
       </c>
       <c r="J40" s="12" t="n">
-        <v>58.85884658361778</v>
+        <v>56.9546833335251</v>
       </c>
       <c r="K40" t="n">
-        <v>58.85884658361778</v>
+        <v>61.41423169740545</v>
       </c>
       <c r="L40" s="12" t="n">
-        <v>0.05648529411764791</v>
+        <v>0.09281470588235452</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-0.6430041152263353</v>
       </c>
       <c r="N40" t="n">
         <v>3.654777777777777</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="41">
       <c r="A41" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -5071,38 +5071,38 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.673</v>
+        <v>0.669</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G41" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H41" t="n">
-        <v>1321396</v>
+        <v>373463</v>
       </c>
       <c r="I41" t="n">
-        <v>17.03310867459962</v>
+        <v>13.71423092021016</v>
       </c>
       <c r="J41" s="12" t="n">
-        <v>53.02130767274531</v>
+        <v>49.24704248119033</v>
       </c>
       <c r="K41" t="n">
-        <v>53.83177188373732</v>
+        <v>51.68214458738122</v>
       </c>
       <c r="L41" s="12" t="n">
-        <v>0.002973529411765652</v>
+        <v>0.004191176470589086</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.1483679525222553</v>
+        <v>-0.4464285714285718</v>
       </c>
       <c r="N41" t="n">
         <v>0.6182777777777778</v>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="42">
       <c r="A42" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -5137,38 +5137,38 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2.009</v>
+        <v>2.005</v>
       </c>
       <c r="E42" t="n">
+        <v>13</v>
+      </c>
+      <c r="F42" t="n">
         <v>9</v>
       </c>
-      <c r="F42" t="n">
-        <v>10</v>
-      </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
-        <v>570698</v>
+        <v>214659</v>
       </c>
       <c r="I42" t="n">
-        <v>18.4975135739235</v>
+        <v>19.5030056386837</v>
       </c>
       <c r="J42" s="12" t="n">
-        <v>52.96131486162697</v>
+        <v>50.2126952352795</v>
       </c>
       <c r="K42" t="n">
-        <v>54.98905042655542</v>
+        <v>57.41341984324638</v>
       </c>
       <c r="L42" s="12" t="n">
-        <v>0.03237058823529448</v>
+        <v>0.04409117647058913</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.3966286564204268</v>
+        <v>-1.328740157480322</v>
       </c>
       <c r="N42" t="n">
         <v>1.882722222222222</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="43">
       <c r="A43" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -5203,38 +5203,38 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.609</v>
+        <v>0.621</v>
       </c>
       <c r="E43" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>4326511</v>
+        <v>7151428</v>
       </c>
       <c r="I43" t="n">
-        <v>20.97987606410453</v>
+        <v>15.98818655575063</v>
       </c>
       <c r="J43" s="12" t="n">
-        <v>22.82403001671862</v>
+        <v>39.8118834331969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.94347650593129</v>
+        <v>43.83198752170791</v>
       </c>
       <c r="L43" s="12" t="n">
-        <v>-0.02810000000000057</v>
+        <v>-0.01919705882352984</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.814332247557004</v>
+        <v>-1.114649681528663</v>
       </c>
       <c r="N43" t="n">
         <v>0.6026111111111111</v>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="44">
       <c r="A44" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -5269,38 +5269,38 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2.419</v>
+        <v>2.374</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G44" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>5816509</v>
+        <v>1698223</v>
       </c>
       <c r="I44" t="n">
-        <v>15.17890069587654</v>
+        <v>15.97799657831498</v>
       </c>
       <c r="J44" s="12" t="n">
-        <v>52.93394439657076</v>
+        <v>46.13932301161793</v>
       </c>
       <c r="K44" t="n">
-        <v>49.26895699591807</v>
+        <v>46.29011884337932</v>
       </c>
       <c r="L44" s="12" t="n">
-        <v>-0.02868235294117749</v>
+        <v>0.00302058823529272</v>
       </c>
       <c r="M44" t="n">
-        <v>1.086502298370257</v>
+        <v>-0.0421052631578901</v>
       </c>
       <c r="N44" t="n">
         <v>2.211388888888889</v>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="45">
       <c r="A45" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5335,38 +5335,38 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3.662</v>
+        <v>3.631</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
         <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H45" t="n">
-        <v>500349</v>
+        <v>147438</v>
       </c>
       <c r="I45" t="n">
-        <v>23.73243104467194</v>
+        <v>23.43854041010506</v>
       </c>
       <c r="J45" s="12" t="n">
-        <v>55.57104721668357</v>
+        <v>49.95238058366298</v>
       </c>
       <c r="K45" t="n">
-        <v>51.82844494488824</v>
+        <v>46.58650406953593</v>
       </c>
       <c r="L45" s="12" t="n">
-        <v>-0.004358823529402311</v>
+        <v>0.02559117647059761</v>
       </c>
       <c r="M45" t="n">
-        <v>0.7150715071507096</v>
+        <v>0.5817174515235433</v>
       </c>
       <c r="N45" t="n">
         <v>3.415777777777778</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="46">
       <c r="A46" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5401,38 +5401,38 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2.867</v>
+        <v>2.83</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H46" t="n">
-        <v>3629934</v>
+        <v>595870</v>
       </c>
       <c r="I46" t="n">
-        <v>35.41495672222414</v>
+        <v>35.64282619903048</v>
       </c>
       <c r="J46" s="12" t="n">
-        <v>65.63079250983878</v>
+        <v>61.30780274773389</v>
       </c>
       <c r="K46" t="n">
-        <v>58.40749194545607</v>
+        <v>61.17958405713845</v>
       </c>
       <c r="L46" s="12" t="n">
-        <v>0.1080235294117631</v>
+        <v>0.1661323529411747</v>
       </c>
       <c r="M46" t="n">
-        <v>4.673238408178172</v>
+        <v>0.07072135785007864</v>
       </c>
       <c r="N46" t="n">
         <v>2.269444444444444</v>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="47">
       <c r="A47" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5467,38 +5467,38 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G47" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H47" t="n">
-        <v>484170</v>
+        <v>1493188</v>
       </c>
       <c r="I47" t="n">
-        <v>22.1097509029841</v>
+        <v>26.82870081654632</v>
       </c>
       <c r="J47" s="12" t="n">
-        <v>67.24978377015844</v>
+        <v>65.6453076699936</v>
       </c>
       <c r="K47" t="n">
-        <v>57.02043044374857</v>
+        <v>67.07213316669515</v>
       </c>
       <c r="L47" s="12" t="n">
-        <v>-0.01467941176470644</v>
+        <v>0.1621911764705875</v>
       </c>
       <c r="M47" t="n">
-        <v>4.666666666666678</v>
+        <v>-0.4975124378109396</v>
       </c>
       <c r="N47" t="n">
         <v>1.439722222222222</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="48">
       <c r="A48" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5533,38 +5533,38 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>STRONG_SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.705</v>
+        <v>0.72</v>
       </c>
       <c r="E48" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H48" t="n">
-        <v>1782252</v>
+        <v>2972079</v>
       </c>
       <c r="I48" t="n">
-        <v>29.39775918321163</v>
+        <v>30.37010812577818</v>
       </c>
       <c r="J48" s="12" t="n">
-        <v>45.02102170388089</v>
+        <v>55.83402140150636</v>
       </c>
       <c r="K48" t="n">
-        <v>47.80744756876265</v>
+        <v>53.06152606412759</v>
       </c>
       <c r="L48" s="12" t="n">
-        <v>-0.006994117647061815</v>
+        <v>-0.001314705882355938</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.5641748942172078</v>
+        <v>0.5586592178770955</v>
       </c>
       <c r="N48" t="n">
         <v>0.6771111111111111</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -5603,34 +5603,34 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.768</v>
+        <v>0.76</v>
       </c>
       <c r="E49" t="n">
         <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>931370</v>
+        <v>725634</v>
       </c>
       <c r="I49" t="n">
-        <v>32.78174239038817</v>
+        <v>34.31127510764141</v>
       </c>
       <c r="J49" s="12" t="n">
-        <v>34.94682885491987</v>
+        <v>31.85312167228773</v>
       </c>
       <c r="K49" t="n">
-        <v>34.94682885491987</v>
+        <v>35.15049700217723</v>
       </c>
       <c r="L49" s="12" t="n">
-        <v>-0.02324411764705936</v>
+        <v>-0.02410294117647105</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>-0.9126466753585406</v>
       </c>
       <c r="N49" t="n">
         <v>0.7326666666666667</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="50">
       <c r="A50" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5665,38 +5665,38 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4.601</v>
+        <v>4.269</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G50" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>947556</v>
+        <v>365336</v>
       </c>
       <c r="I50" t="n">
-        <v>37.70811388533147</v>
+        <v>31.92451409962023</v>
       </c>
       <c r="J50" s="12" t="n">
-        <v>62.78117383200202</v>
+        <v>41.3294858471676</v>
       </c>
       <c r="K50" t="n">
-        <v>72.49327432928968</v>
+        <v>41.88151836996662</v>
       </c>
       <c r="L50" s="12" t="n">
-        <v>0.1994382352941111</v>
+        <v>0.04599705882352279</v>
       </c>
       <c r="M50" t="n">
-        <v>-2.106382978723408</v>
+        <v>-0.2570093457943953</v>
       </c>
       <c r="N50" t="n">
         <v>4.173444444444445</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="51">
       <c r="A51" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.242</v>
+        <v>1.234</v>
       </c>
       <c r="E51" t="n">
         <v>14</v>
@@ -5747,22 +5747,22 @@
         <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>40396</v>
+        <v>27241</v>
       </c>
       <c r="I51" t="n">
-        <v>17.18589369254614</v>
+        <v>15.68494513689769</v>
       </c>
       <c r="J51" s="12" t="n">
-        <v>48.65877552086205</v>
+        <v>46.41753287256827</v>
       </c>
       <c r="K51" t="n">
-        <v>50.78312993635025</v>
+        <v>48.04960387265348</v>
       </c>
       <c r="L51" s="12" t="n">
-        <v>-0.0004441176470586505</v>
+        <v>0.004176470588236114</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.6400000000000006</v>
+        <v>-0.4838709677419359</v>
       </c>
       <c r="N51" t="n">
         <v>1.158055555555556</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="52">
       <c r="A52" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5801,34 +5801,34 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.868</v>
+        <v>1.87</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H52" t="n">
-        <v>6479636</v>
+        <v>2739353</v>
       </c>
       <c r="I52" t="n">
-        <v>21.69812192508721</v>
+        <v>21.21944153913594</v>
       </c>
       <c r="J52" s="12" t="n">
-        <v>54.77337913513713</v>
+        <v>53.93974076270525</v>
       </c>
       <c r="K52" t="n">
-        <v>56.93045277962271</v>
+        <v>57.98333624623904</v>
       </c>
       <c r="L52" s="12" t="n">
-        <v>0.04238529411764369</v>
+        <v>0.01514117647058488</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.6382978723404144</v>
+        <v>-1.005823186871355</v>
       </c>
       <c r="N52" t="n">
         <v>1.624055555555556</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5870,10 +5870,10 @@
         <v>2.702</v>
       </c>
       <c r="E53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>30.76504317192109</v>
+        <v>28.14385511052187</v>
       </c>
       <c r="J53" s="12" t="n">
         <v>41.18401049119782</v>
@@ -5891,7 +5891,7 @@
         <v>41.18401049119782</v>
       </c>
       <c r="L53" s="12" t="n">
-        <v>-0.1007823529411755</v>
+        <v>-0.1047352941176465</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -5920,7 +5920,7 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -5929,35 +5929,35 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="E54" t="n">
+        <v>14</v>
+      </c>
+      <c r="F54" t="n">
         <v>9</v>
       </c>
-      <c r="F54" t="n">
-        <v>8</v>
-      </c>
       <c r="G54" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="I54" t="n">
-        <v>14.47399199241432</v>
+        <v>13.50247916065292</v>
       </c>
       <c r="J54" s="12" t="n">
-        <v>49.96105319857124</v>
+        <v>43.27927288048357</v>
       </c>
       <c r="K54" t="n">
-        <v>49.96105319857124</v>
+        <v>43.27927288048357</v>
       </c>
       <c r="L54" s="12" t="n">
-        <v>0.001747058823528658</v>
+        <v>-0.002688235294118213</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -6006,7 +6006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -6120,38 +6120,38 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14.85</v>
+        <v>15.08</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
         <v>8</v>
       </c>
-      <c r="F2" t="n">
-        <v>6</v>
-      </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>8692137</v>
+        <v>6714684</v>
       </c>
       <c r="I2" t="n">
-        <v>29.3333163551711</v>
+        <v>32.74318924998168</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>78.57819271547631</v>
+        <v>82.89363012476377</v>
       </c>
       <c r="K2" t="n">
-        <v>80.00567295424722</v>
+        <v>81.47344674298833</v>
       </c>
       <c r="L2" s="12" t="n">
-        <v>0.815705882352999</v>
+        <v>0.870705882352997</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1344989912575627</v>
+        <v>0.5333333333333339</v>
       </c>
       <c r="N2" t="n">
         <v>13.14666666666667</v>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -6190,34 +6190,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13.12</v>
+        <v>13.23</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
         <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>1793088</v>
+        <v>2523778</v>
       </c>
       <c r="I3" t="n">
-        <v>38.80980066396781</v>
+        <v>46.9217725281064</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>85.09776716339969</v>
+        <v>86.79727384308251</v>
       </c>
       <c r="K3" t="n">
-        <v>84.80419627133614</v>
+        <v>86.32503939510077</v>
       </c>
       <c r="L3" s="12" t="n">
-        <v>0.8168823529411764</v>
+        <v>0.8717941176470614</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1526717557251876</v>
+        <v>0.2272727272727359</v>
       </c>
       <c r="N3" t="n">
         <v>11.12</v>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -6252,38 +6252,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19.35</v>
+        <v>19.75</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>866267</v>
+        <v>2580074</v>
       </c>
       <c r="I4" t="n">
-        <v>34.08662067739235</v>
+        <v>43.3916484509055</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>82.82397005672314</v>
+        <v>84.2097812629608</v>
       </c>
       <c r="K4" t="n">
-        <v>81.1706763719933</v>
+        <v>86.62912534532812</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>1.095353138235339</v>
+        <v>1.472352952941222</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8337623327898872</v>
+        <v>-0.2525202147737466</v>
       </c>
       <c r="N4" t="n">
         <v>16.77888827777777</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -6322,34 +6322,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.15</v>
+        <v>10.48</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>422979</v>
+        <v>1300721</v>
       </c>
       <c r="I5" t="n">
-        <v>16.75358293160195</v>
+        <v>17.93305078134811</v>
       </c>
       <c r="J5" s="12" t="n">
-        <v>60.03076608145814</v>
+        <v>70.3809393924783</v>
       </c>
       <c r="K5" t="n">
-        <v>60.03076608145814</v>
+        <v>68.68080861901416</v>
       </c>
       <c r="L5" s="12" t="n">
-        <v>0.3475881764705839</v>
+        <v>0.4656617058823471</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.5758157389635364</v>
       </c>
       <c r="N5" t="n">
         <v>9.202222222222224</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -6388,34 +6388,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>2158441</v>
+        <v>2960269</v>
       </c>
       <c r="I6" t="n">
-        <v>37.36743471723917</v>
+        <v>39.93822897783049</v>
       </c>
       <c r="J6" s="12" t="n">
-        <v>65.3415695721699</v>
+        <v>65.69024963566564</v>
       </c>
       <c r="K6" t="n">
-        <v>67.70114353390696</v>
+        <v>66.68613959611665</v>
       </c>
       <c r="L6" s="12" t="n">
-        <v>0.3158764705882398</v>
+        <v>0.2531911764705939</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.5382131324004191</v>
+        <v>-0.1931745009658608</v>
       </c>
       <c r="N6" t="n">
         <v>3.764444444444444</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -6454,34 +6454,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.774</v>
+        <v>3.793</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
         <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>2419777</v>
+        <v>4861608</v>
       </c>
       <c r="I7" t="n">
-        <v>34.29695365095727</v>
+        <v>35.43671114708825</v>
       </c>
       <c r="J7" s="12" t="n">
-        <v>58.69778297502587</v>
+        <v>59.61048189599143</v>
       </c>
       <c r="K7" t="n">
-        <v>56.5649787841195</v>
+        <v>61.62222086204157</v>
       </c>
       <c r="L7" s="12" t="n">
-        <v>0.08812647058823364</v>
+        <v>0.1109676470588217</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6131698213809685</v>
+        <v>-0.3415659485023621</v>
       </c>
       <c r="N7" t="n">
         <v>3.426611111111111</v>
@@ -6507,77 +6507,77 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CBQK</t>
+          <t>QEWS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.226</v>
+        <v>15.65</v>
       </c>
       <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="n">
         <v>7</v>
       </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>4416076</v>
+        <v>626768</v>
       </c>
       <c r="I8" t="n">
-        <v>26.44435220352542</v>
+        <v>26.13802007971638</v>
       </c>
       <c r="J8" s="12" t="n">
-        <v>61.90914011465522</v>
+        <v>60.70073939122688</v>
       </c>
       <c r="K8" t="n">
-        <v>64.76440739523025</v>
+        <v>68.98558627464296</v>
       </c>
       <c r="L8" s="12" t="n">
-        <v>0.2121205882352974</v>
+        <v>0.5112647058823683</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.4944666823640195</v>
+        <v>-0.9493670886075972</v>
       </c>
       <c r="N8" t="n">
-        <v>3.733388888888889</v>
+        <v>14.37111111111111</v>
       </c>
       <c r="O8" t="n">
-        <v>4.578555555555556</v>
+        <v>16.40611111111111</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ACBQK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQEWS</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-CBQK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QEWS/financials-overview/</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-CBQK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QEWS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>QEWS</t>
+          <t>QIIK</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6586,130 +6586,130 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15.6</v>
+        <v>10.52</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>208428</v>
+        <v>855176</v>
       </c>
       <c r="I9" t="n">
-        <v>26.38287473658343</v>
+        <v>22.76808106934289</v>
       </c>
       <c r="J9" s="12" t="n">
-        <v>63.45616424906558</v>
+        <v>59.01501262717559</v>
       </c>
       <c r="K9" t="n">
-        <v>58.49345398276684</v>
+        <v>67.52098281489583</v>
       </c>
       <c r="L9" s="12" t="n">
-        <v>0.5448529411764831</v>
+        <v>0.3692941176470335</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9708737864077693</v>
+        <v>-1.682242990654203</v>
       </c>
       <c r="N9" t="n">
-        <v>14.37111111111111</v>
+        <v>8.714444444444444</v>
       </c>
       <c r="O9" t="n">
-        <v>16.40611111111111</v>
+        <v>11.07944444444444</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQEWS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIIK</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QEWS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIIK/financials-overview/</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QEWS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIIK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>QIIK</t>
+          <t>QFLS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10.48</v>
+        <v>14.9</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>467737</v>
+        <v>426055</v>
       </c>
       <c r="I10" t="n">
-        <v>28.01918007503848</v>
+        <v>11.74332465978865</v>
       </c>
       <c r="J10" s="12" t="n">
-        <v>63.1896881121485</v>
+        <v>52.86679531756832</v>
       </c>
       <c r="K10" t="n">
-        <v>58.43984538310207</v>
+        <v>52.86679531756833</v>
       </c>
       <c r="L10" s="12" t="n">
-        <v>0.04364705882350428</v>
+        <v>0.2325000000000053</v>
       </c>
       <c r="M10" t="n">
-        <v>1.452081316553731</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>8.714444444444444</v>
+        <v>13.54277777777778</v>
       </c>
       <c r="O10" t="n">
-        <v>11.07944444444444</v>
+        <v>15.68777777777778</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIIK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQFLS</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIIK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QFLS/financials-overview/</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIIK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QFLS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>QFLS</t>
+          <t>QNNS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6718,64 +6718,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14.86</v>
+        <v>11.35</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>314830</v>
+        <v>2062876</v>
       </c>
       <c r="I11" t="n">
-        <v>14.8989105147041</v>
+        <v>20.11940706892861</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>52.89632029385439</v>
+        <v>54.63844274927386</v>
       </c>
       <c r="K11" t="n">
-        <v>55.5301524713662</v>
+        <v>49.57365296045343</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>0.2148235294117686</v>
+        <v>0.174911764705902</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.7348029392117649</v>
+        <v>1.793721973094164</v>
       </c>
       <c r="N11" t="n">
-        <v>13.54277777777778</v>
+        <v>9.770555555555555</v>
       </c>
       <c r="O11" t="n">
-        <v>15.68777777777778</v>
+        <v>12.90555555555555</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQFLS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNNS</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QFLS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QNNS/financials-overview/</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QFLS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QNNS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>QNNS</t>
+          <t>VFQS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6784,64 +6784,64 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11.29</v>
+        <v>1.747</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>518104</v>
+        <v>1549622</v>
       </c>
       <c r="I12" t="n">
-        <v>24.24819907066189</v>
+        <v>31.02820650630284</v>
       </c>
       <c r="J12" s="12" t="n">
-        <v>53.22973778420494</v>
+        <v>65.72717959581647</v>
       </c>
       <c r="K12" t="n">
-        <v>54.77522659701567</v>
+        <v>62.79865582823971</v>
       </c>
       <c r="L12" s="12" t="n">
-        <v>0.4247058823529635</v>
+        <v>0.03876470588235748</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.5286343612334846</v>
+        <v>0.6916426512968306</v>
       </c>
       <c r="N12" t="n">
-        <v>9.770555555555555</v>
+        <v>1.640055555555556</v>
       </c>
       <c r="O12" t="n">
-        <v>12.90555555555555</v>
+        <v>1.753722222222223</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNNS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AVFQS</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNNS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-VFQS/financials-overview/</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNNS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-VFQS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VFQS</t>
+          <t>GISS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -6850,196 +6850,196 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.702</v>
+        <v>3.311</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>705135</v>
+        <v>7796773</v>
       </c>
       <c r="I13" t="n">
-        <v>23.4909574277697</v>
+        <v>34.1285735139727</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>55.62851891181263</v>
+        <v>59.59403036712219</v>
       </c>
       <c r="K13" t="n">
-        <v>54.04592564120778</v>
+        <v>57.57862794880207</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>0.0220852941176517</v>
+        <v>0.1210235294117665</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2355712603062428</v>
+        <v>0.6077180188392591</v>
       </c>
       <c r="N13" t="n">
-        <v>1.640055555555556</v>
+        <v>2.928944444444444</v>
       </c>
       <c r="O13" t="n">
-        <v>1.753722222222223</v>
+        <v>3.530277777777778</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AVFQS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGISS</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-VFQS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GISS/financials-overview/</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-VFQS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GISS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IGRD</t>
+          <t>AHCS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.963</v>
+        <v>0.777</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>702473</v>
+        <v>780603</v>
       </c>
       <c r="I14" t="n">
-        <v>21.04093467710287</v>
+        <v>21.25455034550178</v>
       </c>
       <c r="J14" s="12" t="n">
-        <v>52.76773321393455</v>
+        <v>65.55429022661195</v>
       </c>
       <c r="K14" t="n">
-        <v>53.27103479782226</v>
+        <v>65.55429022661194</v>
       </c>
       <c r="L14" s="12" t="n">
-        <v>0.01338235294117562</v>
+        <v>0.007682352941177029</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.1017811704834607</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.874888888888889</v>
+        <v>0.7404444444444445</v>
       </c>
       <c r="O14" t="n">
-        <v>2.028888888888889</v>
+        <v>0.7807777777777778</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIGRD</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAHCS</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-IGRD/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-AHCS/financials-overview/</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-IGRD/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-AHCS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GISS</t>
+          <t>DHBK</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.36</v>
+        <v>1.43</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>6356929</v>
+        <v>10053592</v>
       </c>
       <c r="I15" t="n">
-        <v>38.25085966470691</v>
+        <v>25.04474601852598</v>
       </c>
       <c r="J15" s="12" t="n">
-        <v>67.49526954783869</v>
+        <v>51.97765989071952</v>
       </c>
       <c r="K15" t="n">
-        <v>68.38710557155134</v>
+        <v>58.35901950030753</v>
       </c>
       <c r="L15" s="12" t="n">
-        <v>0.1357117647058836</v>
+        <v>0.02940294117646558</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.1782531194295968</v>
+        <v>-0.9009009009009094</v>
       </c>
       <c r="N15" t="n">
-        <v>2.928944444444444</v>
+        <v>1.335</v>
       </c>
       <c r="O15" t="n">
-        <v>3.530277777777778</v>
+        <v>1.523833333333333</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGISS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADHBK</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-GISS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-DHBK/financials-overview/</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-GISS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-DHBK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DHBK</t>
+          <t>MERS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -7048,126 +7048,126 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.44</v>
+        <v>14.85</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>3842162</v>
+        <v>121872</v>
       </c>
       <c r="I16" t="n">
-        <v>26.63883480053414</v>
+        <v>37.76796891545495</v>
       </c>
       <c r="J16" s="12" t="n">
-        <v>57.74997165326167</v>
+        <v>66.97505470075428</v>
       </c>
       <c r="K16" t="n">
-        <v>53.98557319609124</v>
+        <v>62.97295362520317</v>
       </c>
       <c r="L16" s="12" t="n">
-        <v>0.03042058823528926</v>
+        <v>0.5845294117646755</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7697690692792091</v>
+        <v>1.365187713310575</v>
       </c>
       <c r="N16" t="n">
-        <v>1.335</v>
+        <v>12.23222222222222</v>
       </c>
       <c r="O16" t="n">
-        <v>1.523833333333333</v>
+        <v>15.97222222222222</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADHBK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMERS</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DHBK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MERS/financials-overview/</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DHBK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MERS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ZHCD</t>
+          <t>BLDN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13.24</v>
+        <v>1.356</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>113460</v>
+        <v>18357367</v>
       </c>
       <c r="I17" t="n">
-        <v>35.6660963260415</v>
+        <v>17.56823737807317</v>
       </c>
       <c r="J17" s="12" t="n">
-        <v>62.88981124516491</v>
+        <v>67.12260672332081</v>
       </c>
       <c r="K17" t="n">
-        <v>55.32989080280635</v>
+        <v>62.062345375695</v>
       </c>
       <c r="L17" s="12" t="n">
-        <v>0.1673823529411447</v>
+        <v>0.02176470588235269</v>
       </c>
       <c r="M17" t="n">
-        <v>2.795031055900617</v>
+        <v>1.19402985074627</v>
       </c>
       <c r="N17" t="n">
-        <v>11.70666666666667</v>
+        <v>1.266944444444444</v>
       </c>
       <c r="O17" t="n">
-        <v>13.83333333333333</v>
+        <v>1.345777777777778</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AZHCD</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABLDN</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-ZHCD/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-BLDN/financials-overview/</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-ZHCD/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-BLDN/technicals/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -7180,34 +7180,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.656</v>
+        <v>3.782</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>8</v>
       </c>
       <c r="G18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>374187</v>
+        <v>661417</v>
       </c>
       <c r="I18" t="n">
-        <v>47.60121080744216</v>
+        <v>51.97629202811493</v>
       </c>
       <c r="J18" s="12" t="n">
-        <v>60.19241161639334</v>
+        <v>67.33803682273692</v>
       </c>
       <c r="K18" t="n">
-        <v>59.86212944553861</v>
+        <v>67.33803682273691</v>
       </c>
       <c r="L18" s="12" t="n">
-        <v>0.07402941176470801</v>
+        <v>0.1545558823529434</v>
       </c>
       <c r="M18" t="n">
-        <v>0.08212428141254074</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>3.332666666666666</v>
@@ -7233,77 +7233,77 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DOHI</t>
+          <t>GWCS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.443</v>
+        <v>3.375</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>103014</v>
+        <v>470492</v>
       </c>
       <c r="I19" t="n">
-        <v>26.06096836939096</v>
+        <v>22.94784475503361</v>
       </c>
       <c r="J19" s="12" t="n">
-        <v>49.0199986480762</v>
+        <v>59.61898248009737</v>
       </c>
       <c r="K19" t="n">
-        <v>43.75236211289568</v>
+        <v>60.91230229833091</v>
       </c>
       <c r="L19" s="12" t="n">
-        <v>0.01022352941176541</v>
+        <v>0.008723529411764019</v>
       </c>
       <c r="M19" t="n">
-        <v>1.622296173044931</v>
+        <v>-0.1479289940828371</v>
       </c>
       <c r="N19" t="n">
-        <v>2.258055555555556</v>
+        <v>3.192388888888888</v>
       </c>
       <c r="O19" t="n">
-        <v>2.670555555555556</v>
+        <v>3.471055555555555</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADOHI</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGWCS</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DOHI/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GWCS/financials-overview/</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DOHI/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GWCS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SIIS</t>
+          <t>QIGD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7312,316 +7312,448 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.673</v>
+        <v>1.591</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H20" t="n">
-        <v>1321396</v>
+        <v>1848799</v>
       </c>
       <c r="I20" t="n">
-        <v>17.03310867459962</v>
+        <v>23.8574480379032</v>
       </c>
       <c r="J20" s="12" t="n">
-        <v>53.02130767274531</v>
+        <v>60.53229167824227</v>
       </c>
       <c r="K20" t="n">
-        <v>53.83177188373732</v>
+        <v>59.99652782144849</v>
       </c>
       <c r="L20" s="12" t="n">
-        <v>0.002973529411765652</v>
+        <v>0.02162352941176193</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.1483679525222553</v>
+        <v>0.1258653241032097</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6182777777777778</v>
+        <v>1.470611111111111</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7209444444444446</v>
+        <v>1.624611111111111</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ASIIS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIGD</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-SIIS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIGD/financials-overview/</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-SIIS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIGD/technicals/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>QLMI</t>
+          <t>MCGS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.009</v>
+        <v>4.343</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>570698</v>
+        <v>1222651</v>
       </c>
       <c r="I21" t="n">
-        <v>18.4975135739235</v>
+        <v>12.93648388644739</v>
       </c>
       <c r="J21" s="12" t="n">
-        <v>52.96131486162697</v>
+        <v>57.89489813529582</v>
       </c>
       <c r="K21" t="n">
-        <v>54.98905042655542</v>
+        <v>55.4759348782183</v>
       </c>
       <c r="L21" s="12" t="n">
-        <v>0.03237058823529448</v>
+        <v>0.03154117647058285</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.3966286564204268</v>
+        <v>0.5556841861542029</v>
       </c>
       <c r="N21" t="n">
-        <v>1.882722222222222</v>
+        <v>3.889277777777778</v>
       </c>
       <c r="O21" t="n">
-        <v>2.106388888888889</v>
+        <v>4.624444444444443</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQLMI</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCGS</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QLMI/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MCGS/financials-overview/</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QLMI/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MCGS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WDAM</t>
+          <t>SIIS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.867</v>
+        <v>0.669</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
+        <v>7</v>
+      </c>
+      <c r="G22" t="n">
         <v>9</v>
       </c>
-      <c r="G22" t="n">
-        <v>16</v>
-      </c>
       <c r="H22" t="n">
-        <v>3629934</v>
+        <v>373463</v>
       </c>
       <c r="I22" t="n">
-        <v>35.41495672222414</v>
+        <v>13.71423092021016</v>
       </c>
       <c r="J22" s="12" t="n">
-        <v>65.63079250983878</v>
+        <v>49.24704248119033</v>
       </c>
       <c r="K22" t="n">
-        <v>58.40749194545607</v>
+        <v>51.68214458738122</v>
       </c>
       <c r="L22" s="12" t="n">
-        <v>0.1080235294117631</v>
+        <v>0.004191176470589086</v>
       </c>
       <c r="M22" t="n">
-        <v>4.673238408178172</v>
+        <v>-0.4464285714285718</v>
       </c>
       <c r="N22" t="n">
-        <v>2.269444444444444</v>
+        <v>0.6182777777777778</v>
       </c>
       <c r="O22" t="n">
-        <v>3.167777777777778</v>
+        <v>0.7209444444444446</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AWDAM</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ASIIS</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-WDAM/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-SIIS/financials-overview/</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-WDAM/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-SIIS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>IHGS</t>
+          <t>MKDM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4.601</v>
+        <v>3.631</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" t="n">
         <v>8</v>
       </c>
-      <c r="G23" t="n">
-        <v>14</v>
-      </c>
       <c r="H23" t="n">
-        <v>947556</v>
+        <v>147438</v>
       </c>
       <c r="I23" t="n">
-        <v>37.70811388533147</v>
+        <v>23.43854041010506</v>
       </c>
       <c r="J23" s="12" t="n">
-        <v>62.78117383200202</v>
+        <v>49.95238058366298</v>
       </c>
       <c r="K23" t="n">
-        <v>72.49327432928968</v>
+        <v>46.58650406953593</v>
       </c>
       <c r="L23" s="12" t="n">
-        <v>0.1994382352941111</v>
+        <v>0.02559117647059761</v>
       </c>
       <c r="M23" t="n">
-        <v>-2.106382978723408</v>
+        <v>0.5817174515235433</v>
       </c>
       <c r="N23" t="n">
-        <v>4.173444444444445</v>
+        <v>3.415777777777778</v>
       </c>
       <c r="O23" t="n">
-        <v>4.749111111111112</v>
+        <v>3.800777777777778</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIHGS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMKDM</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-IHGS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MKDM/financials-overview/</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-IHGS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MKDM/technicals/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>WDAM</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" t="n">
+        <v>15</v>
+      </c>
+      <c r="H24" t="n">
+        <v>595870</v>
+      </c>
+      <c r="I24" t="n">
+        <v>35.64282619903048</v>
+      </c>
+      <c r="J24" s="12" t="n">
+        <v>61.30780274773389</v>
+      </c>
+      <c r="K24" t="n">
+        <v>61.17958405713845</v>
+      </c>
+      <c r="L24" s="12" t="n">
+        <v>0.1661323529411747</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.07072135785007864</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.269444444444444</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3.167777777777778</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AWDAM</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-WDAM/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-WDAM/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="13" t="n">
+        <v>45483.81432727685</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MHAR</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>15</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1493188</v>
+      </c>
+      <c r="I25" t="n">
+        <v>26.82870081654632</v>
+      </c>
+      <c r="J25" s="12" t="n">
+        <v>65.6453076699936</v>
+      </c>
+      <c r="K25" t="n">
+        <v>67.07213316669515</v>
+      </c>
+      <c r="L25" s="12" t="n">
+        <v>0.1621911764705875</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.4975124378109396</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.439722222222222</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.762388888888889</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMHAR</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MHAR/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MHAR/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="13" t="n">
+        <v>45483.81432727685</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>QGMD</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>BUY</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E24" t="n">
-        <v>5</v>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
-      <c r="G24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H24" t="n">
-        <v>6479636</v>
-      </c>
-      <c r="I24" t="n">
-        <v>21.69812192508721</v>
-      </c>
-      <c r="J24" s="12" t="n">
-        <v>54.77337913513713</v>
-      </c>
-      <c r="K24" t="n">
-        <v>56.93045277962271</v>
-      </c>
-      <c r="L24" s="12" t="n">
-        <v>0.04238529411764369</v>
-      </c>
-      <c r="M24" t="n">
-        <v>-0.6382978723404144</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="D26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>11</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2739353</v>
+      </c>
+      <c r="I26" t="n">
+        <v>21.21944153913594</v>
+      </c>
+      <c r="J26" s="12" t="n">
+        <v>53.93974076270525</v>
+      </c>
+      <c r="K26" t="n">
+        <v>57.98333624623904</v>
+      </c>
+      <c r="L26" s="12" t="n">
+        <v>0.01514117647058488</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-1.005823186871355</v>
+      </c>
+      <c r="N26" t="n">
         <v>1.624055555555556</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O26" t="n">
         <v>2.104388888888889</v>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGMD</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>https://www.tradingview.com/symbols/QSE-QGMD/financials-overview/</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>https://www.tradingview.com/symbols/QSE-QGMD/technicals/</t>
         </is>
@@ -7649,7 +7781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7754,7 +7886,7 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -7767,34 +7899,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.12</v>
+        <v>13.23</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
         <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>1793088</v>
+        <v>2523778</v>
       </c>
       <c r="I2" t="n">
-        <v>38.80980066396781</v>
+        <v>46.9217725281064</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>85.09776716339969</v>
+        <v>86.79727384308251</v>
       </c>
       <c r="K2" t="n">
-        <v>84.80419627133614</v>
+        <v>86.32503939510077</v>
       </c>
       <c r="L2" s="12" t="n">
-        <v>0.8168823529411764</v>
+        <v>0.8717941176470614</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1526717557251876</v>
+        <v>0.2272727272727359</v>
       </c>
       <c r="N2" t="n">
         <v>11.12</v>
@@ -7820,11 +7952,11 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORDS</t>
+          <t>QIBK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -7833,64 +7965,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.15</v>
+        <v>19.75</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>422979</v>
+        <v>2580074</v>
       </c>
       <c r="I3" t="n">
-        <v>16.75358293160195</v>
+        <v>43.3916484509055</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>60.03076608145814</v>
+        <v>84.2097812629608</v>
       </c>
       <c r="K3" t="n">
-        <v>60.03076608145814</v>
+        <v>86.62912534532812</v>
       </c>
       <c r="L3" s="12" t="n">
-        <v>0.3475881764705839</v>
+        <v>1.472352952941222</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0.2525202147737466</v>
       </c>
       <c r="N3" t="n">
-        <v>9.202222222222224</v>
+        <v>16.77888827777777</v>
       </c>
       <c r="O3" t="n">
-        <v>10.68722222222222</v>
+        <v>19.60222344444444</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AORDS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIBK</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-ORDS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIBK/financials-overview/</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-ORDS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIBK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>QGTS</t>
+          <t>ORDS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -7899,64 +8031,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.62</v>
+        <v>10.48</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>2158441</v>
+        <v>1300721</v>
       </c>
       <c r="I4" t="n">
-        <v>37.36743471723917</v>
+        <v>17.93305078134811</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>65.3415695721699</v>
+        <v>70.3809393924783</v>
       </c>
       <c r="K4" t="n">
-        <v>67.70114353390696</v>
+        <v>68.68080861901416</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>0.3158764705882398</v>
+        <v>0.4656617058823471</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.5382131324004191</v>
+        <v>0.5758157389635364</v>
       </c>
       <c r="N4" t="n">
-        <v>3.764444444444444</v>
+        <v>9.202222222222224</v>
       </c>
       <c r="O4" t="n">
-        <v>5.220111111111111</v>
+        <v>10.68722222222222</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGTS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AORDS</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QGTS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-ORDS/financials-overview/</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QGTS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-ORDS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DUBK</t>
+          <t>QGTS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7965,64 +8097,64 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.774</v>
+        <v>4.65</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>2419777</v>
+        <v>2960269</v>
       </c>
       <c r="I5" t="n">
-        <v>34.29695365095727</v>
+        <v>39.93822897783049</v>
       </c>
       <c r="J5" s="12" t="n">
-        <v>58.69778297502587</v>
+        <v>65.69024963566564</v>
       </c>
       <c r="K5" t="n">
-        <v>56.5649787841195</v>
+        <v>66.68613959611665</v>
       </c>
       <c r="L5" s="12" t="n">
-        <v>0.08812647058823364</v>
+        <v>0.2531911764705939</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6131698213809685</v>
+        <v>-0.1931745009658608</v>
       </c>
       <c r="N5" t="n">
-        <v>3.426611111111111</v>
+        <v>3.764444444444444</v>
       </c>
       <c r="O5" t="n">
-        <v>3.965611111111111</v>
+        <v>5.220111111111111</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADUBK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGTS</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DUBK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QGTS/financials-overview/</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DUBK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QGTS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CBQK</t>
+          <t>DUBK</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -8031,64 +8163,64 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.226</v>
+        <v>3.793</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
         <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>4416076</v>
+        <v>4861608</v>
       </c>
       <c r="I6" t="n">
-        <v>26.44435220352542</v>
+        <v>35.43671114708825</v>
       </c>
       <c r="J6" s="12" t="n">
-        <v>61.90914011465522</v>
+        <v>59.61048189599143</v>
       </c>
       <c r="K6" t="n">
-        <v>64.76440739523025</v>
+        <v>61.62222086204157</v>
       </c>
       <c r="L6" s="12" t="n">
-        <v>0.2121205882352974</v>
+        <v>0.1109676470588217</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.4944666823640195</v>
+        <v>-0.3415659485023621</v>
       </c>
       <c r="N6" t="n">
-        <v>3.733388888888889</v>
+        <v>3.426611111111111</v>
       </c>
       <c r="O6" t="n">
-        <v>4.578555555555556</v>
+        <v>3.965611111111111</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ACBQK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADUBK</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-CBQK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-DUBK/financials-overview/</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-CBQK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-DUBK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>QEWS</t>
+          <t>QIIK</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -8097,60 +8229,60 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15.6</v>
+        <v>10.52</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>208428</v>
+        <v>855176</v>
       </c>
       <c r="I7" t="n">
-        <v>26.38287473658343</v>
+        <v>22.76808106934289</v>
       </c>
       <c r="J7" s="12" t="n">
-        <v>63.45616424906558</v>
+        <v>59.01501262717559</v>
       </c>
       <c r="K7" t="n">
-        <v>58.49345398276684</v>
+        <v>67.52098281489583</v>
       </c>
       <c r="L7" s="12" t="n">
-        <v>0.5448529411764831</v>
+        <v>0.3692941176470335</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9708737864077693</v>
+        <v>-1.682242990654203</v>
       </c>
       <c r="N7" t="n">
-        <v>14.37111111111111</v>
+        <v>8.714444444444444</v>
       </c>
       <c r="O7" t="n">
-        <v>16.40611111111111</v>
+        <v>11.07944444444444</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQEWS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIIK</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QEWS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIIK/financials-overview/</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QEWS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIIK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -8163,34 +8295,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14.86</v>
+        <v>14.9</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>314830</v>
+        <v>426055</v>
       </c>
       <c r="I8" t="n">
-        <v>14.8989105147041</v>
+        <v>11.74332465978865</v>
       </c>
       <c r="J8" s="12" t="n">
-        <v>52.89632029385439</v>
+        <v>52.86679531756832</v>
       </c>
       <c r="K8" t="n">
-        <v>55.5301524713662</v>
+        <v>52.86679531756833</v>
       </c>
       <c r="L8" s="12" t="n">
-        <v>0.2148235294117686</v>
+        <v>0.2325000000000053</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.7348029392117649</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>13.54277777777778</v>
@@ -8216,7 +8348,7 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -8229,34 +8361,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11.29</v>
+        <v>11.35</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H9" t="n">
-        <v>518104</v>
+        <v>2062876</v>
       </c>
       <c r="I9" t="n">
-        <v>24.24819907066189</v>
+        <v>20.11940706892861</v>
       </c>
       <c r="J9" s="12" t="n">
-        <v>53.22973778420494</v>
+        <v>54.63844274927386</v>
       </c>
       <c r="K9" t="n">
-        <v>54.77522659701567</v>
+        <v>49.57365296045343</v>
       </c>
       <c r="L9" s="12" t="n">
-        <v>0.4247058823529635</v>
+        <v>0.174911764705902</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.5286343612334846</v>
+        <v>1.793721973094164</v>
       </c>
       <c r="N9" t="n">
         <v>9.770555555555555</v>
@@ -8282,7 +8414,7 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -8295,34 +8427,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.702</v>
+        <v>1.747</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>705135</v>
+        <v>1549622</v>
       </c>
       <c r="I10" t="n">
-        <v>23.4909574277697</v>
+        <v>31.02820650630284</v>
       </c>
       <c r="J10" s="12" t="n">
-        <v>55.62851891181263</v>
+        <v>65.72717959581647</v>
       </c>
       <c r="K10" t="n">
-        <v>54.04592564120778</v>
+        <v>62.79865582823971</v>
       </c>
       <c r="L10" s="12" t="n">
-        <v>0.0220852941176517</v>
+        <v>0.03876470588235748</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2355712603062428</v>
+        <v>0.6916426512968306</v>
       </c>
       <c r="N10" t="n">
         <v>1.640055555555556</v>
@@ -8348,7 +8480,7 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -8361,34 +8493,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.36</v>
+        <v>3.311</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>6356929</v>
+        <v>7796773</v>
       </c>
       <c r="I11" t="n">
-        <v>38.25085966470691</v>
+        <v>34.1285735139727</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>67.49526954783869</v>
+        <v>59.59403036712219</v>
       </c>
       <c r="K11" t="n">
-        <v>68.38710557155134</v>
+        <v>57.57862794880207</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>0.1357117647058836</v>
+        <v>0.1210235294117665</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.1782531194295968</v>
+        <v>0.6077180188392591</v>
       </c>
       <c r="N11" t="n">
         <v>2.928944444444444</v>
@@ -8414,11 +8546,11 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DHBK</t>
+          <t>AHCS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -8427,60 +8559,60 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.44</v>
+        <v>0.777</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>3842162</v>
+        <v>780603</v>
       </c>
       <c r="I12" t="n">
-        <v>26.63883480053414</v>
+        <v>21.25455034550178</v>
       </c>
       <c r="J12" s="12" t="n">
-        <v>57.74997165326167</v>
+        <v>65.55429022661195</v>
       </c>
       <c r="K12" t="n">
-        <v>53.98557319609124</v>
+        <v>65.55429022661194</v>
       </c>
       <c r="L12" s="12" t="n">
-        <v>0.03042058823528926</v>
+        <v>0.007682352941177029</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7697690692792091</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.335</v>
+        <v>0.7404444444444445</v>
       </c>
       <c r="O12" t="n">
-        <v>1.523833333333333</v>
+        <v>0.7807777777777778</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADHBK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAHCS</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DHBK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-AHCS/financials-overview/</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DHBK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-AHCS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -8493,34 +8625,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13.24</v>
+        <v>13.37</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>113460</v>
+        <v>6850</v>
       </c>
       <c r="I13" t="n">
-        <v>35.6660963260415</v>
+        <v>45.14403417748694</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>62.88981124516491</v>
+        <v>63.73024945958366</v>
       </c>
       <c r="K13" t="n">
-        <v>55.32989080280635</v>
+        <v>62.53068333633011</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>0.1673823529411447</v>
+        <v>0.5854411764705585</v>
       </c>
       <c r="M13" t="n">
-        <v>2.795031055900617</v>
+        <v>0.450788880540937</v>
       </c>
       <c r="N13" t="n">
         <v>11.70666666666667</v>
@@ -8546,7 +8678,7 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -8559,34 +8691,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14.47</v>
+        <v>14.85</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>84520</v>
+        <v>121872</v>
       </c>
       <c r="I14" t="n">
-        <v>37.81402454855818</v>
+        <v>37.76796891545495</v>
       </c>
       <c r="J14" s="12" t="n">
-        <v>59.183881055768</v>
+        <v>66.97505470075428</v>
       </c>
       <c r="K14" t="n">
-        <v>62.36409727697902</v>
+        <v>62.97295362520317</v>
       </c>
       <c r="L14" s="12" t="n">
-        <v>0.7204117647058688</v>
+        <v>0.5845294117646755</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.6863417982155089</v>
+        <v>1.365187713310575</v>
       </c>
       <c r="N14" t="n">
         <v>12.23222222222222</v>
@@ -8612,7 +8744,7 @@
     </row>
     <row r="15">
       <c r="A15" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -8625,34 +8757,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.656</v>
+        <v>3.782</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>374187</v>
+        <v>661417</v>
       </c>
       <c r="I15" t="n">
-        <v>47.60121080744216</v>
+        <v>51.97629202811493</v>
       </c>
       <c r="J15" s="12" t="n">
-        <v>60.19241161639334</v>
+        <v>67.33803682273692</v>
       </c>
       <c r="K15" t="n">
-        <v>59.86212944553861</v>
+        <v>67.33803682273691</v>
       </c>
       <c r="L15" s="12" t="n">
-        <v>0.07402941176470801</v>
+        <v>0.1545558823529434</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08212428141254074</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>3.332666666666666</v>
@@ -8678,11 +8810,11 @@
     </row>
     <row r="16">
       <c r="A16" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SIIS</t>
+          <t>GWCS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -8691,64 +8823,64 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.673</v>
+        <v>3.375</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>1321396</v>
+        <v>470492</v>
       </c>
       <c r="I16" t="n">
-        <v>17.03310867459962</v>
+        <v>22.94784475503361</v>
       </c>
       <c r="J16" s="12" t="n">
-        <v>53.02130767274531</v>
+        <v>59.61898248009737</v>
       </c>
       <c r="K16" t="n">
-        <v>53.83177188373732</v>
+        <v>60.91230229833091</v>
       </c>
       <c r="L16" s="12" t="n">
-        <v>0.002973529411765652</v>
+        <v>0.008723529411764019</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.1483679525222553</v>
+        <v>-0.1479289940828371</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6182777777777778</v>
+        <v>3.192388888888888</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7209444444444446</v>
+        <v>3.471055555555555</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ASIIS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGWCS</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-SIIS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GWCS/financials-overview/</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-SIIS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GWCS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IHGS</t>
+          <t>QIGD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -8757,64 +8889,64 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.601</v>
+        <v>1.591</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H17" t="n">
-        <v>947556</v>
+        <v>1848799</v>
       </c>
       <c r="I17" t="n">
-        <v>37.70811388533147</v>
+        <v>23.8574480379032</v>
       </c>
       <c r="J17" s="12" t="n">
-        <v>62.78117383200202</v>
+        <v>60.53229167824227</v>
       </c>
       <c r="K17" t="n">
-        <v>72.49327432928968</v>
+        <v>59.99652782144849</v>
       </c>
       <c r="L17" s="12" t="n">
-        <v>0.1994382352941111</v>
+        <v>0.02162352941176193</v>
       </c>
       <c r="M17" t="n">
-        <v>-2.106382978723408</v>
+        <v>0.1258653241032097</v>
       </c>
       <c r="N17" t="n">
-        <v>4.173444444444445</v>
+        <v>1.470611111111111</v>
       </c>
       <c r="O17" t="n">
-        <v>4.749111111111112</v>
+        <v>1.624611111111111</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIHGS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIGD</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-IHGS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIGD/financials-overview/</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-IHGS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIGD/technicals/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="13" t="n">
-        <v>45479.69652471898</v>
+        <v>45483.81432727685</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>QGMD</t>
+          <t>MCGS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -8823,52 +8955,250 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.868</v>
+        <v>4.343</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
         <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>6479636</v>
+        <v>1222651</v>
       </c>
       <c r="I18" t="n">
-        <v>21.69812192508721</v>
+        <v>12.93648388644739</v>
       </c>
       <c r="J18" s="12" t="n">
-        <v>54.77337913513713</v>
+        <v>57.89489813529582</v>
       </c>
       <c r="K18" t="n">
-        <v>56.93045277962271</v>
+        <v>55.4759348782183</v>
       </c>
       <c r="L18" s="12" t="n">
-        <v>0.04238529411764369</v>
+        <v>0.03154117647058285</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.6382978723404144</v>
+        <v>0.5556841861542029</v>
       </c>
       <c r="N18" t="n">
+        <v>3.889277777777778</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4.624444444444443</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCGS</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MCGS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MCGS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="n">
+        <v>45483.81432727685</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>WDAM</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>595870</v>
+      </c>
+      <c r="I19" t="n">
+        <v>35.64282619903048</v>
+      </c>
+      <c r="J19" s="12" t="n">
+        <v>61.30780274773389</v>
+      </c>
+      <c r="K19" t="n">
+        <v>61.17958405713845</v>
+      </c>
+      <c r="L19" s="12" t="n">
+        <v>0.1661323529411747</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.07072135785007864</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.269444444444444</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3.167777777777778</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AWDAM</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-WDAM/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-WDAM/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="13" t="n">
+        <v>45483.81432727685</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MHAR</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>15</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1493188</v>
+      </c>
+      <c r="I20" t="n">
+        <v>26.82870081654632</v>
+      </c>
+      <c r="J20" s="12" t="n">
+        <v>65.6453076699936</v>
+      </c>
+      <c r="K20" t="n">
+        <v>67.07213316669515</v>
+      </c>
+      <c r="L20" s="12" t="n">
+        <v>0.1621911764705875</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.4975124378109396</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.439722222222222</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.762388888888889</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMHAR</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MHAR/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MHAR/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="n">
+        <v>45483.81432727685</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>QGMD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2739353</v>
+      </c>
+      <c r="I21" t="n">
+        <v>21.21944153913594</v>
+      </c>
+      <c r="J21" s="12" t="n">
+        <v>53.93974076270525</v>
+      </c>
+      <c r="K21" t="n">
+        <v>57.98333624623904</v>
+      </c>
+      <c r="L21" s="12" t="n">
+        <v>0.01514117647058488</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-1.005823186871355</v>
+      </c>
+      <c r="N21" t="n">
         <v>1.624055555555556</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O21" t="n">
         <v>2.104388888888889</v>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGMD</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>https://www.tradingview.com/symbols/QSE-QGMD/financials-overview/</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>https://www.tradingview.com/symbols/QSE-QGMD/technicals/</t>
         </is>
@@ -8896,7 +9226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8996,72 +9326,6 @@
       <c r="R1" s="9" t="inlineStr">
         <is>
           <t>Technicals</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="n">
-        <v>45479.69652471898</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MRDS</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="E2" t="n">
-        <v>15</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4326511</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20.97987606410453</v>
-      </c>
-      <c r="J2" s="12" t="n">
-        <v>22.82403001671862</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.94347650593129</v>
-      </c>
-      <c r="L2" s="12" t="n">
-        <v>-0.02810000000000057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.814332247557004</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.6026111111111111</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.6667777777777778</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMRDS</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MRDS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MRDS/technicals/</t>
         </is>
       </c>
     </row>
@@ -9087,7 +9351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9187,72 +9451,6 @@
       <c r="R1" s="9" t="inlineStr">
         <is>
           <t>Technicals</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="n">
-        <v>45479.69652471898</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MRDS</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="E2" t="n">
-        <v>15</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4326511</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20.97987606410453</v>
-      </c>
-      <c r="J2" s="12" t="n">
-        <v>22.82403001671862</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.94347650593129</v>
-      </c>
-      <c r="L2" s="12" t="n">
-        <v>-0.02810000000000057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.814332247557004</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.6026111111111111</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.6667777777777778</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMRDS</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MRDS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MRDS/technicals/</t>
         </is>
       </c>
     </row>

--- a/D-Advance_Technical_Analysis_QSE_STRONG_BUY.xlsx
+++ b/D-Advance_Technical_Analysis_QSE_STRONG_BUY.xlsx
@@ -2488,7 +2488,7 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="15">
       <c r="A15" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="16">
       <c r="A16" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="18">
       <c r="A18" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="25">
       <c r="A25" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="26">
       <c r="A26" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="28">
       <c r="A28" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="29">
       <c r="A29" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="30">
       <c r="A30" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="32">
       <c r="A32" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="33">
       <c r="A33" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="34">
       <c r="A34" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="35">
       <c r="A35" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="36">
       <c r="A36" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="37">
       <c r="A37" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="38">
       <c r="A38" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="39">
       <c r="A39" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="40">
       <c r="A40" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="41">
       <c r="A41" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="42">
       <c r="A42" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="43">
       <c r="A43" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="44">
       <c r="A44" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="45">
       <c r="A45" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="46">
       <c r="A46" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="47">
       <c r="A47" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="48">
       <c r="A48" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="50">
       <c r="A50" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="51">
       <c r="A51" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="52">
       <c r="A52" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6111,77 +6111,77 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>QNBK</t>
+          <t>IQCD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15.08</v>
+        <v>13.23</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>6714684</v>
+        <v>2523778</v>
       </c>
       <c r="I2" t="n">
-        <v>32.74318924998168</v>
+        <v>46.9217725281064</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>82.89363012476377</v>
+        <v>86.79727384308251</v>
       </c>
       <c r="K2" t="n">
-        <v>81.47344674298833</v>
+        <v>86.32503939510077</v>
       </c>
       <c r="L2" s="12" t="n">
-        <v>0.870705882352997</v>
+        <v>0.8717941176470614</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5333333333333339</v>
+        <v>0.2272727272727359</v>
       </c>
       <c r="N2" t="n">
-        <v>13.14666666666667</v>
+        <v>11.12</v>
       </c>
       <c r="O2" t="n">
-        <v>15.43833333333333</v>
+        <v>13.76</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNBK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIQCD</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNBK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-IQCD/financials-overview/</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNBK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-IQCD/technicals/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IQCD</t>
+          <t>QIBK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6190,64 +6190,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13.23</v>
+        <v>19.75</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>2523778</v>
+        <v>2580074</v>
       </c>
       <c r="I3" t="n">
-        <v>46.9217725281064</v>
+        <v>43.3916484509055</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>86.79727384308251</v>
+        <v>84.2097812629608</v>
       </c>
       <c r="K3" t="n">
-        <v>86.32503939510077</v>
+        <v>86.62912534532812</v>
       </c>
       <c r="L3" s="12" t="n">
-        <v>0.8717941176470614</v>
+        <v>1.472352952941222</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2272727272727359</v>
+        <v>-0.2525202147737466</v>
       </c>
       <c r="N3" t="n">
-        <v>11.12</v>
+        <v>16.77888827777777</v>
       </c>
       <c r="O3" t="n">
-        <v>13.76</v>
+        <v>19.60222344444444</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIQCD</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIBK</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-IQCD/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIBK/financials-overview/</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-IQCD/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIBK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>QIBK</t>
+          <t>ORDS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6256,64 +6256,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19.75</v>
+        <v>10.48</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>2580074</v>
+        <v>1300721</v>
       </c>
       <c r="I4" t="n">
-        <v>43.3916484509055</v>
+        <v>17.93305078134811</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>84.2097812629608</v>
+        <v>70.3809393924783</v>
       </c>
       <c r="K4" t="n">
-        <v>86.62912534532812</v>
+        <v>68.68080861901416</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>1.472352952941222</v>
+        <v>0.4656617058823471</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.2525202147737466</v>
+        <v>0.5758157389635364</v>
       </c>
       <c r="N4" t="n">
-        <v>16.77888827777777</v>
+        <v>9.202222222222224</v>
       </c>
       <c r="O4" t="n">
-        <v>19.60222344444444</v>
+        <v>10.68722222222222</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIBK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AORDS</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIBK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-ORDS/financials-overview/</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIBK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-ORDS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ORDS</t>
+          <t>QGTS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6322,64 +6322,64 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.48</v>
+        <v>4.65</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>1300721</v>
+        <v>2960269</v>
       </c>
       <c r="I5" t="n">
-        <v>17.93305078134811</v>
+        <v>39.93822897783049</v>
       </c>
       <c r="J5" s="12" t="n">
-        <v>70.3809393924783</v>
+        <v>65.69024963566564</v>
       </c>
       <c r="K5" t="n">
-        <v>68.68080861901416</v>
+        <v>66.68613959611665</v>
       </c>
       <c r="L5" s="12" t="n">
-        <v>0.4656617058823471</v>
+        <v>0.2531911764705939</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5758157389635364</v>
+        <v>-0.1931745009658608</v>
       </c>
       <c r="N5" t="n">
-        <v>9.202222222222224</v>
+        <v>3.764444444444444</v>
       </c>
       <c r="O5" t="n">
-        <v>10.68722222222222</v>
+        <v>5.220111111111111</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AORDS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGTS</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-ORDS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QGTS/financials-overview/</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-ORDS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QGTS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>QGTS</t>
+          <t>DUBK</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6388,196 +6388,196 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.65</v>
+        <v>3.793</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>2960269</v>
+        <v>4861608</v>
       </c>
       <c r="I6" t="n">
-        <v>39.93822897783049</v>
+        <v>35.43671114708825</v>
       </c>
       <c r="J6" s="12" t="n">
-        <v>65.69024963566564</v>
+        <v>59.61048189599143</v>
       </c>
       <c r="K6" t="n">
-        <v>66.68613959611665</v>
+        <v>61.62222086204157</v>
       </c>
       <c r="L6" s="12" t="n">
-        <v>0.2531911764705939</v>
+        <v>0.1109676470588217</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.1931745009658608</v>
+        <v>-0.3415659485023621</v>
       </c>
       <c r="N6" t="n">
-        <v>3.764444444444444</v>
+        <v>3.426611111111111</v>
       </c>
       <c r="O6" t="n">
-        <v>5.220111111111111</v>
+        <v>3.965611111111111</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGTS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADUBK</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QGTS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-DUBK/financials-overview/</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QGTS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-DUBK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DUBK</t>
+          <t>QEWS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.793</v>
+        <v>15.65</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>4861608</v>
+        <v>626768</v>
       </c>
       <c r="I7" t="n">
-        <v>35.43671114708825</v>
+        <v>26.13802007971638</v>
       </c>
       <c r="J7" s="12" t="n">
-        <v>59.61048189599143</v>
+        <v>60.70073939122688</v>
       </c>
       <c r="K7" t="n">
-        <v>61.62222086204157</v>
+        <v>68.98558627464296</v>
       </c>
       <c r="L7" s="12" t="n">
-        <v>0.1109676470588217</v>
+        <v>0.5112647058823683</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.3415659485023621</v>
+        <v>-0.9493670886075972</v>
       </c>
       <c r="N7" t="n">
-        <v>3.426611111111111</v>
+        <v>14.37111111111111</v>
       </c>
       <c r="O7" t="n">
-        <v>3.965611111111111</v>
+        <v>16.40611111111111</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADUBK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQEWS</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DUBK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QEWS/financials-overview/</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DUBK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QEWS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>QEWS</t>
+          <t>QIIK</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15.65</v>
+        <v>10.52</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>626768</v>
+        <v>855176</v>
       </c>
       <c r="I8" t="n">
-        <v>26.13802007971638</v>
+        <v>22.76808106934289</v>
       </c>
       <c r="J8" s="12" t="n">
-        <v>60.70073939122688</v>
+        <v>59.01501262717559</v>
       </c>
       <c r="K8" t="n">
-        <v>68.98558627464296</v>
+        <v>67.52098281489583</v>
       </c>
       <c r="L8" s="12" t="n">
-        <v>0.5112647058823683</v>
+        <v>0.3692941176470335</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.9493670886075972</v>
+        <v>-1.682242990654203</v>
       </c>
       <c r="N8" t="n">
-        <v>14.37111111111111</v>
+        <v>8.714444444444444</v>
       </c>
       <c r="O8" t="n">
-        <v>16.40611111111111</v>
+        <v>11.07944444444444</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQEWS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIIK</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QEWS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIIK/financials-overview/</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QEWS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIIK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>QIIK</t>
+          <t>QFLS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6586,64 +6586,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10.52</v>
+        <v>14.9</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>855176</v>
+        <v>426055</v>
       </c>
       <c r="I9" t="n">
-        <v>22.76808106934289</v>
+        <v>11.74332465978865</v>
       </c>
       <c r="J9" s="12" t="n">
-        <v>59.01501262717559</v>
+        <v>52.86679531756832</v>
       </c>
       <c r="K9" t="n">
-        <v>67.52098281489583</v>
+        <v>52.86679531756833</v>
       </c>
       <c r="L9" s="12" t="n">
-        <v>0.3692941176470335</v>
+        <v>0.2325000000000053</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.682242990654203</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>8.714444444444444</v>
+        <v>13.54277777777778</v>
       </c>
       <c r="O9" t="n">
-        <v>11.07944444444444</v>
+        <v>15.68777777777778</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIIK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQFLS</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIIK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QFLS/financials-overview/</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIIK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QFLS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>QFLS</t>
+          <t>QNNS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6652,64 +6652,64 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14.9</v>
+        <v>11.35</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H10" t="n">
-        <v>426055</v>
+        <v>2062876</v>
       </c>
       <c r="I10" t="n">
-        <v>11.74332465978865</v>
+        <v>20.11940706892861</v>
       </c>
       <c r="J10" s="12" t="n">
-        <v>52.86679531756832</v>
+        <v>54.63844274927386</v>
       </c>
       <c r="K10" t="n">
-        <v>52.86679531756833</v>
+        <v>49.57365296045343</v>
       </c>
       <c r="L10" s="12" t="n">
-        <v>0.2325000000000053</v>
+        <v>0.174911764705902</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.793721973094164</v>
       </c>
       <c r="N10" t="n">
-        <v>13.54277777777778</v>
+        <v>9.770555555555555</v>
       </c>
       <c r="O10" t="n">
-        <v>15.68777777777778</v>
+        <v>12.90555555555555</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQFLS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNNS</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QFLS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QNNS/financials-overview/</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QFLS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QNNS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>QNNS</t>
+          <t>VFQS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6718,64 +6718,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11.35</v>
+        <v>1.747</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>2062876</v>
+        <v>1549622</v>
       </c>
       <c r="I11" t="n">
-        <v>20.11940706892861</v>
+        <v>31.02820650630284</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>54.63844274927386</v>
+        <v>65.72717959581647</v>
       </c>
       <c r="K11" t="n">
-        <v>49.57365296045343</v>
+        <v>62.79865582823971</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>0.174911764705902</v>
+        <v>0.03876470588235748</v>
       </c>
       <c r="M11" t="n">
-        <v>1.793721973094164</v>
+        <v>0.6916426512968306</v>
       </c>
       <c r="N11" t="n">
-        <v>9.770555555555555</v>
+        <v>1.640055555555556</v>
       </c>
       <c r="O11" t="n">
-        <v>12.90555555555555</v>
+        <v>1.753722222222223</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNNS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AVFQS</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNNS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-VFQS/financials-overview/</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNNS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-VFQS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VFQS</t>
+          <t>GISS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6784,64 +6784,64 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.747</v>
+        <v>3.311</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>1549622</v>
+        <v>7796773</v>
       </c>
       <c r="I12" t="n">
-        <v>31.02820650630284</v>
+        <v>34.1285735139727</v>
       </c>
       <c r="J12" s="12" t="n">
-        <v>65.72717959581647</v>
+        <v>59.59403036712219</v>
       </c>
       <c r="K12" t="n">
-        <v>62.79865582823971</v>
+        <v>57.57862794880207</v>
       </c>
       <c r="L12" s="12" t="n">
-        <v>0.03876470588235748</v>
+        <v>0.1210235294117665</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6916426512968306</v>
+        <v>0.6077180188392591</v>
       </c>
       <c r="N12" t="n">
-        <v>1.640055555555556</v>
+        <v>2.928944444444444</v>
       </c>
       <c r="O12" t="n">
-        <v>1.753722222222223</v>
+        <v>3.530277777777778</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AVFQS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGISS</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-VFQS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GISS/financials-overview/</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-VFQS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GISS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GISS</t>
+          <t>AHCS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -6850,196 +6850,196 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.311</v>
+        <v>0.777</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>7796773</v>
+        <v>780603</v>
       </c>
       <c r="I13" t="n">
-        <v>34.1285735139727</v>
+        <v>21.25455034550178</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>59.59403036712219</v>
+        <v>65.55429022661195</v>
       </c>
       <c r="K13" t="n">
-        <v>57.57862794880207</v>
+        <v>65.55429022661194</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>0.1210235294117665</v>
+        <v>0.007682352941177029</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6077180188392591</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.928944444444444</v>
+        <v>0.7404444444444445</v>
       </c>
       <c r="O13" t="n">
-        <v>3.530277777777778</v>
+        <v>0.7807777777777778</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGISS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAHCS</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-GISS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-AHCS/financials-overview/</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-GISS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-AHCS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AHCS</t>
+          <t>DHBK</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.777</v>
+        <v>1.43</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>780603</v>
+        <v>10053592</v>
       </c>
       <c r="I14" t="n">
-        <v>21.25455034550178</v>
+        <v>25.04474601852598</v>
       </c>
       <c r="J14" s="12" t="n">
-        <v>65.55429022661195</v>
+        <v>51.97765989071952</v>
       </c>
       <c r="K14" t="n">
-        <v>65.55429022661194</v>
+        <v>58.35901950030753</v>
       </c>
       <c r="L14" s="12" t="n">
-        <v>0.007682352941177029</v>
+        <v>0.02940294117646558</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-0.9009009009009094</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7404444444444445</v>
+        <v>1.335</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7807777777777778</v>
+        <v>1.523833333333333</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAHCS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADHBK</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-AHCS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-DHBK/financials-overview/</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-AHCS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-DHBK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DHBK</t>
+          <t>MERS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.43</v>
+        <v>14.85</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>10053592</v>
+        <v>121872</v>
       </c>
       <c r="I15" t="n">
-        <v>25.04474601852598</v>
+        <v>37.76796891545495</v>
       </c>
       <c r="J15" s="12" t="n">
-        <v>51.97765989071952</v>
+        <v>66.97505470075428</v>
       </c>
       <c r="K15" t="n">
-        <v>58.35901950030753</v>
+        <v>62.97295362520317</v>
       </c>
       <c r="L15" s="12" t="n">
-        <v>0.02940294117646558</v>
+        <v>0.5845294117646755</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.9009009009009094</v>
+        <v>1.365187713310575</v>
       </c>
       <c r="N15" t="n">
-        <v>1.335</v>
+        <v>12.23222222222222</v>
       </c>
       <c r="O15" t="n">
-        <v>1.523833333333333</v>
+        <v>15.97222222222222</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADHBK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMERS</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DHBK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MERS/financials-overview/</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DHBK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MERS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MERS</t>
+          <t>QNCD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -7048,130 +7048,130 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14.85</v>
+        <v>3.782</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>121872</v>
+        <v>661417</v>
       </c>
       <c r="I16" t="n">
-        <v>37.76796891545495</v>
+        <v>51.97629202811493</v>
       </c>
       <c r="J16" s="12" t="n">
-        <v>66.97505470075428</v>
+        <v>67.33803682273692</v>
       </c>
       <c r="K16" t="n">
-        <v>62.97295362520317</v>
+        <v>67.33803682273691</v>
       </c>
       <c r="L16" s="12" t="n">
-        <v>0.5845294117646755</v>
+        <v>0.1545558823529434</v>
       </c>
       <c r="M16" t="n">
-        <v>1.365187713310575</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>12.23222222222222</v>
+        <v>3.332666666666666</v>
       </c>
       <c r="O16" t="n">
-        <v>15.97222222222222</v>
+        <v>3.974333333333333</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMERS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNCD</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-MERS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QNCD/financials-overview/</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-MERS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QNCD/technicals/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BLDN</t>
+          <t>GWCS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.356</v>
+        <v>3.375</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>18357367</v>
+        <v>470492</v>
       </c>
       <c r="I17" t="n">
-        <v>17.56823737807317</v>
+        <v>22.94784475503361</v>
       </c>
       <c r="J17" s="12" t="n">
-        <v>67.12260672332081</v>
+        <v>59.61898248009737</v>
       </c>
       <c r="K17" t="n">
-        <v>62.062345375695</v>
+        <v>60.91230229833091</v>
       </c>
       <c r="L17" s="12" t="n">
-        <v>0.02176470588235269</v>
+        <v>0.008723529411764019</v>
       </c>
       <c r="M17" t="n">
-        <v>1.19402985074627</v>
+        <v>-0.1479289940828371</v>
       </c>
       <c r="N17" t="n">
-        <v>1.266944444444444</v>
+        <v>3.192388888888888</v>
       </c>
       <c r="O17" t="n">
-        <v>1.345777777777778</v>
+        <v>3.471055555555555</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABLDN</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGWCS</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-BLDN/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GWCS/financials-overview/</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-BLDN/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GWCS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>QNCD</t>
+          <t>QIGD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7180,64 +7180,64 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.782</v>
+        <v>1.591</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>661417</v>
+        <v>1848799</v>
       </c>
       <c r="I18" t="n">
-        <v>51.97629202811493</v>
+        <v>23.8574480379032</v>
       </c>
       <c r="J18" s="12" t="n">
-        <v>67.33803682273692</v>
+        <v>60.53229167824227</v>
       </c>
       <c r="K18" t="n">
-        <v>67.33803682273691</v>
+        <v>59.99652782144849</v>
       </c>
       <c r="L18" s="12" t="n">
-        <v>0.1545558823529434</v>
+        <v>0.02162352941176193</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.1258653241032097</v>
       </c>
       <c r="N18" t="n">
-        <v>3.332666666666666</v>
+        <v>1.470611111111111</v>
       </c>
       <c r="O18" t="n">
-        <v>3.974333333333333</v>
+        <v>1.624611111111111</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNCD</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIGD</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNCD/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIGD/financials-overview/</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNCD/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIGD/technicals/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GWCS</t>
+          <t>MCGS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7246,64 +7246,64 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3.375</v>
+        <v>4.343</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H19" t="n">
-        <v>470492</v>
+        <v>1222651</v>
       </c>
       <c r="I19" t="n">
-        <v>22.94784475503361</v>
+        <v>12.93648388644739</v>
       </c>
       <c r="J19" s="12" t="n">
-        <v>59.61898248009737</v>
+        <v>57.89489813529582</v>
       </c>
       <c r="K19" t="n">
-        <v>60.91230229833091</v>
+        <v>55.4759348782183</v>
       </c>
       <c r="L19" s="12" t="n">
-        <v>0.008723529411764019</v>
+        <v>0.03154117647058285</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.1479289940828371</v>
+        <v>0.5556841861542029</v>
       </c>
       <c r="N19" t="n">
-        <v>3.192388888888888</v>
+        <v>3.889277777777778</v>
       </c>
       <c r="O19" t="n">
-        <v>3.471055555555555</v>
+        <v>4.624444444444443</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGWCS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCGS</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-GWCS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MCGS/financials-overview/</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-GWCS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MCGS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>QIGD</t>
+          <t>WDAM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7312,64 +7312,64 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.591</v>
+        <v>2.83</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>1848799</v>
+        <v>595870</v>
       </c>
       <c r="I20" t="n">
-        <v>23.8574480379032</v>
+        <v>35.64282619903048</v>
       </c>
       <c r="J20" s="12" t="n">
-        <v>60.53229167824227</v>
+        <v>61.30780274773389</v>
       </c>
       <c r="K20" t="n">
-        <v>59.99652782144849</v>
+        <v>61.17958405713845</v>
       </c>
       <c r="L20" s="12" t="n">
-        <v>0.02162352941176193</v>
+        <v>0.1661323529411747</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1258653241032097</v>
+        <v>0.07072135785007864</v>
       </c>
       <c r="N20" t="n">
-        <v>1.470611111111111</v>
+        <v>2.269444444444444</v>
       </c>
       <c r="O20" t="n">
-        <v>1.624611111111111</v>
+        <v>3.167777777777778</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIGD</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AWDAM</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIGD/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-WDAM/financials-overview/</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIGD/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-WDAM/technicals/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MCGS</t>
+          <t>MHAR</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -7378,382 +7378,118 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.343</v>
+        <v>1.8</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>1222651</v>
+        <v>1493188</v>
       </c>
       <c r="I21" t="n">
-        <v>12.93648388644739</v>
+        <v>26.82870081654632</v>
       </c>
       <c r="J21" s="12" t="n">
-        <v>57.89489813529582</v>
+        <v>65.6453076699936</v>
       </c>
       <c r="K21" t="n">
-        <v>55.4759348782183</v>
+        <v>67.07213316669515</v>
       </c>
       <c r="L21" s="12" t="n">
-        <v>0.03154117647058285</v>
+        <v>0.1621911764705875</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5556841861542029</v>
+        <v>-0.4975124378109396</v>
       </c>
       <c r="N21" t="n">
-        <v>3.889277777777778</v>
+        <v>1.439722222222222</v>
       </c>
       <c r="O21" t="n">
-        <v>4.624444444444443</v>
+        <v>1.762388888888889</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCGS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMHAR</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-MCGS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MHAR/financials-overview/</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-MCGS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MHAR/technicals/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SIIS</t>
+          <t>QGMD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.669</v>
+        <v>1.87</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H22" t="n">
-        <v>373463</v>
+        <v>2739353</v>
       </c>
       <c r="I22" t="n">
-        <v>13.71423092021016</v>
+        <v>21.21944153913594</v>
       </c>
       <c r="J22" s="12" t="n">
-        <v>49.24704248119033</v>
+        <v>53.93974076270525</v>
       </c>
       <c r="K22" t="n">
-        <v>51.68214458738122</v>
+        <v>57.98333624623904</v>
       </c>
       <c r="L22" s="12" t="n">
-        <v>0.004191176470589086</v>
+        <v>0.01514117647058488</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.4464285714285718</v>
+        <v>-1.005823186871355</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6182777777777778</v>
+        <v>1.624055555555556</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7209444444444446</v>
+        <v>2.104388888888889</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ASIIS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGMD</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-SIIS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QGMD/financials-overview/</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-SIIS/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MKDM</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>NEUTRAL</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>3.631</v>
-      </c>
-      <c r="E23" t="n">
-        <v>8</v>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-      <c r="G23" t="n">
-        <v>8</v>
-      </c>
-      <c r="H23" t="n">
-        <v>147438</v>
-      </c>
-      <c r="I23" t="n">
-        <v>23.43854041010506</v>
-      </c>
-      <c r="J23" s="12" t="n">
-        <v>49.95238058366298</v>
-      </c>
-      <c r="K23" t="n">
-        <v>46.58650406953593</v>
-      </c>
-      <c r="L23" s="12" t="n">
-        <v>0.02559117647059761</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.5817174515235433</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.415777777777778</v>
-      </c>
-      <c r="O23" t="n">
-        <v>3.800777777777778</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMKDM</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MKDM/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MKDM/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>WDAM</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
-      </c>
-      <c r="G24" t="n">
-        <v>15</v>
-      </c>
-      <c r="H24" t="n">
-        <v>595870</v>
-      </c>
-      <c r="I24" t="n">
-        <v>35.64282619903048</v>
-      </c>
-      <c r="J24" s="12" t="n">
-        <v>61.30780274773389</v>
-      </c>
-      <c r="K24" t="n">
-        <v>61.17958405713845</v>
-      </c>
-      <c r="L24" s="12" t="n">
-        <v>0.1661323529411747</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.07072135785007864</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.269444444444444</v>
-      </c>
-      <c r="O24" t="n">
-        <v>3.167777777777778</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AWDAM</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-WDAM/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-WDAM/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MHAR</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
-      </c>
-      <c r="G25" t="n">
-        <v>15</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1493188</v>
-      </c>
-      <c r="I25" t="n">
-        <v>26.82870081654632</v>
-      </c>
-      <c r="J25" s="12" t="n">
-        <v>65.6453076699936</v>
-      </c>
-      <c r="K25" t="n">
-        <v>67.07213316669515</v>
-      </c>
-      <c r="L25" s="12" t="n">
-        <v>0.1621911764705875</v>
-      </c>
-      <c r="M25" t="n">
-        <v>-0.4975124378109396</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.439722222222222</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.762388888888889</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMHAR</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MHAR/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MHAR/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>QGMD</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E26" t="n">
-        <v>7</v>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
-      </c>
-      <c r="G26" t="n">
-        <v>11</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2739353</v>
-      </c>
-      <c r="I26" t="n">
-        <v>21.21944153913594</v>
-      </c>
-      <c r="J26" s="12" t="n">
-        <v>53.93974076270525</v>
-      </c>
-      <c r="K26" t="n">
-        <v>57.98333624623904</v>
-      </c>
-      <c r="L26" s="12" t="n">
-        <v>0.01514117647058488</v>
-      </c>
-      <c r="M26" t="n">
-        <v>-1.005823186871355</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.624055555555556</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2.104388888888889</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGMD</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QGMD/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
         <is>
           <t>https://www.tradingview.com/symbols/QSE-QGMD/technicals/</t>
         </is>
@@ -7781,7 +7517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7886,1321 +7622,133 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IQCD</t>
+          <t>QEWS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.23</v>
+        <v>15.65</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2523778</v>
+        <v>626768</v>
       </c>
       <c r="I2" t="n">
-        <v>46.9217725281064</v>
+        <v>26.13802007971638</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>86.79727384308251</v>
+        <v>60.70073939122688</v>
       </c>
       <c r="K2" t="n">
-        <v>86.32503939510077</v>
+        <v>68.98558627464296</v>
       </c>
       <c r="L2" s="12" t="n">
-        <v>0.8717941176470614</v>
+        <v>0.5112647058823683</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2272727272727359</v>
+        <v>-0.9493670886075972</v>
       </c>
       <c r="N2" t="n">
-        <v>11.12</v>
+        <v>14.37111111111111</v>
       </c>
       <c r="O2" t="n">
-        <v>13.76</v>
+        <v>16.40611111111111</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIQCD</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQEWS</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-IQCD/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QEWS/financials-overview/</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-IQCD/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QEWS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="13" t="n">
-        <v>45483.81432727685</v>
+        <v>45483.83680250714</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>QIBK</t>
+          <t>DHBK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19.75</v>
+        <v>1.43</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>2580074</v>
+        <v>10053592</v>
       </c>
       <c r="I3" t="n">
-        <v>43.3916484509055</v>
+        <v>25.04474601852598</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>84.2097812629608</v>
+        <v>51.97765989071952</v>
       </c>
       <c r="K3" t="n">
-        <v>86.62912534532812</v>
+        <v>58.35901950030753</v>
       </c>
       <c r="L3" s="12" t="n">
-        <v>1.472352952941222</v>
+        <v>0.02940294117646558</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.2525202147737466</v>
+        <v>-0.9009009009009094</v>
       </c>
       <c r="N3" t="n">
-        <v>16.77888827777777</v>
+        <v>1.335</v>
       </c>
       <c r="O3" t="n">
-        <v>19.60222344444444</v>
+        <v>1.523833333333333</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIBK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADHBK</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIBK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-DHBK/financials-overview/</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIBK/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ORDS</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1300721</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17.93305078134811</v>
-      </c>
-      <c r="J4" s="12" t="n">
-        <v>70.3809393924783</v>
-      </c>
-      <c r="K4" t="n">
-        <v>68.68080861901416</v>
-      </c>
-      <c r="L4" s="12" t="n">
-        <v>0.4656617058823471</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.5758157389635364</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9.202222222222224</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10.68722222222222</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AORDS</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-ORDS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-ORDS/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>QGTS</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="n">
-        <v>13</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2960269</v>
-      </c>
-      <c r="I5" t="n">
-        <v>39.93822897783049</v>
-      </c>
-      <c r="J5" s="12" t="n">
-        <v>65.69024963566564</v>
-      </c>
-      <c r="K5" t="n">
-        <v>66.68613959611665</v>
-      </c>
-      <c r="L5" s="12" t="n">
-        <v>0.2531911764705939</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-0.1931745009658608</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.764444444444444</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5.220111111111111</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGTS</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QGTS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QGTS/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DUBK</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3.793</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4861608</v>
-      </c>
-      <c r="I6" t="n">
-        <v>35.43671114708825</v>
-      </c>
-      <c r="J6" s="12" t="n">
-        <v>59.61048189599143</v>
-      </c>
-      <c r="K6" t="n">
-        <v>61.62222086204157</v>
-      </c>
-      <c r="L6" s="12" t="n">
-        <v>0.1109676470588217</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-0.3415659485023621</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.426611111111111</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3.965611111111111</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADUBK</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-DUBK/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-DUBK/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>QIIK</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-      <c r="G7" t="n">
-        <v>14</v>
-      </c>
-      <c r="H7" t="n">
-        <v>855176</v>
-      </c>
-      <c r="I7" t="n">
-        <v>22.76808106934289</v>
-      </c>
-      <c r="J7" s="12" t="n">
-        <v>59.01501262717559</v>
-      </c>
-      <c r="K7" t="n">
-        <v>67.52098281489583</v>
-      </c>
-      <c r="L7" s="12" t="n">
-        <v>0.3692941176470335</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-1.682242990654203</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.714444444444444</v>
-      </c>
-      <c r="O7" t="n">
-        <v>11.07944444444444</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIIK</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIIK/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIIK/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>QFLS</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" t="n">
-        <v>11</v>
-      </c>
-      <c r="H8" t="n">
-        <v>426055</v>
-      </c>
-      <c r="I8" t="n">
-        <v>11.74332465978865</v>
-      </c>
-      <c r="J8" s="12" t="n">
-        <v>52.86679531756832</v>
-      </c>
-      <c r="K8" t="n">
-        <v>52.86679531756833</v>
-      </c>
-      <c r="L8" s="12" t="n">
-        <v>0.2325000000000053</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13.54277777777778</v>
-      </c>
-      <c r="O8" t="n">
-        <v>15.68777777777778</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQFLS</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QFLS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QFLS/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>QNNS</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" t="n">
-        <v>16</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2062876</v>
-      </c>
-      <c r="I9" t="n">
-        <v>20.11940706892861</v>
-      </c>
-      <c r="J9" s="12" t="n">
-        <v>54.63844274927386</v>
-      </c>
-      <c r="K9" t="n">
-        <v>49.57365296045343</v>
-      </c>
-      <c r="L9" s="12" t="n">
-        <v>0.174911764705902</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.793721973094164</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9.770555555555555</v>
-      </c>
-      <c r="O9" t="n">
-        <v>12.90555555555555</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNNS</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNNS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNNS/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>VFQS</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="n">
-        <v>14</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1549622</v>
-      </c>
-      <c r="I10" t="n">
-        <v>31.02820650630284</v>
-      </c>
-      <c r="J10" s="12" t="n">
-        <v>65.72717959581647</v>
-      </c>
-      <c r="K10" t="n">
-        <v>62.79865582823971</v>
-      </c>
-      <c r="L10" s="12" t="n">
-        <v>0.03876470588235748</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.6916426512968306</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.640055555555556</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.753722222222223</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AVFQS</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-VFQS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-VFQS/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>GISS</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3.311</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-      <c r="G11" t="n">
-        <v>15</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7796773</v>
-      </c>
-      <c r="I11" t="n">
-        <v>34.1285735139727</v>
-      </c>
-      <c r="J11" s="12" t="n">
-        <v>59.59403036712219</v>
-      </c>
-      <c r="K11" t="n">
-        <v>57.57862794880207</v>
-      </c>
-      <c r="L11" s="12" t="n">
-        <v>0.1210235294117665</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.6077180188392591</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.928944444444444</v>
-      </c>
-      <c r="O11" t="n">
-        <v>3.530277777777778</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGISS</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-GISS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-GISS/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>AHCS</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" t="n">
-        <v>11</v>
-      </c>
-      <c r="H12" t="n">
-        <v>780603</v>
-      </c>
-      <c r="I12" t="n">
-        <v>21.25455034550178</v>
-      </c>
-      <c r="J12" s="12" t="n">
-        <v>65.55429022661195</v>
-      </c>
-      <c r="K12" t="n">
-        <v>65.55429022661194</v>
-      </c>
-      <c r="L12" s="12" t="n">
-        <v>0.007682352941177029</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.7404444444444445</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.7807777777777778</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAHCS</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-AHCS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-AHCS/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ZHCD</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-      <c r="G13" t="n">
-        <v>12</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6850</v>
-      </c>
-      <c r="I13" t="n">
-        <v>45.14403417748694</v>
-      </c>
-      <c r="J13" s="12" t="n">
-        <v>63.73024945958366</v>
-      </c>
-      <c r="K13" t="n">
-        <v>62.53068333633011</v>
-      </c>
-      <c r="L13" s="12" t="n">
-        <v>0.5854411764705585</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.450788880540937</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11.70666666666667</v>
-      </c>
-      <c r="O13" t="n">
-        <v>13.83333333333333</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AZHCD</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-ZHCD/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-ZHCD/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MERS</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" t="n">
-        <v>15</v>
-      </c>
-      <c r="H14" t="n">
-        <v>121872</v>
-      </c>
-      <c r="I14" t="n">
-        <v>37.76796891545495</v>
-      </c>
-      <c r="J14" s="12" t="n">
-        <v>66.97505470075428</v>
-      </c>
-      <c r="K14" t="n">
-        <v>62.97295362520317</v>
-      </c>
-      <c r="L14" s="12" t="n">
-        <v>0.5845294117646755</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.365187713310575</v>
-      </c>
-      <c r="N14" t="n">
-        <v>12.23222222222222</v>
-      </c>
-      <c r="O14" t="n">
-        <v>15.97222222222222</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMERS</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MERS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MERS/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>QNCD</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>3.782</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14</v>
-      </c>
-      <c r="H15" t="n">
-        <v>661417</v>
-      </c>
-      <c r="I15" t="n">
-        <v>51.97629202811493</v>
-      </c>
-      <c r="J15" s="12" t="n">
-        <v>67.33803682273692</v>
-      </c>
-      <c r="K15" t="n">
-        <v>67.33803682273691</v>
-      </c>
-      <c r="L15" s="12" t="n">
-        <v>0.1545558823529434</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.332666666666666</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3.974333333333333</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNCD</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNCD/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNCD/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>GWCS</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>15</v>
-      </c>
-      <c r="H16" t="n">
-        <v>470492</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22.94784475503361</v>
-      </c>
-      <c r="J16" s="12" t="n">
-        <v>59.61898248009737</v>
-      </c>
-      <c r="K16" t="n">
-        <v>60.91230229833091</v>
-      </c>
-      <c r="L16" s="12" t="n">
-        <v>0.008723529411764019</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-0.1479289940828371</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.192388888888888</v>
-      </c>
-      <c r="O16" t="n">
-        <v>3.471055555555555</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGWCS</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-GWCS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-GWCS/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>QIGD</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1.591</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-      <c r="G17" t="n">
-        <v>11</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1848799</v>
-      </c>
-      <c r="I17" t="n">
-        <v>23.8574480379032</v>
-      </c>
-      <c r="J17" s="12" t="n">
-        <v>60.53229167824227</v>
-      </c>
-      <c r="K17" t="n">
-        <v>59.99652782144849</v>
-      </c>
-      <c r="L17" s="12" t="n">
-        <v>0.02162352941176193</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.1258653241032097</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.470611111111111</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.624611111111111</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIGD</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIGD/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIGD/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MCGS</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>4.343</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-      <c r="G18" t="n">
-        <v>12</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1222651</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12.93648388644739</v>
-      </c>
-      <c r="J18" s="12" t="n">
-        <v>57.89489813529582</v>
-      </c>
-      <c r="K18" t="n">
-        <v>55.4759348782183</v>
-      </c>
-      <c r="L18" s="12" t="n">
-        <v>0.03154117647058285</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.5556841861542029</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.889277777777778</v>
-      </c>
-      <c r="O18" t="n">
-        <v>4.624444444444443</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCGS</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MCGS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MCGS/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>WDAM</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-      <c r="G19" t="n">
-        <v>15</v>
-      </c>
-      <c r="H19" t="n">
-        <v>595870</v>
-      </c>
-      <c r="I19" t="n">
-        <v>35.64282619903048</v>
-      </c>
-      <c r="J19" s="12" t="n">
-        <v>61.30780274773389</v>
-      </c>
-      <c r="K19" t="n">
-        <v>61.17958405713845</v>
-      </c>
-      <c r="L19" s="12" t="n">
-        <v>0.1661323529411747</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.07072135785007864</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.269444444444444</v>
-      </c>
-      <c r="O19" t="n">
-        <v>3.167777777777778</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AWDAM</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-WDAM/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-WDAM/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MHAR</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-      <c r="G20" t="n">
-        <v>15</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1493188</v>
-      </c>
-      <c r="I20" t="n">
-        <v>26.82870081654632</v>
-      </c>
-      <c r="J20" s="12" t="n">
-        <v>65.6453076699936</v>
-      </c>
-      <c r="K20" t="n">
-        <v>67.07213316669515</v>
-      </c>
-      <c r="L20" s="12" t="n">
-        <v>0.1621911764705875</v>
-      </c>
-      <c r="M20" t="n">
-        <v>-0.4975124378109396</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.439722222222222</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.762388888888889</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMHAR</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MHAR/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MHAR/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="n">
-        <v>45483.81432727685</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>QGMD</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-      <c r="G21" t="n">
-        <v>11</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2739353</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21.21944153913594</v>
-      </c>
-      <c r="J21" s="12" t="n">
-        <v>53.93974076270525</v>
-      </c>
-      <c r="K21" t="n">
-        <v>57.98333624623904</v>
-      </c>
-      <c r="L21" s="12" t="n">
-        <v>0.01514117647058488</v>
-      </c>
-      <c r="M21" t="n">
-        <v>-1.005823186871355</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.624055555555556</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2.104388888888889</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGMD</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QGMD/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QGMD/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-DHBK/technicals/</t>
         </is>
       </c>
     </row>
@@ -9226,7 +7774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9326,6 +7874,732 @@
       <c r="R1" s="9" t="inlineStr">
         <is>
           <t>Technicals</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MPHC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11081863</v>
+      </c>
+      <c r="I2" t="n">
+        <v>23.9949211719757</v>
+      </c>
+      <c r="J2" s="12" t="n">
+        <v>44.45689952403556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48.97935956311579</v>
+      </c>
+      <c r="L2" s="12" t="n">
+        <v>-0.01229411764705413</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.065088757396451</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.577777777777777</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.772111111111111</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMPHC</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MPHC/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MPHC/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MARK</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2.326</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11114474</v>
+      </c>
+      <c r="I3" t="n">
+        <v>26.7626936816432</v>
+      </c>
+      <c r="J3" s="12" t="n">
+        <v>47.12742777604831</v>
+      </c>
+      <c r="K3" t="n">
+        <v>48.12506726559043</v>
+      </c>
+      <c r="L3" s="12" t="n">
+        <v>-0.02962352941176327</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.1716738197424894</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.2575</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.4005</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMARK</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MARK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MARK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ERES</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8534980</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21.75722293600613</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <v>39.14747182765163</v>
+      </c>
+      <c r="K4" t="n">
+        <v>42.57517138184155</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>-0.01727058823529259</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.5181347150259072</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.7283333333333334</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.8291666666666665</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AERES</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ERES/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ERES/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BRES</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2.771</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2713538</v>
+      </c>
+      <c r="I5" t="n">
+        <v>28.34826254261855</v>
+      </c>
+      <c r="J5" s="12" t="n">
+        <v>45.38904086806171</v>
+      </c>
+      <c r="K5" t="n">
+        <v>48.65167889277375</v>
+      </c>
+      <c r="L5" s="12" t="n">
+        <v>-0.07621764705881118</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.6453926138400946</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.593722222222222</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.967722222222223</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABRES</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-BRES/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-BRES/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IGRD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1.943</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3424652</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18.23226395873201</v>
+      </c>
+      <c r="J6" s="12" t="n">
+        <v>48.78323831496574</v>
+      </c>
+      <c r="K6" t="n">
+        <v>44.40186027034198</v>
+      </c>
+      <c r="L6" s="12" t="n">
+        <v>-0.001129411764707156</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8303061754021802</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.874888888888889</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.028888888888889</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIGRD</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IGRD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IGRD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MCCS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>237973</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.63727735200793</v>
+      </c>
+      <c r="J7" s="12" t="n">
+        <v>48.4869659508667</v>
+      </c>
+      <c r="K7" t="n">
+        <v>54.24343616978519</v>
+      </c>
+      <c r="L7" s="12" t="n">
+        <v>-0.03239117647058531</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1.338383838383837</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.629777777777778</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.176111111111111</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCCS</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MCCS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MCCS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DOHI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>146667</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21.54891097211091</v>
+      </c>
+      <c r="J8" s="12" t="n">
+        <v>46.11702816579999</v>
+      </c>
+      <c r="K8" t="n">
+        <v>45.51195620506614</v>
+      </c>
+      <c r="L8" s="12" t="n">
+        <v>-0.009229411764705819</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1659062629614269</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.258055555555556</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.670555555555556</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADOHI</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DOHI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DOHI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>QGRI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>58626</v>
+      </c>
+      <c r="I9" t="n">
+        <v>23.18703352432577</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <v>41.73805340535198</v>
+      </c>
+      <c r="K9" t="n">
+        <v>43.71402458039621</v>
+      </c>
+      <c r="L9" s="12" t="n">
+        <v>-0.03854117647058841</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-1.30576713819369</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.8177222222222224</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.100055555555556</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGRI</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGRI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGRI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>QOIS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>725634</v>
+      </c>
+      <c r="I10" t="n">
+        <v>34.31127510764141</v>
+      </c>
+      <c r="J10" s="12" t="n">
+        <v>31.85312167228773</v>
+      </c>
+      <c r="K10" t="n">
+        <v>35.15049700217723</v>
+      </c>
+      <c r="L10" s="12" t="n">
+        <v>-0.02410294117647105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.9126466753585406</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.7326666666666667</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.8426666666666666</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQOIS</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QOIS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QOIS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>QCFS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2.702</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28.14385511052187</v>
+      </c>
+      <c r="J11" s="12" t="n">
+        <v>41.18401049119782</v>
+      </c>
+      <c r="K11" t="n">
+        <v>41.18401049119782</v>
+      </c>
+      <c r="L11" s="12" t="n">
+        <v>-0.1047352941176465</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.383</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.241</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQCFS</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QCFS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QCFS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FALH</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1315</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13.50247916065292</v>
+      </c>
+      <c r="J12" s="12" t="n">
+        <v>43.27927288048357</v>
+      </c>
+      <c r="K12" t="n">
+        <v>43.27927288048357</v>
+      </c>
+      <c r="L12" s="12" t="n">
+        <v>-0.002688235294118213</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.6726666666666667</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.7074999999999999</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AFALH</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-FALH/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-FALH/technicals/</t>
         </is>
       </c>
     </row>
@@ -9351,7 +8625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9451,6 +8725,534 @@
       <c r="R1" s="9" t="inlineStr">
         <is>
           <t>Technicals</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CBQK</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3582759</v>
+      </c>
+      <c r="I2" t="n">
+        <v>22.78266667800646</v>
+      </c>
+      <c r="J2" s="12" t="n">
+        <v>47.01400213409872</v>
+      </c>
+      <c r="K2" t="n">
+        <v>49.1206723765392</v>
+      </c>
+      <c r="L2" s="12" t="n">
+        <v>0.1260705882352982</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.4854368932038947</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.733388888888889</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.578555555555556</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ACBQK</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-CBQK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-CBQK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>QATI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>73161</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15.0985229672711</v>
+      </c>
+      <c r="J3" s="12" t="n">
+        <v>47.85093959485081</v>
+      </c>
+      <c r="K3" t="n">
+        <v>55.36045070691043</v>
+      </c>
+      <c r="L3" s="12" t="n">
+        <v>0.02498235294117457</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1.869158878504674</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.949055555555556</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.218555555555555</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQATI</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QATI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QATI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>QIMD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>222908</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18.66699568585874</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <v>49.93652548075251</v>
+      </c>
+      <c r="K4" t="n">
+        <v>49.93652548075251</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>0.001058823529402897</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.389833333333333</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.6465</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIMD</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIMD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIMD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SIIS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>373463</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13.71423092021016</v>
+      </c>
+      <c r="J5" s="12" t="n">
+        <v>49.24704248119033</v>
+      </c>
+      <c r="K5" t="n">
+        <v>51.68214458738122</v>
+      </c>
+      <c r="L5" s="12" t="n">
+        <v>0.004191176470589086</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.4464285714285718</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6182777777777778</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.7209444444444446</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ASIIS</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-SIIS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-SIIS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AKHI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1698223</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.97799657831498</v>
+      </c>
+      <c r="J6" s="12" t="n">
+        <v>46.13932301161793</v>
+      </c>
+      <c r="K6" t="n">
+        <v>46.29011884337932</v>
+      </c>
+      <c r="L6" s="12" t="n">
+        <v>0.00302058823529272</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.0421052631578901</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.211388888888889</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.567055555555556</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAKHI</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AKHI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AKHI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MKDM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3.631</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>147438</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23.43854041010506</v>
+      </c>
+      <c r="J7" s="12" t="n">
+        <v>49.95238058366298</v>
+      </c>
+      <c r="K7" t="n">
+        <v>46.58650406953593</v>
+      </c>
+      <c r="L7" s="12" t="n">
+        <v>0.02559117647059761</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5817174515235433</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.415777777777778</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.800777777777778</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMKDM</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MKDM/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MKDM/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IHGS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4.269</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>365336</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31.92451409962023</v>
+      </c>
+      <c r="J8" s="12" t="n">
+        <v>41.3294858471676</v>
+      </c>
+      <c r="K8" t="n">
+        <v>41.88151836996662</v>
+      </c>
+      <c r="L8" s="12" t="n">
+        <v>0.04599705882352279</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.2570093457943953</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.173444444444445</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.749111111111112</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIHGS</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IHGS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IHGS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="n">
+        <v>45483.83680250714</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DBIS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.234</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>27241</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15.68494513689769</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <v>46.41753287256827</v>
+      </c>
+      <c r="K9" t="n">
+        <v>48.04960387265348</v>
+      </c>
+      <c r="L9" s="12" t="n">
+        <v>0.004176470588236114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.4838709677419359</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.158055555555556</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.339555555555555</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADBIS</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DBIS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DBIS/technicals/</t>
         </is>
       </c>
     </row>

--- a/D-Advance_Technical_Analysis_QSE_STRONG_BUY.xlsx
+++ b/D-Advance_Technical_Analysis_QSE_STRONG_BUY.xlsx
@@ -2488,7 +2488,7 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2497,44 +2497,44 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15.08</v>
+        <v>15.33</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>6714684</v>
+        <v>3135424</v>
       </c>
       <c r="I2" t="n">
-        <v>32.74318924998168</v>
+        <v>29.92898895820383</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>82.89363012476377</v>
+        <v>70.37615268505439</v>
       </c>
       <c r="K2" t="n">
-        <v>81.47344674298833</v>
+        <v>71.67002415289924</v>
       </c>
       <c r="L2" s="12" t="n">
-        <v>0.870705882352997</v>
+        <v>0.5322647058824153</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5333333333333339</v>
+        <v>-0.1302931596091177</v>
       </c>
       <c r="N2" t="n">
-        <v>13.14666666666667</v>
+        <v>13.80625</v>
       </c>
       <c r="O2" t="n">
-        <v>15.43833333333333</v>
+        <v>14.90875</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2563,44 +2563,44 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13.23</v>
+        <v>13.03</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
         <v>9</v>
       </c>
-      <c r="G3" t="n">
-        <v>15</v>
-      </c>
       <c r="H3" t="n">
-        <v>2523778</v>
+        <v>664049</v>
       </c>
       <c r="I3" t="n">
-        <v>46.9217725281064</v>
+        <v>26.08799037861046</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>86.79727384308251</v>
+        <v>54.57480171805644</v>
       </c>
       <c r="K3" t="n">
-        <v>86.32503939510077</v>
+        <v>58.50675253817137</v>
       </c>
       <c r="L3" s="12" t="n">
-        <v>0.8717941176470614</v>
+        <v>0.2548235294117696</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2272727272727359</v>
+        <v>-0.5343511450381702</v>
       </c>
       <c r="N3" t="n">
-        <v>11.12</v>
+        <v>11.88496</v>
       </c>
       <c r="O3" t="n">
-        <v>13.76</v>
+        <v>13.15504</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2633,40 +2633,40 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19.75</v>
+        <v>19.450001</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>2580074</v>
+        <v>392778</v>
       </c>
       <c r="I4" t="n">
-        <v>43.3916484509055</v>
+        <v>25.58866134822821</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>84.2097812629608</v>
+        <v>62.54861474182103</v>
       </c>
       <c r="K4" t="n">
-        <v>86.62912534532812</v>
+        <v>60.71953862057027</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>1.472352952941222</v>
+        <v>0.37123537647064</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.2525202147737466</v>
+        <v>0.3612074489787062</v>
       </c>
       <c r="N4" t="n">
-        <v>16.77888827777777</v>
+        <v>17.585859809</v>
       </c>
       <c r="O4" t="n">
-        <v>19.60222344444444</v>
+        <v>18.944140691</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -2699,40 +2699,40 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.48</v>
+        <v>10.42</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>1300721</v>
+        <v>739011</v>
       </c>
       <c r="I5" t="n">
-        <v>17.93305078134811</v>
+        <v>10.74550118519348</v>
       </c>
       <c r="J5" s="12" t="n">
-        <v>70.3809393924783</v>
+        <v>54.05668090548453</v>
       </c>
       <c r="K5" t="n">
-        <v>68.68080861901416</v>
+        <v>60.4279152184408</v>
       </c>
       <c r="L5" s="12" t="n">
-        <v>0.4656617058823471</v>
+        <v>0.242985264705883</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5758157389635364</v>
+        <v>-1.138519924098664</v>
       </c>
       <c r="N5" t="n">
-        <v>9.202222222222224</v>
+        <v>9.630290000000002</v>
       </c>
       <c r="O5" t="n">
-        <v>10.68722222222222</v>
+        <v>10.34471</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -2761,44 +2761,44 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
         <v>10</v>
       </c>
-      <c r="G6" t="n">
-        <v>13</v>
-      </c>
       <c r="H6" t="n">
-        <v>2960269</v>
+        <v>1611190</v>
       </c>
       <c r="I6" t="n">
-        <v>39.93822897783049</v>
+        <v>26.79048863872066</v>
       </c>
       <c r="J6" s="12" t="n">
-        <v>65.69024963566564</v>
+        <v>52.11270152501317</v>
       </c>
       <c r="K6" t="n">
-        <v>66.68613959611665</v>
+        <v>52.32739048430202</v>
       </c>
       <c r="L6" s="12" t="n">
-        <v>0.2531911764705939</v>
+        <v>-0.01721176470587515</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.1931745009658608</v>
+        <v>-0.04393673110720079</v>
       </c>
       <c r="N6" t="n">
-        <v>3.764444444444444</v>
+        <v>4.169346</v>
       </c>
       <c r="O6" t="n">
-        <v>5.220111111111111</v>
+        <v>4.869653999999999</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -2831,40 +2831,40 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.672</v>
+        <v>1.68</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
         <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>11081863</v>
+        <v>3357693</v>
       </c>
       <c r="I7" t="n">
-        <v>23.9949211719757</v>
+        <v>10.76521266632601</v>
       </c>
       <c r="J7" s="12" t="n">
-        <v>44.45689952403556</v>
+        <v>48.8550184723202</v>
       </c>
       <c r="K7" t="n">
-        <v>48.97935956311579</v>
+        <v>51.62998862117757</v>
       </c>
       <c r="L7" s="12" t="n">
-        <v>-0.01229411764705413</v>
+        <v>-0.00875882352940649</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.065088757396451</v>
+        <v>-0.4739336492891</v>
       </c>
       <c r="N7" t="n">
-        <v>1.577777777777777</v>
+        <v>1.622754</v>
       </c>
       <c r="O7" t="n">
-        <v>1.772111111111111</v>
+        <v>1.716245999999999</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2897,40 +2897,40 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.326</v>
+        <v>2.324</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>11114474</v>
+        <v>3726849</v>
       </c>
       <c r="I8" t="n">
-        <v>26.7626936816432</v>
+        <v>18.38360762726525</v>
       </c>
       <c r="J8" s="12" t="n">
-        <v>47.12742777604831</v>
+        <v>45.77281555442152</v>
       </c>
       <c r="K8" t="n">
-        <v>48.12506726559043</v>
+        <v>48.01055386624568</v>
       </c>
       <c r="L8" s="12" t="n">
-        <v>-0.02962352941176327</v>
+        <v>0.002041176470589434</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.1716738197424894</v>
+        <v>-0.2575107296137437</v>
       </c>
       <c r="N8" t="n">
-        <v>2.2575</v>
+        <v>2.294602</v>
       </c>
       <c r="O8" t="n">
-        <v>2.4005</v>
+        <v>2.363398</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2963,40 +2963,40 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.768</v>
+        <v>0.761</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>8534980</v>
+        <v>2885258</v>
       </c>
       <c r="I9" t="n">
-        <v>21.75722293600613</v>
+        <v>16.91600474894068</v>
       </c>
       <c r="J9" s="12" t="n">
-        <v>39.14747182765163</v>
+        <v>38.40003181714381</v>
       </c>
       <c r="K9" t="n">
-        <v>42.57517138184155</v>
+        <v>39.9081744639196</v>
       </c>
       <c r="L9" s="12" t="n">
-        <v>-0.01727058823529259</v>
+        <v>-0.01568823529411612</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.5181347150259072</v>
+        <v>-0.3926701570680631</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7283333333333334</v>
+        <v>0.751995</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8291666666666665</v>
+        <v>0.8005049999999998</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3025,44 +3025,44 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.793</v>
+        <v>3.74</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>4861608</v>
+        <v>1543892</v>
       </c>
       <c r="I10" t="n">
-        <v>35.43671114708825</v>
+        <v>21.82202677019785</v>
       </c>
       <c r="J10" s="12" t="n">
-        <v>59.61048189599143</v>
+        <v>47.78253879883918</v>
       </c>
       <c r="K10" t="n">
-        <v>61.62222086204157</v>
+        <v>50.47908933142833</v>
       </c>
       <c r="L10" s="12" t="n">
-        <v>0.1109676470588217</v>
+        <v>0.03096176470587997</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.3415659485023621</v>
+        <v>-0.478978179882911</v>
       </c>
       <c r="N10" t="n">
-        <v>3.426611111111111</v>
+        <v>3.567346</v>
       </c>
       <c r="O10" t="n">
-        <v>3.965611111111111</v>
+        <v>3.826654</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -3091,44 +3091,44 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.1</v>
+        <v>4.192</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>3582759</v>
+        <v>1977916</v>
       </c>
       <c r="I11" t="n">
-        <v>22.78266667800646</v>
+        <v>19.45416317971548</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>47.01400213409872</v>
+        <v>57.8297062778899</v>
       </c>
       <c r="K11" t="n">
-        <v>49.1206723765392</v>
+        <v>57.8297062778899</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>0.1260705882352982</v>
+        <v>0.02095882352941825</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.4854368932038947</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.733388888888889</v>
+        <v>3.977949000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>4.578555555555556</v>
+        <v>4.384551</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -3157,44 +3157,44 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15.65</v>
+        <v>15.38</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>626768</v>
+        <v>242973</v>
       </c>
       <c r="I12" t="n">
-        <v>26.13802007971638</v>
+        <v>26.6281918684388</v>
       </c>
       <c r="J12" s="12" t="n">
-        <v>60.70073939122688</v>
+        <v>48.63650900878874</v>
       </c>
       <c r="K12" t="n">
-        <v>68.98558627464296</v>
+        <v>49.0087483768796</v>
       </c>
       <c r="L12" s="12" t="n">
-        <v>0.5112647058823683</v>
+        <v>-0.1143823529411634</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.9493670886075972</v>
+        <v>-0.06497725795971271</v>
       </c>
       <c r="N12" t="n">
-        <v>14.37111111111111</v>
+        <v>14.94299</v>
       </c>
       <c r="O12" t="n">
-        <v>16.40611111111111</v>
+        <v>15.92201</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -3227,40 +3227,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10.52</v>
+        <v>10.54</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
         <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>855176</v>
+        <v>1331063</v>
       </c>
       <c r="I13" t="n">
-        <v>22.76808106934289</v>
+        <v>17.08228660676233</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>59.01501262717559</v>
+        <v>55.02252442678343</v>
       </c>
       <c r="K13" t="n">
-        <v>67.52098281489583</v>
+        <v>59.97394343675469</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>0.3692941176470335</v>
+        <v>0.2595588235293853</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.682242990654203</v>
+        <v>-0.9398496240601637</v>
       </c>
       <c r="N13" t="n">
-        <v>8.714444444444444</v>
+        <v>9.368609999999997</v>
       </c>
       <c r="O13" t="n">
-        <v>11.07944444444444</v>
+        <v>10.50639</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3293,40 +3293,40 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14.9</v>
+        <v>14.85</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>426055</v>
+        <v>283818</v>
       </c>
       <c r="I14" t="n">
-        <v>11.74332465978865</v>
+        <v>12.57541680338795</v>
       </c>
       <c r="J14" s="12" t="n">
-        <v>52.86679531756832</v>
+        <v>50.68295650224033</v>
       </c>
       <c r="K14" t="n">
-        <v>52.86679531756833</v>
+        <v>48.20941847359177</v>
       </c>
       <c r="L14" s="12" t="n">
-        <v>0.2325000000000053</v>
+        <v>-0.03382352941175704</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.4736129905277421</v>
       </c>
       <c r="N14" t="n">
-        <v>13.54277777777778</v>
+        <v>14.13653</v>
       </c>
       <c r="O14" t="n">
-        <v>15.68777777777778</v>
+        <v>15.16847</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="15">
       <c r="A15" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3359,40 +3359,40 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11.35</v>
+        <v>11.84</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>2062876</v>
+        <v>335514</v>
       </c>
       <c r="I15" t="n">
-        <v>20.11940706892861</v>
+        <v>23.02269442479412</v>
       </c>
       <c r="J15" s="12" t="n">
-        <v>54.63844274927386</v>
+        <v>61.91496220857517</v>
       </c>
       <c r="K15" t="n">
-        <v>49.57365296045343</v>
+        <v>64.58125577120899</v>
       </c>
       <c r="L15" s="12" t="n">
-        <v>0.174911764705902</v>
+        <v>0.3731764705882554</v>
       </c>
       <c r="M15" t="n">
-        <v>1.793721973094164</v>
+        <v>-0.4205214465937823</v>
       </c>
       <c r="N15" t="n">
-        <v>9.770555555555555</v>
+        <v>10.61339</v>
       </c>
       <c r="O15" t="n">
-        <v>12.90555555555555</v>
+        <v>12.12161</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="16">
       <c r="A16" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3425,40 +3425,40 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.771</v>
+        <v>2.767</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>2713538</v>
+        <v>1610574</v>
       </c>
       <c r="I16" t="n">
-        <v>28.34826254261855</v>
+        <v>15.63640066235076</v>
       </c>
       <c r="J16" s="12" t="n">
-        <v>45.38904086806171</v>
+        <v>45.25195192537049</v>
       </c>
       <c r="K16" t="n">
-        <v>48.65167889277375</v>
+        <v>50.39195388204865</v>
       </c>
       <c r="L16" s="12" t="n">
-        <v>-0.07621764705881118</v>
+        <v>-0.0006029411764583159</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.6453926138400946</v>
+        <v>-0.7888131946934471</v>
       </c>
       <c r="N16" t="n">
-        <v>2.593722222222222</v>
+        <v>2.681536</v>
       </c>
       <c r="O16" t="n">
-        <v>2.967722222222223</v>
+        <v>2.861464</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3487,44 +3487,44 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.876</v>
+        <v>3.778</v>
       </c>
       <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H17" t="n">
+        <v>17</v>
+      </c>
+      <c r="I17" t="n">
+        <v>28.33712097354895</v>
+      </c>
+      <c r="J17" s="12" t="n">
+        <v>52.0107632187151</v>
+      </c>
+      <c r="K17" t="n">
+        <v>52.0107632187151</v>
+      </c>
+      <c r="L17" s="12" t="n">
+        <v>0.01102058823529628</v>
+      </c>
+      <c r="M17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H17" t="n">
-        <v>80605</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16.50120838068134</v>
-      </c>
-      <c r="J17" s="12" t="n">
-        <v>60.04336335090184</v>
-      </c>
-      <c r="K17" t="n">
-        <v>54.09723563578427</v>
-      </c>
-      <c r="L17" s="12" t="n">
-        <v>0.02443235294117763</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2.296120348376874</v>
-      </c>
       <c r="N17" t="n">
-        <v>3.569222222222222</v>
+        <v>3.659126</v>
       </c>
       <c r="O17" t="n">
-        <v>3.961555555555556</v>
+        <v>3.847874</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="18">
       <c r="A18" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3553,44 +3553,44 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.348</v>
+        <v>1.304</v>
       </c>
       <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="n">
         <v>10</v>
       </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>17293904</v>
+        <v>9653991</v>
       </c>
       <c r="I18" t="n">
-        <v>17.49141268015491</v>
+        <v>19.28376139679311</v>
       </c>
       <c r="J18" s="12" t="n">
-        <v>48.15568036374883</v>
+        <v>31.98629372502589</v>
       </c>
       <c r="K18" t="n">
-        <v>48.94757000418703</v>
+        <v>34.39369428014115</v>
       </c>
       <c r="L18" s="12" t="n">
-        <v>-0.01887941176470664</v>
+        <v>-0.02050882352941219</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.1481481481481483</v>
+        <v>-0.4580152671755729</v>
       </c>
       <c r="N18" t="n">
-        <v>1.270055555555556</v>
+        <v>1.308383</v>
       </c>
       <c r="O18" t="n">
-        <v>1.429555555555556</v>
+        <v>1.385117</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3619,44 +3619,44 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.747</v>
+        <v>1.7</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>1549622</v>
+        <v>2305926</v>
       </c>
       <c r="I19" t="n">
-        <v>31.02820650630284</v>
+        <v>22.81060655505237</v>
       </c>
       <c r="J19" s="12" t="n">
-        <v>65.72717959581647</v>
+        <v>44.40157890623276</v>
       </c>
       <c r="K19" t="n">
-        <v>62.79865582823971</v>
+        <v>44.40157890623276</v>
       </c>
       <c r="L19" s="12" t="n">
-        <v>0.03876470588235748</v>
+        <v>-0.001067647058819565</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6916426512968306</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.640055555555556</v>
+        <v>1.670658</v>
       </c>
       <c r="O19" t="n">
-        <v>1.753722222222223</v>
+        <v>1.725342</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -3685,44 +3685,44 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2.1</v>
+        <v>2.101</v>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>73161</v>
+        <v>235072</v>
       </c>
       <c r="I20" t="n">
-        <v>15.0985229672711</v>
+        <v>13.46331298017262</v>
       </c>
       <c r="J20" s="12" t="n">
-        <v>47.85093959485081</v>
+        <v>47.50817321232048</v>
       </c>
       <c r="K20" t="n">
-        <v>55.36045070691043</v>
+        <v>51.13868019037502</v>
       </c>
       <c r="L20" s="12" t="n">
-        <v>0.02498235294117457</v>
+        <v>-0.004526470588236187</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.869158878504674</v>
+        <v>-0.708884688090743</v>
       </c>
       <c r="N20" t="n">
-        <v>1.949055555555556</v>
+        <v>2.021923</v>
       </c>
       <c r="O20" t="n">
-        <v>2.218555555555555</v>
+        <v>2.151577</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3751,44 +3751,44 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.943</v>
+        <v>1.894</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
         <v>9</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>3424652</v>
+        <v>3551133</v>
       </c>
       <c r="I21" t="n">
-        <v>18.23226395873201</v>
+        <v>9.520926766537126</v>
       </c>
       <c r="J21" s="12" t="n">
-        <v>48.78323831496574</v>
+        <v>38.30205935113967</v>
       </c>
       <c r="K21" t="n">
-        <v>44.40186027034198</v>
+        <v>41.9264949705769</v>
       </c>
       <c r="L21" s="12" t="n">
-        <v>-0.001129411764707156</v>
+        <v>-0.02345294117647301</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8303061754021802</v>
+        <v>-0.6816990036706934</v>
       </c>
       <c r="N21" t="n">
-        <v>1.874888888888889</v>
+        <v>1.915956</v>
       </c>
       <c r="O21" t="n">
-        <v>2.028888888888889</v>
+        <v>1.990044</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3821,40 +3821,40 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3.311</v>
+        <v>3.442</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" t="n">
-        <v>7796773</v>
+        <v>4208992</v>
       </c>
       <c r="I22" t="n">
-        <v>34.1285735139727</v>
+        <v>31.89438423301488</v>
       </c>
       <c r="J22" s="12" t="n">
-        <v>59.59403036712219</v>
+        <v>69.30319605564426</v>
       </c>
       <c r="K22" t="n">
-        <v>57.57862794880207</v>
+        <v>65.07303045942902</v>
       </c>
       <c r="L22" s="12" t="n">
-        <v>0.1210235294117665</v>
+        <v>0.09450294117647307</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6077180188392591</v>
+        <v>0.9680258140217178</v>
       </c>
       <c r="N22" t="n">
-        <v>2.928944444444444</v>
+        <v>3.088852</v>
       </c>
       <c r="O22" t="n">
-        <v>3.530277777777778</v>
+        <v>3.378147999999999</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3883,44 +3883,44 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.777</v>
+        <v>0.797</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
+        <v>9</v>
+      </c>
+      <c r="G23" t="n">
         <v>10</v>
       </c>
-      <c r="G23" t="n">
-        <v>11</v>
-      </c>
       <c r="H23" t="n">
-        <v>780603</v>
+        <v>65144</v>
       </c>
       <c r="I23" t="n">
-        <v>21.25455034550178</v>
+        <v>33.54535861883198</v>
       </c>
       <c r="J23" s="12" t="n">
-        <v>65.55429022661195</v>
+        <v>55.07569932389622</v>
       </c>
       <c r="K23" t="n">
-        <v>65.55429022661194</v>
+        <v>58.40741289381683</v>
       </c>
       <c r="L23" s="12" t="n">
-        <v>0.007682352941177029</v>
+        <v>0.01719117647058865</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-0.4993757802746571</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7404444444444445</v>
+        <v>0.7507980000000001</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7807777777777778</v>
+        <v>0.7702020000000001</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -3949,44 +3949,44 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.43</v>
+        <v>1.495</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H24" t="n">
-        <v>10053592</v>
+        <v>2905936</v>
       </c>
       <c r="I24" t="n">
-        <v>25.04474601852598</v>
+        <v>26.30658646148051</v>
       </c>
       <c r="J24" s="12" t="n">
-        <v>51.97765989071952</v>
+        <v>61.61245115429726</v>
       </c>
       <c r="K24" t="n">
-        <v>58.35901950030753</v>
+        <v>60.70630041183875</v>
       </c>
       <c r="L24" s="12" t="n">
-        <v>0.02940294117646558</v>
+        <v>0.03151764705881899</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.9009009009009094</v>
+        <v>0.268276324614353</v>
       </c>
       <c r="N24" t="n">
-        <v>1.335</v>
+        <v>1.388827</v>
       </c>
       <c r="O24" t="n">
-        <v>1.523833333333333</v>
+        <v>1.479673</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="25">
       <c r="A25" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4015,44 +4015,44 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.131</v>
+        <v>1.113</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>4715482</v>
+        <v>10766105</v>
       </c>
       <c r="I25" t="n">
-        <v>19.72327918763588</v>
+        <v>17.27940943218056</v>
       </c>
       <c r="J25" s="12" t="n">
-        <v>46.60870988912954</v>
+        <v>42.38739558099892</v>
       </c>
       <c r="K25" t="n">
-        <v>48.90242334087384</v>
+        <v>40.80063487662259</v>
       </c>
       <c r="L25" s="12" t="n">
-        <v>-0.03169999999999829</v>
+        <v>-0.01614411764705692</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.5277044854881272</v>
+        <v>0.2702702702702605</v>
       </c>
       <c r="N25" t="n">
-        <v>1.055388888888889</v>
+        <v>1.091765</v>
       </c>
       <c r="O25" t="n">
-        <v>1.211222222222222</v>
+        <v>1.166735</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="26">
       <c r="A26" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -4085,40 +4085,40 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13.37</v>
+        <v>13.69</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" t="n">
-        <v>6850</v>
+        <v>82560</v>
       </c>
       <c r="I26" t="n">
-        <v>45.14403417748694</v>
+        <v>44.02911528023386</v>
       </c>
       <c r="J26" s="12" t="n">
-        <v>63.73024945958366</v>
+        <v>54.22130162889065</v>
       </c>
       <c r="K26" t="n">
-        <v>62.53068333633011</v>
+        <v>55.38592031104051</v>
       </c>
       <c r="L26" s="12" t="n">
-        <v>0.5854411764705585</v>
+        <v>0.365294117647025</v>
       </c>
       <c r="M26" t="n">
-        <v>0.450788880540937</v>
+        <v>-0.3639010189228581</v>
       </c>
       <c r="N26" t="n">
-        <v>11.70666666666667</v>
+        <v>12.21844</v>
       </c>
       <c r="O26" t="n">
-        <v>13.83333333333333</v>
+        <v>13.24156</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -4151,40 +4151,40 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>14.85</v>
+        <v>14.8</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>121872</v>
+        <v>116049</v>
       </c>
       <c r="I27" t="n">
-        <v>37.76796891545495</v>
+        <v>28.86303392706252</v>
       </c>
       <c r="J27" s="12" t="n">
-        <v>66.97505470075428</v>
+        <v>59.98808147417348</v>
       </c>
       <c r="K27" t="n">
-        <v>62.97295362520317</v>
+        <v>59.98808147417348</v>
       </c>
       <c r="L27" s="12" t="n">
-        <v>0.5845294117646755</v>
+        <v>0.06111764705880951</v>
       </c>
       <c r="M27" t="n">
-        <v>1.365187713310575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>12.23222222222222</v>
+        <v>13.24036</v>
       </c>
       <c r="O27" t="n">
-        <v>15.97222222222222</v>
+        <v>15.03964</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="28">
       <c r="A28" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4213,44 +4213,44 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.356</v>
+        <v>1.421</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H28" t="n">
-        <v>18357367</v>
+        <v>15980186</v>
       </c>
       <c r="I28" t="n">
-        <v>17.56823737807317</v>
+        <v>40.65263811918449</v>
       </c>
       <c r="J28" s="12" t="n">
-        <v>67.12260672332081</v>
+        <v>67.38084822787675</v>
       </c>
       <c r="K28" t="n">
-        <v>62.062345375695</v>
+        <v>78.87705392425241</v>
       </c>
       <c r="L28" s="12" t="n">
-        <v>0.02176470588235269</v>
+        <v>0.07476176470588203</v>
       </c>
       <c r="M28" t="n">
-        <v>1.19402985074627</v>
+        <v>-1.796821008984107</v>
       </c>
       <c r="N28" t="n">
-        <v>1.266944444444444</v>
+        <v>1.286787</v>
       </c>
       <c r="O28" t="n">
-        <v>1.345777777777778</v>
+        <v>1.324713</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="29">
       <c r="A29" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4283,40 +4283,40 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.529</v>
+        <v>3.56</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
         <v>14</v>
       </c>
       <c r="H29" t="n">
-        <v>136077</v>
+        <v>199933</v>
       </c>
       <c r="I29" t="n">
-        <v>21.42992338495469</v>
+        <v>25.37073674180707</v>
       </c>
       <c r="J29" s="12" t="n">
-        <v>49.34574439312223</v>
+        <v>54.13813146358247</v>
       </c>
       <c r="K29" t="n">
-        <v>48.13284992705988</v>
+        <v>54.13813146358247</v>
       </c>
       <c r="L29" s="12" t="n">
-        <v>-0.04740882352941123</v>
+        <v>0.02744117647058752</v>
       </c>
       <c r="M29" t="n">
-        <v>0.198750709823967</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.411111111111112</v>
+        <v>3.472187000000001</v>
       </c>
       <c r="O29" t="n">
-        <v>3.673277777777778</v>
+        <v>3.598313</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="30">
       <c r="A30" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4349,40 +4349,40 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3.782</v>
+        <v>3.7</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H30" t="n">
-        <v>661417</v>
+        <v>632045</v>
       </c>
       <c r="I30" t="n">
-        <v>51.97629202811493</v>
+        <v>38.78473682028397</v>
       </c>
       <c r="J30" s="12" t="n">
-        <v>67.33803682273692</v>
+        <v>55.02248239697801</v>
       </c>
       <c r="K30" t="n">
-        <v>67.33803682273691</v>
+        <v>47.58737568598971</v>
       </c>
       <c r="L30" s="12" t="n">
-        <v>0.1545558823529434</v>
+        <v>-0.01457647058823275</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.342098055327318</v>
       </c>
       <c r="N30" t="n">
-        <v>3.332666666666666</v>
+        <v>3.49015</v>
       </c>
       <c r="O30" t="n">
-        <v>3.974333333333333</v>
+        <v>3.79885</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4411,44 +4411,44 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3.375</v>
+        <v>3.293</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>470492</v>
+        <v>884743</v>
       </c>
       <c r="I31" t="n">
-        <v>22.94784475503361</v>
+        <v>26.04044913969136</v>
       </c>
       <c r="J31" s="12" t="n">
-        <v>59.61898248009737</v>
+        <v>40.90489353302408</v>
       </c>
       <c r="K31" t="n">
-        <v>60.91230229833091</v>
+        <v>37.20613880189059</v>
       </c>
       <c r="L31" s="12" t="n">
-        <v>0.008723529411764019</v>
+        <v>-0.04378529411764731</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.1479289940828371</v>
+        <v>0.3351614868982364</v>
       </c>
       <c r="N31" t="n">
-        <v>3.192388888888888</v>
+        <v>3.263468</v>
       </c>
       <c r="O31" t="n">
-        <v>3.471055555555555</v>
+        <v>3.397532</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="32">
       <c r="A32" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4477,44 +4477,44 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.591</v>
+        <v>1.568</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>1848799</v>
+        <v>522811</v>
       </c>
       <c r="I32" t="n">
-        <v>23.8574480379032</v>
+        <v>21.583231533835</v>
       </c>
       <c r="J32" s="12" t="n">
-        <v>60.53229167824227</v>
+        <v>47.68448871474931</v>
       </c>
       <c r="K32" t="n">
-        <v>59.99652782144849</v>
+        <v>44.78437974973053</v>
       </c>
       <c r="L32" s="12" t="n">
-        <v>0.02162352941176193</v>
+        <v>-0.002517647058825734</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1258653241032097</v>
+        <v>0.4484304932735501</v>
       </c>
       <c r="N32" t="n">
-        <v>1.470611111111111</v>
+        <v>1.510456</v>
       </c>
       <c r="O32" t="n">
-        <v>1.624611111111111</v>
+        <v>1.584544</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="33">
       <c r="A33" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4547,40 +4547,40 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3.907</v>
+        <v>3.851</v>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>237973</v>
+        <v>418618</v>
       </c>
       <c r="I33" t="n">
-        <v>11.63727735200793</v>
+        <v>10.77676250278328</v>
       </c>
       <c r="J33" s="12" t="n">
-        <v>48.4869659508667</v>
+        <v>42.4981102215815</v>
       </c>
       <c r="K33" t="n">
-        <v>54.24343616978519</v>
+        <v>39.60126336289514</v>
       </c>
       <c r="L33" s="12" t="n">
-        <v>-0.03239117647058531</v>
+        <v>-0.03185882352940794</v>
       </c>
       <c r="M33" t="n">
-        <v>-1.338383838383837</v>
+        <v>0.4434011476264972</v>
       </c>
       <c r="N33" t="n">
-        <v>3.629777777777778</v>
+        <v>3.758082</v>
       </c>
       <c r="O33" t="n">
-        <v>4.176111111111111</v>
+        <v>4.020918</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="34">
       <c r="A34" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4609,44 +4609,44 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>1.296</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H34" t="n">
-        <v>9177571</v>
+        <v>4137999</v>
       </c>
       <c r="I34" t="n">
-        <v>13.9249291408842</v>
+        <v>20.4243968684899</v>
       </c>
       <c r="J34" s="12" t="n">
-        <v>49.63983882364906</v>
+        <v>53.30561078257784</v>
       </c>
       <c r="K34" t="n">
-        <v>44.71170919454443</v>
+        <v>47.22220093613584</v>
       </c>
       <c r="L34" s="12" t="n">
-        <v>-0.0187941176470523</v>
+        <v>-0.00539705882352326</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6993006993007086</v>
+        <v>0.8560311284046787</v>
       </c>
       <c r="N34" t="n">
-        <v>1.204944444444444</v>
+        <v>1.248091</v>
       </c>
       <c r="O34" t="n">
-        <v>1.386444444444444</v>
+        <v>1.335409</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="35">
       <c r="A35" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4675,44 +4675,44 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.415</v>
+        <v>2.431</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H35" t="n">
-        <v>146667</v>
+        <v>98514</v>
       </c>
       <c r="I35" t="n">
-        <v>21.54891097211091</v>
+        <v>16.67083467178932</v>
       </c>
       <c r="J35" s="12" t="n">
-        <v>46.11702816579999</v>
+        <v>50.55132057576629</v>
       </c>
       <c r="K35" t="n">
-        <v>45.51195620506614</v>
+        <v>60.95468095955296</v>
       </c>
       <c r="L35" s="12" t="n">
-        <v>-0.009229411764705819</v>
+        <v>-0.0119764705882357</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1659062629614269</v>
+        <v>-1.817447495961225</v>
       </c>
       <c r="N35" t="n">
-        <v>2.258055555555556</v>
+        <v>2.367025</v>
       </c>
       <c r="O35" t="n">
-        <v>2.670555555555556</v>
+        <v>2.565475</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="36">
       <c r="A36" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4741,44 +4741,44 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>STRONG_SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>8.012</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H36" t="n">
-        <v>74894</v>
+        <v>159967</v>
       </c>
       <c r="I36" t="n">
-        <v>23.95790840881708</v>
+        <v>23.69458042820767</v>
       </c>
       <c r="J36" s="12" t="n">
-        <v>44.0730970452363</v>
+        <v>60.18535548136391</v>
       </c>
       <c r="K36" t="n">
-        <v>47.5843495853864</v>
+        <v>56.65450571586744</v>
       </c>
       <c r="L36" s="12" t="n">
-        <v>-0.108479455882355</v>
+        <v>-0.01609994411764681</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.7801857585139176</v>
+        <v>0.6629020378099495</v>
       </c>
       <c r="N36" t="n">
-        <v>7.692833333333332</v>
+        <v>7.903454999999998</v>
       </c>
       <c r="O36" t="n">
-        <v>8.600333333333332</v>
+        <v>8.340044999999998</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="37">
       <c r="A37" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4807,44 +4807,44 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.52</v>
+        <v>2.655</v>
       </c>
       <c r="E37" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H37" t="n">
-        <v>222908</v>
+        <v>147175</v>
       </c>
       <c r="I37" t="n">
-        <v>18.66699568585874</v>
+        <v>34.31759579256358</v>
       </c>
       <c r="J37" s="12" t="n">
-        <v>49.93652548075251</v>
+        <v>69.37839854944232</v>
       </c>
       <c r="K37" t="n">
-        <v>49.93652548075251</v>
+        <v>63.71088707990603</v>
       </c>
       <c r="L37" s="12" t="n">
-        <v>0.001058823529402897</v>
+        <v>0.07512647058822619</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.72413793103448</v>
       </c>
       <c r="N37" t="n">
-        <v>2.389833333333333</v>
+        <v>2.45276</v>
       </c>
       <c r="O37" t="n">
-        <v>2.6465</v>
+        <v>2.57624</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="38">
       <c r="A38" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4873,44 +4873,44 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4.343</v>
+        <v>4.149</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F38" t="n">
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1222651</v>
+        <v>577370</v>
       </c>
       <c r="I38" t="n">
-        <v>12.93648388644739</v>
+        <v>13.20075796204659</v>
       </c>
       <c r="J38" s="12" t="n">
-        <v>57.89489813529582</v>
+        <v>42.64506159939587</v>
       </c>
       <c r="K38" t="n">
-        <v>55.4759348782183</v>
+        <v>44.33795126741908</v>
       </c>
       <c r="L38" s="12" t="n">
-        <v>0.03154117647058285</v>
+        <v>-0.1107676470588288</v>
       </c>
       <c r="M38" t="n">
-        <v>0.5556841861542029</v>
+        <v>-0.6227544910179593</v>
       </c>
       <c r="N38" t="n">
-        <v>3.889277777777778</v>
+        <v>4.084408999999999</v>
       </c>
       <c r="O38" t="n">
-        <v>4.624444444444443</v>
+        <v>4.438090999999999</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="39">
       <c r="A39" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.907</v>
+        <v>0.915</v>
       </c>
       <c r="E39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>58626</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.18703352432577</v>
+        <v>17.08094655644114</v>
       </c>
       <c r="J39" s="12" t="n">
-        <v>41.73805340535198</v>
+        <v>45.23195160314012</v>
       </c>
       <c r="K39" t="n">
-        <v>43.71402458039621</v>
+        <v>45.23195160314012</v>
       </c>
       <c r="L39" s="12" t="n">
-        <v>-0.03854117647058841</v>
+        <v>-0.01495588235294132</v>
       </c>
       <c r="M39" t="n">
-        <v>-1.30576713819369</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.8177222222222224</v>
+        <v>0.8840860000000001</v>
       </c>
       <c r="O39" t="n">
-        <v>1.100055555555556</v>
+        <v>1.019914</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="40">
       <c r="A40" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -5009,40 +5009,40 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3.863</v>
+        <v>3.9</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>9</v>
       </c>
       <c r="G40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H40" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I40" t="n">
-        <v>24.44416107216275</v>
+        <v>16.25626691106206</v>
       </c>
       <c r="J40" s="12" t="n">
-        <v>56.9546833335251</v>
+        <v>58.75864813049661</v>
       </c>
       <c r="K40" t="n">
-        <v>61.41423169740545</v>
+        <v>58.75864813049661</v>
       </c>
       <c r="L40" s="12" t="n">
-        <v>0.09281470588235452</v>
+        <v>0.0687735294117644</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.6430041152263353</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>3.654777777777777</v>
+        <v>3.757564</v>
       </c>
       <c r="O40" t="n">
-        <v>4.014111111111111</v>
+        <v>3.930436</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="41">
       <c r="A41" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -5071,44 +5071,44 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.669</v>
+        <v>0.676</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H41" t="n">
-        <v>373463</v>
+        <v>769850</v>
       </c>
       <c r="I41" t="n">
-        <v>13.71423092021016</v>
+        <v>17.79869151615519</v>
       </c>
       <c r="J41" s="12" t="n">
-        <v>49.24704248119033</v>
+        <v>46.77198056247556</v>
       </c>
       <c r="K41" t="n">
-        <v>51.68214458738122</v>
+        <v>54.86010990880375</v>
       </c>
       <c r="L41" s="12" t="n">
-        <v>0.004191176470589086</v>
+        <v>0.007667647058824278</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.4464285714285718</v>
+        <v>-1.457725947521867</v>
       </c>
       <c r="N41" t="n">
-        <v>0.6182777777777778</v>
+        <v>0.6468040000000002</v>
       </c>
       <c r="O41" t="n">
-        <v>0.7209444444444446</v>
+        <v>0.696196</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="42">
       <c r="A42" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -5137,44 +5137,44 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2.005</v>
+        <v>2.07</v>
       </c>
       <c r="E42" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
         <v>9</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H42" t="n">
-        <v>214659</v>
+        <v>513895</v>
       </c>
       <c r="I42" t="n">
-        <v>19.5030056386837</v>
+        <v>35.28139840051249</v>
       </c>
       <c r="J42" s="12" t="n">
-        <v>50.2126952352795</v>
+        <v>59.18962595005573</v>
       </c>
       <c r="K42" t="n">
-        <v>57.41341984324638</v>
+        <v>60.50110608067018</v>
       </c>
       <c r="L42" s="12" t="n">
-        <v>0.04409117647058913</v>
+        <v>0.05913823529411832</v>
       </c>
       <c r="M42" t="n">
-        <v>-1.328740157480322</v>
+        <v>-0.240963855421703</v>
       </c>
       <c r="N42" t="n">
-        <v>1.882722222222222</v>
+        <v>1.943198</v>
       </c>
       <c r="O42" t="n">
-        <v>2.106388888888889</v>
+        <v>2.050802</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="43">
       <c r="A43" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -5207,40 +5207,40 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.621</v>
+        <v>0.61</v>
       </c>
       <c r="E43" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>7151428</v>
+        <v>2630585</v>
       </c>
       <c r="I43" t="n">
-        <v>15.98818655575063</v>
+        <v>10.24173459439903</v>
       </c>
       <c r="J43" s="12" t="n">
-        <v>39.8118834331969</v>
+        <v>36.5802627437771</v>
       </c>
       <c r="K43" t="n">
-        <v>43.83198752170791</v>
+        <v>37.94293277668315</v>
       </c>
       <c r="L43" s="12" t="n">
-        <v>-0.01919705882352984</v>
+        <v>-0.01593529411764749</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.114649681528663</v>
+        <v>-0.3267973856209154</v>
       </c>
       <c r="N43" t="n">
-        <v>0.6026111111111111</v>
+        <v>0.6173150000000001</v>
       </c>
       <c r="O43" t="n">
-        <v>0.6667777777777778</v>
+        <v>0.648185</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="44">
       <c r="A44" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -5269,44 +5269,44 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2.374</v>
+        <v>2.41</v>
       </c>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
+        <v>10</v>
+      </c>
+      <c r="G44" t="n">
         <v>9</v>
       </c>
-      <c r="G44" t="n">
-        <v>2</v>
-      </c>
       <c r="H44" t="n">
-        <v>1698223</v>
+        <v>1123701</v>
       </c>
       <c r="I44" t="n">
-        <v>15.97799657831498</v>
+        <v>17.29726656174855</v>
       </c>
       <c r="J44" s="12" t="n">
-        <v>46.13932301161793</v>
+        <v>53.34307755930456</v>
       </c>
       <c r="K44" t="n">
-        <v>46.29011884337932</v>
+        <v>53.59508234351618</v>
       </c>
       <c r="L44" s="12" t="n">
-        <v>0.00302058823529272</v>
+        <v>0.00721764705882233</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0421052631578901</v>
+        <v>-0.04147656574035213</v>
       </c>
       <c r="N44" t="n">
-        <v>2.211388888888889</v>
+        <v>2.301446</v>
       </c>
       <c r="O44" t="n">
-        <v>2.567055555555556</v>
+        <v>2.472554000000001</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="45">
       <c r="A45" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5342,37 +5342,37 @@
         <v>3.631</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F45" t="n">
         <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H45" t="n">
-        <v>147438</v>
+        <v>152901</v>
       </c>
       <c r="I45" t="n">
-        <v>23.43854041010506</v>
+        <v>25.51481922111536</v>
       </c>
       <c r="J45" s="12" t="n">
-        <v>49.95238058366298</v>
+        <v>50.41261954512371</v>
       </c>
       <c r="K45" t="n">
-        <v>46.58650406953593</v>
+        <v>47.9170670384247</v>
       </c>
       <c r="L45" s="12" t="n">
-        <v>0.02559117647059761</v>
+        <v>-0.009141176470577772</v>
       </c>
       <c r="M45" t="n">
         <v>0.5817174515235433</v>
       </c>
       <c r="N45" t="n">
-        <v>3.415777777777778</v>
+        <v>3.51089</v>
       </c>
       <c r="O45" t="n">
-        <v>3.800777777777778</v>
+        <v>3.69611</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="46">
       <c r="A46" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5401,44 +5401,44 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2.83</v>
+        <v>3.221</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H46" t="n">
-        <v>595870</v>
+        <v>4955999</v>
       </c>
       <c r="I46" t="n">
-        <v>35.64282619903048</v>
+        <v>35.6292639555062</v>
       </c>
       <c r="J46" s="12" t="n">
-        <v>61.30780274773389</v>
+        <v>71.40831733978855</v>
       </c>
       <c r="K46" t="n">
-        <v>61.17958405713845</v>
+        <v>60.20694849739562</v>
       </c>
       <c r="L46" s="12" t="n">
-        <v>0.1661323529411747</v>
+        <v>0.1702499999999989</v>
       </c>
       <c r="M46" t="n">
-        <v>0.07072135785007864</v>
+        <v>6.938911022576363</v>
       </c>
       <c r="N46" t="n">
-        <v>2.269444444444444</v>
+        <v>2.50641</v>
       </c>
       <c r="O46" t="n">
-        <v>3.167777777777778</v>
+        <v>2.93859</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="47">
       <c r="A47" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5471,40 +5471,40 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>9</v>
       </c>
       <c r="G47" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47" t="n">
-        <v>1493188</v>
+        <v>1762085</v>
       </c>
       <c r="I47" t="n">
-        <v>26.82870081654632</v>
+        <v>34.91762881365091</v>
       </c>
       <c r="J47" s="12" t="n">
-        <v>65.6453076699936</v>
+        <v>71.27051940245501</v>
       </c>
       <c r="K47" t="n">
-        <v>67.07213316669515</v>
+        <v>71.27051940245501</v>
       </c>
       <c r="L47" s="12" t="n">
-        <v>0.1621911764705875</v>
+        <v>0.2115941176470573</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.4975124378109396</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1.439722222222222</v>
+        <v>1.520884</v>
       </c>
       <c r="O47" t="n">
-        <v>1.762388888888889</v>
+        <v>1.676116</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="48">
       <c r="A48" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5533,44 +5533,44 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.72</v>
+        <v>0.712</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F48" t="n">
         <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>2972079</v>
+        <v>5425107</v>
       </c>
       <c r="I48" t="n">
-        <v>30.37010812577818</v>
+        <v>30.43745661379287</v>
       </c>
       <c r="J48" s="12" t="n">
-        <v>55.83402140150636</v>
+        <v>46.74863412264865</v>
       </c>
       <c r="K48" t="n">
-        <v>53.06152606412759</v>
+        <v>54.81080703674073</v>
       </c>
       <c r="L48" s="12" t="n">
-        <v>-0.001314705882355938</v>
+        <v>0.003691176470585145</v>
       </c>
       <c r="M48" t="n">
-        <v>0.5586592178770955</v>
+        <v>-1.793103448275864</v>
       </c>
       <c r="N48" t="n">
-        <v>0.6771111111111111</v>
+        <v>0.6943600000000001</v>
       </c>
       <c r="O48" t="n">
-        <v>0.7504444444444446</v>
+        <v>0.7296400000000001</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -5599,44 +5599,44 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.76</v>
+        <v>0.756</v>
       </c>
       <c r="E49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>725634</v>
+        <v>1100614</v>
       </c>
       <c r="I49" t="n">
-        <v>34.31127510764141</v>
+        <v>30.7251326256537</v>
       </c>
       <c r="J49" s="12" t="n">
-        <v>31.85312167228773</v>
+        <v>36.78161870990809</v>
       </c>
       <c r="K49" t="n">
-        <v>35.15049700217723</v>
+        <v>36.78161870990809</v>
       </c>
       <c r="L49" s="12" t="n">
-        <v>-0.02410294117647105</v>
+        <v>-0.009273529411765513</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.9126466753585406</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.7326666666666667</v>
+        <v>0.76054</v>
       </c>
       <c r="O49" t="n">
-        <v>0.8426666666666666</v>
+        <v>0.8134599999999998</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="50">
       <c r="A50" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5669,40 +5669,40 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4.269</v>
+        <v>4.241</v>
       </c>
       <c r="E50" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>365336</v>
+        <v>635481</v>
       </c>
       <c r="I50" t="n">
-        <v>31.92451409962023</v>
+        <v>20.24380806265436</v>
       </c>
       <c r="J50" s="12" t="n">
-        <v>41.3294858471676</v>
+        <v>40.65122173843154</v>
       </c>
       <c r="K50" t="n">
-        <v>41.88151836996662</v>
+        <v>48.04287064774922</v>
       </c>
       <c r="L50" s="12" t="n">
-        <v>0.04599705882352279</v>
+        <v>-0.04308235294118301</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.2570093457943953</v>
+        <v>-2.055427251732111</v>
       </c>
       <c r="N50" t="n">
-        <v>4.173444444444445</v>
+        <v>4.338026</v>
       </c>
       <c r="O50" t="n">
-        <v>4.749111111111112</v>
+        <v>4.614974</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="51">
       <c r="A51" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5731,44 +5731,44 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.234</v>
+        <v>1.208</v>
       </c>
       <c r="E51" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F51" t="n">
         <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>27241</v>
+        <v>191566</v>
       </c>
       <c r="I51" t="n">
-        <v>15.68494513689769</v>
+        <v>10.25239708317639</v>
       </c>
       <c r="J51" s="12" t="n">
-        <v>46.41753287256827</v>
+        <v>43.04352039111848</v>
       </c>
       <c r="K51" t="n">
-        <v>48.04960387265348</v>
+        <v>45.03167114681845</v>
       </c>
       <c r="L51" s="12" t="n">
-        <v>0.004176470588236114</v>
+        <v>-0.02537352941176452</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.4838709677419359</v>
+        <v>-0.5761316872428079</v>
       </c>
       <c r="N51" t="n">
-        <v>1.158055555555556</v>
+        <v>1.206091</v>
       </c>
       <c r="O51" t="n">
-        <v>1.339555555555555</v>
+        <v>1.293409</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="52">
       <c r="A52" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5797,44 +5797,44 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.87</v>
+        <v>1.843</v>
       </c>
       <c r="E52" t="n">
+        <v>9</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10</v>
+      </c>
+      <c r="G52" t="n">
         <v>7</v>
       </c>
-      <c r="F52" t="n">
-        <v>8</v>
-      </c>
-      <c r="G52" t="n">
-        <v>11</v>
-      </c>
       <c r="H52" t="n">
-        <v>2739353</v>
+        <v>7185886</v>
       </c>
       <c r="I52" t="n">
-        <v>21.21944153913594</v>
+        <v>14.99288832561421</v>
       </c>
       <c r="J52" s="12" t="n">
-        <v>53.93974076270525</v>
+        <v>45.84588424699003</v>
       </c>
       <c r="K52" t="n">
-        <v>57.98333624623904</v>
+        <v>44.77227115774404</v>
       </c>
       <c r="L52" s="12" t="n">
-        <v>0.01514117647058488</v>
+        <v>-0.02097647058823937</v>
       </c>
       <c r="M52" t="n">
-        <v>-1.005823186871355</v>
+        <v>0.217509516041327</v>
       </c>
       <c r="N52" t="n">
-        <v>1.624055555555556</v>
+        <v>1.756458</v>
       </c>
       <c r="O52" t="n">
-        <v>2.104388888888889</v>
+        <v>1.987542</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5870,37 +5870,37 @@
         <v>2.702</v>
       </c>
       <c r="E53" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>28.14385511052187</v>
+        <v>23.23904726131321</v>
       </c>
       <c r="J53" s="12" t="n">
-        <v>41.18401049119782</v>
+        <v>41.18401049119783</v>
       </c>
       <c r="K53" t="n">
-        <v>41.18401049119782</v>
+        <v>41.18401049119783</v>
       </c>
       <c r="L53" s="12" t="n">
-        <v>-0.1047352941176465</v>
+        <v>-0.02232352941176563</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>2.383</v>
+        <v>2.621612</v>
       </c>
       <c r="O53" t="n">
-        <v>3.241</v>
+        <v>3.034388000000001</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -5929,44 +5929,44 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.665</v>
       </c>
       <c r="E54" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F54" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1315</v>
+        <v>142421</v>
       </c>
       <c r="I54" t="n">
-        <v>13.50247916065292</v>
+        <v>18.45816116228088</v>
       </c>
       <c r="J54" s="12" t="n">
-        <v>43.27927288048357</v>
+        <v>36.89471407061831</v>
       </c>
       <c r="K54" t="n">
-        <v>43.27927288048357</v>
+        <v>40.65581655314008</v>
       </c>
       <c r="L54" s="12" t="n">
-        <v>-0.002688235294118213</v>
+        <v>-0.0149411764705889</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>-0.7462686567164185</v>
       </c>
       <c r="N54" t="n">
-        <v>0.6726666666666667</v>
+        <v>0.6818709999999999</v>
       </c>
       <c r="O54" t="n">
-        <v>0.7074999999999999</v>
+        <v>0.6986289999999999</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6111,11 +6111,11 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IQCD</t>
+          <t>QNBK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6124,130 +6124,130 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.23</v>
+        <v>15.33</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>2523778</v>
+        <v>3135424</v>
       </c>
       <c r="I2" t="n">
-        <v>46.9217725281064</v>
+        <v>29.92898895820383</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>86.79727384308251</v>
+        <v>70.37615268505439</v>
       </c>
       <c r="K2" t="n">
-        <v>86.32503939510077</v>
+        <v>71.67002415289924</v>
       </c>
       <c r="L2" s="12" t="n">
-        <v>0.8717941176470614</v>
+        <v>0.5322647058824153</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2272727272727359</v>
+        <v>-0.1302931596091177</v>
       </c>
       <c r="N2" t="n">
-        <v>11.12</v>
+        <v>13.80625</v>
       </c>
       <c r="O2" t="n">
-        <v>13.76</v>
+        <v>14.90875</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIQCD</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNBK</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-IQCD/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QNBK/financials-overview/</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-IQCD/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QNBK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>QIBK</t>
+          <t>IQCD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19.75</v>
+        <v>13.03</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>2580074</v>
+        <v>664049</v>
       </c>
       <c r="I3" t="n">
-        <v>43.3916484509055</v>
+        <v>26.08799037861046</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>84.2097812629608</v>
+        <v>54.57480171805644</v>
       </c>
       <c r="K3" t="n">
-        <v>86.62912534532812</v>
+        <v>58.50675253817137</v>
       </c>
       <c r="L3" s="12" t="n">
-        <v>1.472352952941222</v>
+        <v>0.2548235294117696</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.2525202147737466</v>
+        <v>-0.5343511450381702</v>
       </c>
       <c r="N3" t="n">
-        <v>16.77888827777777</v>
+        <v>11.88496</v>
       </c>
       <c r="O3" t="n">
-        <v>19.60222344444444</v>
+        <v>13.15504</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIBK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIQCD</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIBK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-IQCD/financials-overview/</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIBK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-IQCD/technicals/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORDS</t>
+          <t>QIBK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6256,64 +6256,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.48</v>
+        <v>19.450001</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>1300721</v>
+        <v>392778</v>
       </c>
       <c r="I4" t="n">
-        <v>17.93305078134811</v>
+        <v>25.58866134822821</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>70.3809393924783</v>
+        <v>62.54861474182103</v>
       </c>
       <c r="K4" t="n">
-        <v>68.68080861901416</v>
+        <v>60.71953862057027</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>0.4656617058823471</v>
+        <v>0.37123537647064</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5758157389635364</v>
+        <v>0.3612074489787062</v>
       </c>
       <c r="N4" t="n">
-        <v>9.202222222222224</v>
+        <v>17.585859809</v>
       </c>
       <c r="O4" t="n">
-        <v>10.68722222222222</v>
+        <v>18.944140691</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AORDS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIBK</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-ORDS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIBK/financials-overview/</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-ORDS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIBK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>QGTS</t>
+          <t>ORDS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6322,64 +6322,64 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.65</v>
+        <v>10.42</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>2960269</v>
+        <v>739011</v>
       </c>
       <c r="I5" t="n">
-        <v>39.93822897783049</v>
+        <v>10.74550118519348</v>
       </c>
       <c r="J5" s="12" t="n">
-        <v>65.69024963566564</v>
+        <v>54.05668090548453</v>
       </c>
       <c r="K5" t="n">
-        <v>66.68613959611665</v>
+        <v>60.4279152184408</v>
       </c>
       <c r="L5" s="12" t="n">
-        <v>0.2531911764705939</v>
+        <v>0.242985264705883</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1931745009658608</v>
+        <v>-1.138519924098664</v>
       </c>
       <c r="N5" t="n">
-        <v>3.764444444444444</v>
+        <v>9.630290000000002</v>
       </c>
       <c r="O5" t="n">
-        <v>5.220111111111111</v>
+        <v>10.34471</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGTS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AORDS</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QGTS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-ORDS/financials-overview/</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QGTS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-ORDS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DUBK</t>
+          <t>CBQK</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6388,130 +6388,130 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.793</v>
+        <v>4.192</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>4861608</v>
+        <v>1977916</v>
       </c>
       <c r="I6" t="n">
-        <v>35.43671114708825</v>
+        <v>19.45416317971548</v>
       </c>
       <c r="J6" s="12" t="n">
-        <v>59.61048189599143</v>
+        <v>57.8297062778899</v>
       </c>
       <c r="K6" t="n">
-        <v>61.62222086204157</v>
+        <v>57.8297062778899</v>
       </c>
       <c r="L6" s="12" t="n">
-        <v>0.1109676470588217</v>
+        <v>0.02095882352941825</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.3415659485023621</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.426611111111111</v>
+        <v>3.977949000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>3.965611111111111</v>
+        <v>4.384551</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADUBK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ACBQK</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DUBK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-CBQK/financials-overview/</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DUBK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-CBQK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>QEWS</t>
+          <t>QIIK</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15.65</v>
+        <v>10.54</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>626768</v>
+        <v>1331063</v>
       </c>
       <c r="I7" t="n">
-        <v>26.13802007971638</v>
+        <v>17.08228660676233</v>
       </c>
       <c r="J7" s="12" t="n">
-        <v>60.70073939122688</v>
+        <v>55.02252442678343</v>
       </c>
       <c r="K7" t="n">
-        <v>68.98558627464296</v>
+        <v>59.97394343675469</v>
       </c>
       <c r="L7" s="12" t="n">
-        <v>0.5112647058823683</v>
+        <v>0.2595588235293853</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.9493670886075972</v>
+        <v>-0.9398496240601637</v>
       </c>
       <c r="N7" t="n">
-        <v>14.37111111111111</v>
+        <v>9.368609999999997</v>
       </c>
       <c r="O7" t="n">
-        <v>16.40611111111111</v>
+        <v>10.50639</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQEWS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIIK</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QEWS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIIK/financials-overview/</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QEWS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIIK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>QIIK</t>
+          <t>QNNS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6520,64 +6520,64 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10.52</v>
+        <v>11.84</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>855176</v>
+        <v>335514</v>
       </c>
       <c r="I8" t="n">
-        <v>22.76808106934289</v>
+        <v>23.02269442479412</v>
       </c>
       <c r="J8" s="12" t="n">
-        <v>59.01501262717559</v>
+        <v>61.91496220857517</v>
       </c>
       <c r="K8" t="n">
-        <v>67.52098281489583</v>
+        <v>64.58125577120899</v>
       </c>
       <c r="L8" s="12" t="n">
-        <v>0.3692941176470335</v>
+        <v>0.3731764705882554</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.682242990654203</v>
+        <v>-0.4205214465937823</v>
       </c>
       <c r="N8" t="n">
-        <v>8.714444444444444</v>
+        <v>10.61339</v>
       </c>
       <c r="O8" t="n">
-        <v>11.07944444444444</v>
+        <v>12.12161</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIIK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNNS</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIIK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QNNS/financials-overview/</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIIK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QNNS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>QFLS</t>
+          <t>GISS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6586,64 +6586,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14.9</v>
+        <v>3.442</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>426055</v>
+        <v>4208992</v>
       </c>
       <c r="I9" t="n">
-        <v>11.74332465978865</v>
+        <v>31.89438423301488</v>
       </c>
       <c r="J9" s="12" t="n">
-        <v>52.86679531756832</v>
+        <v>69.30319605564426</v>
       </c>
       <c r="K9" t="n">
-        <v>52.86679531756833</v>
+        <v>65.07303045942902</v>
       </c>
       <c r="L9" s="12" t="n">
-        <v>0.2325000000000053</v>
+        <v>0.09450294117647307</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.9680258140217178</v>
       </c>
       <c r="N9" t="n">
-        <v>13.54277777777778</v>
+        <v>3.088852</v>
       </c>
       <c r="O9" t="n">
-        <v>15.68777777777778</v>
+        <v>3.378147999999999</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQFLS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGISS</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QFLS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GISS/financials-overview/</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QFLS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GISS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>QNNS</t>
+          <t>DHBK</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6652,64 +6652,64 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11.35</v>
+        <v>1.495</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>2062876</v>
+        <v>2905936</v>
       </c>
       <c r="I10" t="n">
-        <v>20.11940706892861</v>
+        <v>26.30658646148051</v>
       </c>
       <c r="J10" s="12" t="n">
-        <v>54.63844274927386</v>
+        <v>61.61245115429726</v>
       </c>
       <c r="K10" t="n">
-        <v>49.57365296045343</v>
+        <v>60.70630041183875</v>
       </c>
       <c r="L10" s="12" t="n">
-        <v>0.174911764705902</v>
+        <v>0.03151764705881899</v>
       </c>
       <c r="M10" t="n">
-        <v>1.793721973094164</v>
+        <v>0.268276324614353</v>
       </c>
       <c r="N10" t="n">
-        <v>9.770555555555555</v>
+        <v>1.388827</v>
       </c>
       <c r="O10" t="n">
-        <v>12.90555555555555</v>
+        <v>1.479673</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNNS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADHBK</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNNS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-DHBK/financials-overview/</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNNS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-DHBK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VFQS</t>
+          <t>MERS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6718,64 +6718,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.747</v>
+        <v>14.8</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
         <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>1549622</v>
+        <v>116049</v>
       </c>
       <c r="I11" t="n">
-        <v>31.02820650630284</v>
+        <v>28.86303392706252</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>65.72717959581647</v>
+        <v>59.98808147417348</v>
       </c>
       <c r="K11" t="n">
-        <v>62.79865582823971</v>
+        <v>59.98808147417348</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>0.03876470588235748</v>
+        <v>0.06111764705880951</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6916426512968306</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.640055555555556</v>
+        <v>13.24036</v>
       </c>
       <c r="O11" t="n">
-        <v>1.753722222222223</v>
+        <v>15.03964</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AVFQS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMERS</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-VFQS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MERS/financials-overview/</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-VFQS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MERS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GISS</t>
+          <t>BLDN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6784,64 +6784,64 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.311</v>
+        <v>1.421</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>7796773</v>
+        <v>15980186</v>
       </c>
       <c r="I12" t="n">
-        <v>34.1285735139727</v>
+        <v>40.65263811918449</v>
       </c>
       <c r="J12" s="12" t="n">
-        <v>59.59403036712219</v>
+        <v>67.38084822787675</v>
       </c>
       <c r="K12" t="n">
-        <v>57.57862794880207</v>
+        <v>78.87705392425241</v>
       </c>
       <c r="L12" s="12" t="n">
-        <v>0.1210235294117665</v>
+        <v>0.07476176470588203</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6077180188392591</v>
+        <v>-1.796821008984107</v>
       </c>
       <c r="N12" t="n">
-        <v>2.928944444444444</v>
+        <v>1.286787</v>
       </c>
       <c r="O12" t="n">
-        <v>3.530277777777778</v>
+        <v>1.324713</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGISS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABLDN</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-GISS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-BLDN/financials-overview/</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-GISS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-BLDN/technicals/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AHCS</t>
+          <t>MEZA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -6850,130 +6850,130 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.777</v>
+        <v>3.56</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>780603</v>
+        <v>199933</v>
       </c>
       <c r="I13" t="n">
-        <v>21.25455034550178</v>
+        <v>25.37073674180707</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>65.55429022661195</v>
+        <v>54.13813146358247</v>
       </c>
       <c r="K13" t="n">
-        <v>65.55429022661194</v>
+        <v>54.13813146358247</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>0.007682352941177029</v>
+        <v>0.02744117647058752</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7404444444444445</v>
+        <v>3.472187000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7807777777777778</v>
+        <v>3.598313</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAHCS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMEZA</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-AHCS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MEZA/financials-overview/</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-AHCS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MEZA/technicals/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DHBK</t>
+          <t>QIMD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.43</v>
+        <v>2.655</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>10053592</v>
+        <v>147175</v>
       </c>
       <c r="I14" t="n">
-        <v>25.04474601852598</v>
+        <v>34.31759579256358</v>
       </c>
       <c r="J14" s="12" t="n">
-        <v>51.97765989071952</v>
+        <v>69.37839854944232</v>
       </c>
       <c r="K14" t="n">
-        <v>58.35901950030753</v>
+        <v>63.71088707990603</v>
       </c>
       <c r="L14" s="12" t="n">
-        <v>0.02940294117646558</v>
+        <v>0.07512647058822619</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.9009009009009094</v>
+        <v>1.72413793103448</v>
       </c>
       <c r="N14" t="n">
-        <v>1.335</v>
+        <v>2.45276</v>
       </c>
       <c r="O14" t="n">
-        <v>1.523833333333333</v>
+        <v>2.57624</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADHBK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIMD</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DHBK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIMD/financials-overview/</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DHBK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIMD/technicals/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MERS</t>
+          <t>QLMI</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6982,130 +6982,130 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14.85</v>
+        <v>2.07</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H15" t="n">
-        <v>121872</v>
+        <v>513895</v>
       </c>
       <c r="I15" t="n">
-        <v>37.76796891545495</v>
+        <v>35.28139840051249</v>
       </c>
       <c r="J15" s="12" t="n">
-        <v>66.97505470075428</v>
+        <v>59.18962595005573</v>
       </c>
       <c r="K15" t="n">
-        <v>62.97295362520317</v>
+        <v>60.50110608067018</v>
       </c>
       <c r="L15" s="12" t="n">
-        <v>0.5845294117646755</v>
+        <v>0.05913823529411832</v>
       </c>
       <c r="M15" t="n">
-        <v>1.365187713310575</v>
+        <v>-0.240963855421703</v>
       </c>
       <c r="N15" t="n">
-        <v>12.23222222222222</v>
+        <v>1.943198</v>
       </c>
       <c r="O15" t="n">
-        <v>15.97222222222222</v>
+        <v>2.050802</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMERS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQLMI</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-MERS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QLMI/financials-overview/</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-MERS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QLMI/technicals/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>QNCD</t>
+          <t>AKHI</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3.782</v>
+        <v>2.41</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>661417</v>
+        <v>1123701</v>
       </c>
       <c r="I16" t="n">
-        <v>51.97629202811493</v>
+        <v>17.29726656174855</v>
       </c>
       <c r="J16" s="12" t="n">
-        <v>67.33803682273692</v>
+        <v>53.34307755930456</v>
       </c>
       <c r="K16" t="n">
-        <v>67.33803682273691</v>
+        <v>53.59508234351618</v>
       </c>
       <c r="L16" s="12" t="n">
-        <v>0.1545558823529434</v>
+        <v>0.00721764705882233</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0.04147656574035213</v>
       </c>
       <c r="N16" t="n">
-        <v>3.332666666666666</v>
+        <v>2.301446</v>
       </c>
       <c r="O16" t="n">
-        <v>3.974333333333333</v>
+        <v>2.472554000000001</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNCD</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAKHI</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNCD/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-AKHI/financials-overview/</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QNCD/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-AKHI/technicals/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GWCS</t>
+          <t>MHAR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7114,384 +7114,54 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.375</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>470492</v>
+        <v>1762085</v>
       </c>
       <c r="I17" t="n">
-        <v>22.94784475503361</v>
+        <v>34.91762881365091</v>
       </c>
       <c r="J17" s="12" t="n">
-        <v>59.61898248009737</v>
+        <v>71.27051940245501</v>
       </c>
       <c r="K17" t="n">
-        <v>60.91230229833091</v>
+        <v>71.27051940245501</v>
       </c>
       <c r="L17" s="12" t="n">
-        <v>0.008723529411764019</v>
+        <v>0.2115941176470573</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.1479289940828371</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.192388888888888</v>
+        <v>1.520884</v>
       </c>
       <c r="O17" t="n">
-        <v>3.471055555555555</v>
+        <v>1.676116</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGWCS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMHAR</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-GWCS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MHAR/financials-overview/</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-GWCS/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="13" t="n">
-        <v>45483.83680250714</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>QIGD</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1.591</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-      <c r="G18" t="n">
-        <v>11</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1848799</v>
-      </c>
-      <c r="I18" t="n">
-        <v>23.8574480379032</v>
-      </c>
-      <c r="J18" s="12" t="n">
-        <v>60.53229167824227</v>
-      </c>
-      <c r="K18" t="n">
-        <v>59.99652782144849</v>
-      </c>
-      <c r="L18" s="12" t="n">
-        <v>0.02162352941176193</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.1258653241032097</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.470611111111111</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.624611111111111</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIGD</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIGD/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIGD/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="n">
-        <v>45483.83680250714</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MCGS</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>4.343</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-      <c r="G19" t="n">
-        <v>12</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1222651</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12.93648388644739</v>
-      </c>
-      <c r="J19" s="12" t="n">
-        <v>57.89489813529582</v>
-      </c>
-      <c r="K19" t="n">
-        <v>55.4759348782183</v>
-      </c>
-      <c r="L19" s="12" t="n">
-        <v>0.03154117647058285</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.5556841861542029</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.889277777777778</v>
-      </c>
-      <c r="O19" t="n">
-        <v>4.624444444444443</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCGS</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MCGS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MCGS/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="13" t="n">
-        <v>45483.83680250714</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>WDAM</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-      <c r="G20" t="n">
-        <v>15</v>
-      </c>
-      <c r="H20" t="n">
-        <v>595870</v>
-      </c>
-      <c r="I20" t="n">
-        <v>35.64282619903048</v>
-      </c>
-      <c r="J20" s="12" t="n">
-        <v>61.30780274773389</v>
-      </c>
-      <c r="K20" t="n">
-        <v>61.17958405713845</v>
-      </c>
-      <c r="L20" s="12" t="n">
-        <v>0.1661323529411747</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.07072135785007864</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.269444444444444</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3.167777777777778</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AWDAM</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-WDAM/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-WDAM/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="n">
-        <v>45483.83680250714</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MHAR</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-      <c r="G21" t="n">
-        <v>15</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1493188</v>
-      </c>
-      <c r="I21" t="n">
-        <v>26.82870081654632</v>
-      </c>
-      <c r="J21" s="12" t="n">
-        <v>65.6453076699936</v>
-      </c>
-      <c r="K21" t="n">
-        <v>67.07213316669515</v>
-      </c>
-      <c r="L21" s="12" t="n">
-        <v>0.1621911764705875</v>
-      </c>
-      <c r="M21" t="n">
-        <v>-0.4975124378109396</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.439722222222222</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.762388888888889</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMHAR</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MHAR/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
           <t>https://www.tradingview.com/symbols/QSE-MHAR/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="13" t="n">
-        <v>45483.83680250714</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>QGMD</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
-      <c r="G22" t="n">
-        <v>11</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2739353</v>
-      </c>
-      <c r="I22" t="n">
-        <v>21.21944153913594</v>
-      </c>
-      <c r="J22" s="12" t="n">
-        <v>53.93974076270525</v>
-      </c>
-      <c r="K22" t="n">
-        <v>57.98333624623904</v>
-      </c>
-      <c r="L22" s="12" t="n">
-        <v>0.01514117647058488</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-1.005823186871355</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.624055555555556</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2.104388888888889</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGMD</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QGMD/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-QGMD/technicals/</t>
         </is>
       </c>
     </row>
@@ -7517,7 +7187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7622,11 +7292,11 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>QEWS</t>
+          <t>IQCD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -7635,64 +7305,64 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15.65</v>
+        <v>13.03</v>
       </c>
       <c r="E2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
         <v>9</v>
       </c>
-      <c r="F2" t="n">
-        <v>7</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10</v>
-      </c>
       <c r="H2" t="n">
-        <v>626768</v>
+        <v>664049</v>
       </c>
       <c r="I2" t="n">
-        <v>26.13802007971638</v>
+        <v>26.08799037861046</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>60.70073939122688</v>
+        <v>54.57480171805644</v>
       </c>
       <c r="K2" t="n">
-        <v>68.98558627464296</v>
+        <v>58.50675253817137</v>
       </c>
       <c r="L2" s="12" t="n">
-        <v>0.5112647058823683</v>
+        <v>0.2548235294117696</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.9493670886075972</v>
+        <v>-0.5343511450381702</v>
       </c>
       <c r="N2" t="n">
-        <v>14.37111111111111</v>
+        <v>11.88496</v>
       </c>
       <c r="O2" t="n">
-        <v>16.40611111111111</v>
+        <v>13.15504</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQEWS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIQCD</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QEWS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-IQCD/financials-overview/</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QEWS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-IQCD/technicals/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DHBK</t>
+          <t>AHCS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -7701,54 +7371,120 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.43</v>
+        <v>0.797</v>
       </c>
       <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
         <v>9</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>10</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>65144</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33.54535861883198</v>
+      </c>
+      <c r="J3" s="12" t="n">
+        <v>55.07569932389622</v>
+      </c>
+      <c r="K3" t="n">
+        <v>58.40741289381683</v>
+      </c>
+      <c r="L3" s="12" t="n">
+        <v>0.01719117647058865</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.4993757802746571</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.7507980000000001</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.7702020000000001</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAHCS</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AHCS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AHCS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="n">
+        <v>45503.84460166313</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AKHI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="E4" t="n">
         <v>7</v>
       </c>
-      <c r="H3" t="n">
-        <v>10053592</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25.04474601852598</v>
-      </c>
-      <c r="J3" s="12" t="n">
-        <v>51.97765989071952</v>
-      </c>
-      <c r="K3" t="n">
-        <v>58.35901950030753</v>
-      </c>
-      <c r="L3" s="12" t="n">
-        <v>0.02940294117646558</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-0.9009009009009094</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.335</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.523833333333333</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADHBK</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-DHBK/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-DHBK/technicals/</t>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1123701</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17.29726656174855</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <v>53.34307755930456</v>
+      </c>
+      <c r="K4" t="n">
+        <v>53.59508234351618</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>0.00721764705882233</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.04147656574035213</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.301446</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.472554000000001</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAKHI</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AKHI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AKHI/technicals/</t>
         </is>
       </c>
     </row>
@@ -7774,7 +7510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7879,7 +7615,7 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -7892,40 +7628,40 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.672</v>
+        <v>1.68</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>11081863</v>
+        <v>3357693</v>
       </c>
       <c r="I2" t="n">
-        <v>23.9949211719757</v>
+        <v>10.76521266632601</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>44.45689952403556</v>
+        <v>48.8550184723202</v>
       </c>
       <c r="K2" t="n">
-        <v>48.97935956311579</v>
+        <v>51.62998862117757</v>
       </c>
       <c r="L2" s="12" t="n">
-        <v>-0.01229411764705413</v>
+        <v>-0.00875882352940649</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.065088757396451</v>
+        <v>-0.4739336492891</v>
       </c>
       <c r="N2" t="n">
-        <v>1.577777777777777</v>
+        <v>1.622754</v>
       </c>
       <c r="O2" t="n">
-        <v>1.772111111111111</v>
+        <v>1.716245999999999</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -7945,11 +7681,11 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>ERES</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -7958,64 +7694,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.326</v>
+        <v>0.761</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>11114474</v>
+        <v>2885258</v>
       </c>
       <c r="I3" t="n">
-        <v>26.7626936816432</v>
+        <v>16.91600474894068</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>47.12742777604831</v>
+        <v>38.40003181714381</v>
       </c>
       <c r="K3" t="n">
-        <v>48.12506726559043</v>
+        <v>39.9081744639196</v>
       </c>
       <c r="L3" s="12" t="n">
-        <v>-0.02962352941176327</v>
+        <v>-0.01568823529411612</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1716738197424894</v>
+        <v>-0.3926701570680631</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2575</v>
+        <v>0.751995</v>
       </c>
       <c r="O3" t="n">
-        <v>2.4005</v>
+        <v>0.8005049999999998</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMARK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AERES</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-MARK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-ERES/financials-overview/</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-MARK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-ERES/technicals/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ERES</t>
+          <t>QEWS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8024,60 +7760,60 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.768</v>
+        <v>15.38</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>8534980</v>
+        <v>242973</v>
       </c>
       <c r="I4" t="n">
-        <v>21.75722293600613</v>
+        <v>26.6281918684388</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>39.14747182765163</v>
+        <v>48.63650900878874</v>
       </c>
       <c r="K4" t="n">
-        <v>42.57517138184155</v>
+        <v>49.0087483768796</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>-0.01727058823529259</v>
+        <v>-0.1143823529411634</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.5181347150259072</v>
+        <v>-0.06497725795971271</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7283333333333334</v>
+        <v>14.94299</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8291666666666665</v>
+        <v>15.92201</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AERES</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQEWS</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-ERES/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QEWS/financials-overview/</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-ERES/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QEWS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -8090,40 +7826,40 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.771</v>
+        <v>2.767</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2713538</v>
+        <v>1610574</v>
       </c>
       <c r="I5" t="n">
-        <v>28.34826254261855</v>
+        <v>15.63640066235076</v>
       </c>
       <c r="J5" s="12" t="n">
-        <v>45.38904086806171</v>
+        <v>45.25195192537049</v>
       </c>
       <c r="K5" t="n">
-        <v>48.65167889277375</v>
+        <v>50.39195388204865</v>
       </c>
       <c r="L5" s="12" t="n">
-        <v>-0.07621764705881118</v>
+        <v>-0.0006029411764583159</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.6453926138400946</v>
+        <v>-0.7888131946934471</v>
       </c>
       <c r="N5" t="n">
-        <v>2.593722222222222</v>
+        <v>2.681536</v>
       </c>
       <c r="O5" t="n">
-        <v>2.967722222222223</v>
+        <v>2.861464</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -8143,11 +7879,11 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IGRD</t>
+          <t>VFQS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -8156,64 +7892,64 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.943</v>
+        <v>1.7</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>3424652</v>
+        <v>2305926</v>
       </c>
       <c r="I6" t="n">
-        <v>18.23226395873201</v>
+        <v>22.81060655505237</v>
       </c>
       <c r="J6" s="12" t="n">
-        <v>48.78323831496574</v>
+        <v>44.40157890623276</v>
       </c>
       <c r="K6" t="n">
-        <v>44.40186027034198</v>
+        <v>44.40157890623276</v>
       </c>
       <c r="L6" s="12" t="n">
-        <v>-0.001129411764707156</v>
+        <v>-0.001067647058819565</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8303061754021802</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.874888888888889</v>
+        <v>1.670658</v>
       </c>
       <c r="O6" t="n">
-        <v>2.028888888888889</v>
+        <v>1.725342</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIGRD</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AVFQS</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-IGRD/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-VFQS/financials-overview/</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-IGRD/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-VFQS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCCS</t>
+          <t>UDCD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -8222,64 +7958,64 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.907</v>
+        <v>1.113</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>237973</v>
+        <v>10766105</v>
       </c>
       <c r="I7" t="n">
-        <v>11.63727735200793</v>
+        <v>17.27940943218056</v>
       </c>
       <c r="J7" s="12" t="n">
-        <v>48.4869659508667</v>
+        <v>42.38739558099892</v>
       </c>
       <c r="K7" t="n">
-        <v>54.24343616978519</v>
+        <v>40.80063487662259</v>
       </c>
       <c r="L7" s="12" t="n">
-        <v>-0.03239117647058531</v>
+        <v>-0.01614411764705692</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.338383838383837</v>
+        <v>0.2702702702702605</v>
       </c>
       <c r="N7" t="n">
-        <v>3.629777777777778</v>
+        <v>1.091765</v>
       </c>
       <c r="O7" t="n">
-        <v>4.176111111111111</v>
+        <v>1.166735</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCCS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AUDCD</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-MCCS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-UDCD/financials-overview/</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-MCCS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-UDCD/technicals/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DOHI</t>
+          <t>GWCS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -8288,64 +8024,64 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.415</v>
+        <v>3.293</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>146667</v>
+        <v>884743</v>
       </c>
       <c r="I8" t="n">
-        <v>21.54891097211091</v>
+        <v>26.04044913969136</v>
       </c>
       <c r="J8" s="12" t="n">
-        <v>46.11702816579999</v>
+        <v>40.90489353302408</v>
       </c>
       <c r="K8" t="n">
-        <v>45.51195620506614</v>
+        <v>37.20613880189059</v>
       </c>
       <c r="L8" s="12" t="n">
-        <v>-0.009229411764705819</v>
+        <v>-0.04378529411764731</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1659062629614269</v>
+        <v>0.3351614868982364</v>
       </c>
       <c r="N8" t="n">
-        <v>2.258055555555556</v>
+        <v>3.263468</v>
       </c>
       <c r="O8" t="n">
-        <v>2.670555555555556</v>
+        <v>3.397532</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADOHI</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGWCS</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DOHI/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GWCS/financials-overview/</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-DOHI/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GWCS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>QGRI</t>
+          <t>QIGD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8354,64 +8090,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.907</v>
+        <v>1.568</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>58626</v>
+        <v>522811</v>
       </c>
       <c r="I9" t="n">
-        <v>23.18703352432577</v>
+        <v>21.583231533835</v>
       </c>
       <c r="J9" s="12" t="n">
-        <v>41.73805340535198</v>
+        <v>47.68448871474931</v>
       </c>
       <c r="K9" t="n">
-        <v>43.71402458039621</v>
+        <v>44.78437974973053</v>
       </c>
       <c r="L9" s="12" t="n">
-        <v>-0.03854117647058841</v>
+        <v>-0.002517647058825734</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.30576713819369</v>
+        <v>0.4484304932735501</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8177222222222224</v>
+        <v>1.510456</v>
       </c>
       <c r="O9" t="n">
-        <v>1.100055555555556</v>
+        <v>1.584544</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGRI</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIGD</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QGRI/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIGD/financials-overview/</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QGRI/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIGD/technicals/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>QOIS</t>
+          <t>MCCS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -8420,64 +8156,64 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.76</v>
+        <v>3.851</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>725634</v>
+        <v>418618</v>
       </c>
       <c r="I10" t="n">
-        <v>34.31127510764141</v>
+        <v>10.77676250278328</v>
       </c>
       <c r="J10" s="12" t="n">
-        <v>31.85312167228773</v>
+        <v>42.4981102215815</v>
       </c>
       <c r="K10" t="n">
-        <v>35.15049700217723</v>
+        <v>39.60126336289514</v>
       </c>
       <c r="L10" s="12" t="n">
-        <v>-0.02410294117647105</v>
+        <v>-0.03185882352940794</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.9126466753585406</v>
+        <v>0.4434011476264972</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7326666666666667</v>
+        <v>3.758082</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8426666666666666</v>
+        <v>4.020918</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQOIS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCCS</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QOIS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MCCS/financials-overview/</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QOIS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MCCS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>QCFS</t>
+          <t>QGRI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -8486,64 +8222,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.702</v>
+        <v>0.915</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>28.14385511052187</v>
+        <v>17.08094655644114</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>41.18401049119782</v>
+        <v>45.23195160314012</v>
       </c>
       <c r="K11" t="n">
-        <v>41.18401049119782</v>
+        <v>45.23195160314012</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>-0.1047352941176465</v>
+        <v>-0.01495588235294132</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.383</v>
+        <v>0.8840860000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>3.241</v>
+        <v>1.019914</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQCFS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGRI</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QCFS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QGRI/financials-overview/</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QCFS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QGRI/technicals/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FALH</t>
+          <t>IHGS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -8552,54 +8288,120 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6850000000000001</v>
+        <v>4.241</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>1315</v>
+        <v>635481</v>
       </c>
       <c r="I12" t="n">
-        <v>13.50247916065292</v>
+        <v>20.24380806265436</v>
       </c>
       <c r="J12" s="12" t="n">
-        <v>43.27927288048357</v>
+        <v>40.65122173843154</v>
       </c>
       <c r="K12" t="n">
-        <v>43.27927288048357</v>
+        <v>48.04287064774922</v>
       </c>
       <c r="L12" s="12" t="n">
-        <v>-0.002688235294118213</v>
+        <v>-0.04308235294118301</v>
       </c>
       <c r="M12" t="n">
+        <v>-2.055427251732111</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.338026</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.614974</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIHGS</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IHGS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IHGS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="n">
+        <v>45503.84460166313</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>QCFS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2.702</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="N12" t="n">
-        <v>0.6726666666666667</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.7074999999999999</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AFALH</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-FALH/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-FALH/technicals/</t>
+      <c r="I13" t="n">
+        <v>23.23904726131321</v>
+      </c>
+      <c r="J13" s="12" t="n">
+        <v>41.18401049119783</v>
+      </c>
+      <c r="K13" t="n">
+        <v>41.18401049119783</v>
+      </c>
+      <c r="L13" s="12" t="n">
+        <v>-0.02232352941176563</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.621612</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3.034388000000001</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQCFS</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QCFS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QCFS/technicals/</t>
         </is>
       </c>
     </row>
@@ -8625,7 +8427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8730,11 +8532,11 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CBQK</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8743,64 +8545,64 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.1</v>
+        <v>2.324</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>3582759</v>
+        <v>3726849</v>
       </c>
       <c r="I2" t="n">
-        <v>22.78266667800646</v>
+        <v>18.38360762726525</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>47.01400213409872</v>
+        <v>45.77281555442152</v>
       </c>
       <c r="K2" t="n">
-        <v>49.1206723765392</v>
+        <v>48.01055386624568</v>
       </c>
       <c r="L2" s="12" t="n">
-        <v>0.1260705882352982</v>
+        <v>0.002041176470589434</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4854368932038947</v>
+        <v>-0.2575107296137437</v>
       </c>
       <c r="N2" t="n">
-        <v>3.733388888888889</v>
+        <v>2.294602</v>
       </c>
       <c r="O2" t="n">
-        <v>4.578555555555556</v>
+        <v>2.363398</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ACBQK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMARK</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-CBQK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MARK/financials-overview/</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-CBQK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-MARK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>QATI</t>
+          <t>DUBK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8809,64 +8611,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.1</v>
+        <v>3.74</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>73161</v>
+        <v>1543892</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0985229672711</v>
+        <v>21.82202677019785</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>47.85093959485081</v>
+        <v>47.78253879883918</v>
       </c>
       <c r="K3" t="n">
-        <v>55.36045070691043</v>
+        <v>50.47908933142833</v>
       </c>
       <c r="L3" s="12" t="n">
-        <v>0.02498235294117457</v>
+        <v>0.03096176470587997</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.869158878504674</v>
+        <v>-0.478978179882911</v>
       </c>
       <c r="N3" t="n">
-        <v>1.949055555555556</v>
+        <v>3.567346</v>
       </c>
       <c r="O3" t="n">
-        <v>2.218555555555555</v>
+        <v>3.826654</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQATI</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADUBK</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QATI/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-DUBK/financials-overview/</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QATI/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-DUBK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>QIMD</t>
+          <t>SIIS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8875,384 +8677,120 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.52</v>
+        <v>0.676</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>222908</v>
+        <v>769850</v>
       </c>
       <c r="I4" t="n">
-        <v>18.66699568585874</v>
+        <v>17.79869151615519</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>49.93652548075251</v>
+        <v>46.77198056247556</v>
       </c>
       <c r="K4" t="n">
-        <v>49.93652548075251</v>
+        <v>54.86010990880375</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>0.001058823529402897</v>
+        <v>0.007667647058824278</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-1.457725947521867</v>
       </c>
       <c r="N4" t="n">
-        <v>2.389833333333333</v>
+        <v>0.6468040000000002</v>
       </c>
       <c r="O4" t="n">
-        <v>2.6465</v>
+        <v>0.696196</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIMD</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ASIIS</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIMD/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-SIIS/financials-overview/</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-QIMD/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-SIIS/technicals/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="13" t="n">
-        <v>45483.83680250714</v>
+        <v>45503.84460166313</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SIIS</t>
+          <t>NLCS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.669</v>
+        <v>0.712</v>
       </c>
       <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="n">
         <v>10</v>
       </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>373463</v>
+        <v>5425107</v>
       </c>
       <c r="I5" t="n">
-        <v>13.71423092021016</v>
+        <v>30.43745661379287</v>
       </c>
       <c r="J5" s="12" t="n">
-        <v>49.24704248119033</v>
+        <v>46.74863412264865</v>
       </c>
       <c r="K5" t="n">
-        <v>51.68214458738122</v>
+        <v>54.81080703674073</v>
       </c>
       <c r="L5" s="12" t="n">
-        <v>0.004191176470589086</v>
+        <v>0.003691176470585145</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.4464285714285718</v>
+        <v>-1.793103448275864</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6182777777777778</v>
+        <v>0.6943600000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7209444444444446</v>
+        <v>0.7296400000000001</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ASIIS</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ANLCS</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-SIIS/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-NLCS/financials-overview/</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-SIIS/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="n">
-        <v>45483.83680250714</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AKHI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2.374</v>
-      </c>
-      <c r="E6" t="n">
-        <v>15</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1698223</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15.97799657831498</v>
-      </c>
-      <c r="J6" s="12" t="n">
-        <v>46.13932301161793</v>
-      </c>
-      <c r="K6" t="n">
-        <v>46.29011884337932</v>
-      </c>
-      <c r="L6" s="12" t="n">
-        <v>0.00302058823529272</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-0.0421052631578901</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.211388888888889</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2.567055555555556</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAKHI</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-AKHI/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-AKHI/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="n">
-        <v>45483.83680250714</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MKDM</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NEUTRAL</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3.631</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>147438</v>
-      </c>
-      <c r="I7" t="n">
-        <v>23.43854041010506</v>
-      </c>
-      <c r="J7" s="12" t="n">
-        <v>49.95238058366298</v>
-      </c>
-      <c r="K7" t="n">
-        <v>46.58650406953593</v>
-      </c>
-      <c r="L7" s="12" t="n">
-        <v>0.02559117647059761</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.5817174515235433</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.415777777777778</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3.800777777777778</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMKDM</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MKDM/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-MKDM/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="n">
-        <v>45483.83680250714</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>IHGS</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>4.269</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11</v>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>365336</v>
-      </c>
-      <c r="I8" t="n">
-        <v>31.92451409962023</v>
-      </c>
-      <c r="J8" s="12" t="n">
-        <v>41.3294858471676</v>
-      </c>
-      <c r="K8" t="n">
-        <v>41.88151836996662</v>
-      </c>
-      <c r="L8" s="12" t="n">
-        <v>0.04599705882352279</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-0.2570093457943953</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.173444444444445</v>
-      </c>
-      <c r="O8" t="n">
-        <v>4.749111111111112</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIHGS</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-IHGS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-IHGS/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="n">
-        <v>45483.83680250714</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DBIS</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.234</v>
-      </c>
-      <c r="E9" t="n">
-        <v>14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>27241</v>
-      </c>
-      <c r="I9" t="n">
-        <v>15.68494513689769</v>
-      </c>
-      <c r="J9" s="12" t="n">
-        <v>46.41753287256827</v>
-      </c>
-      <c r="K9" t="n">
-        <v>48.04960387265348</v>
-      </c>
-      <c r="L9" s="12" t="n">
-        <v>0.004176470588236114</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-0.4838709677419359</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.158055555555556</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.339555555555555</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADBIS</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-DBIS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-DBIS/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-NLCS/technicals/</t>
         </is>
       </c>
     </row>
